--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2364,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>58</v>
@@ -2382,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="R13" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>57</v>
@@ -2446,7 +2446,7 @@
         <v>56</v>
       </c>
       <c r="L14" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>58</v>
@@ -2464,7 +2464,7 @@
         <v>55</v>
       </c>
       <c r="R14" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>57</v>
@@ -2528,7 +2528,7 @@
         <v>56</v>
       </c>
       <c r="L15" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>58</v>
@@ -2546,7 +2546,7 @@
         <v>55</v>
       </c>
       <c r="R15" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>57</v>
@@ -2610,7 +2610,7 @@
         <v>56</v>
       </c>
       <c r="L16" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>58</v>
@@ -2628,7 +2628,7 @@
         <v>55</v>
       </c>
       <c r="R16" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>57</v>
@@ -2692,7 +2692,7 @@
         <v>56</v>
       </c>
       <c r="L17" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>58</v>
@@ -2710,7 +2710,7 @@
         <v>55</v>
       </c>
       <c r="R17" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>57</v>
@@ -2774,7 +2774,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>58</v>
@@ -2792,7 +2792,7 @@
         <v>55</v>
       </c>
       <c r="R18" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>57</v>
@@ -2856,7 +2856,7 @@
         <v>56</v>
       </c>
       <c r="L19" s="3">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>58</v>
@@ -2874,7 +2874,7 @@
         <v>55</v>
       </c>
       <c r="R19" s="3">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>57</v>
@@ -2938,7 +2938,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>58</v>
@@ -2956,7 +2956,7 @@
         <v>55</v>
       </c>
       <c r="R20" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>57</v>
@@ -3020,7 +3020,7 @@
         <v>56</v>
       </c>
       <c r="L21" s="3">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>58</v>
@@ -3038,7 +3038,7 @@
         <v>55</v>
       </c>
       <c r="R21" s="3">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>57</v>
@@ -3102,7 +3102,7 @@
         <v>56</v>
       </c>
       <c r="L22" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>58</v>
@@ -3120,7 +3120,7 @@
         <v>55</v>
       </c>
       <c r="R22" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>57</v>
@@ -3184,7 +3184,7 @@
         <v>56</v>
       </c>
       <c r="L23" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>58</v>
@@ -3202,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="R23" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>57</v>
@@ -3266,7 +3266,7 @@
         <v>56</v>
       </c>
       <c r="L24" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>58</v>
@@ -3284,7 +3284,7 @@
         <v>55</v>
       </c>
       <c r="R24" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>57</v>
@@ -3348,7 +3348,7 @@
         <v>56</v>
       </c>
       <c r="L25" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>58</v>
@@ -3366,7 +3366,7 @@
         <v>55</v>
       </c>
       <c r="R25" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>57</v>
@@ -3430,7 +3430,7 @@
         <v>56</v>
       </c>
       <c r="L26" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>58</v>
@@ -3448,7 +3448,7 @@
         <v>55</v>
       </c>
       <c r="R26" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>57</v>
@@ -3512,7 +3512,7 @@
         <v>56</v>
       </c>
       <c r="L27" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>58</v>
@@ -3530,7 +3530,7 @@
         <v>55</v>
       </c>
       <c r="R27" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>57</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="L28" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>58</v>
@@ -3612,7 +3612,7 @@
         <v>55</v>
       </c>
       <c r="R28" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>57</v>
@@ -3676,7 +3676,7 @@
         <v>56</v>
       </c>
       <c r="L29" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>58</v>
@@ -3694,7 +3694,7 @@
         <v>55</v>
       </c>
       <c r="R29" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>57</v>
@@ -3758,7 +3758,7 @@
         <v>56</v>
       </c>
       <c r="L30" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>58</v>
@@ -3776,7 +3776,7 @@
         <v>55</v>
       </c>
       <c r="R30" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>57</v>
@@ -3840,7 +3840,7 @@
         <v>56</v>
       </c>
       <c r="L31" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>58</v>
@@ -3858,7 +3858,7 @@
         <v>55</v>
       </c>
       <c r="R31" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>57</v>
@@ -3922,7 +3922,7 @@
         <v>56</v>
       </c>
       <c r="L32" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>58</v>
@@ -3940,7 +3940,7 @@
         <v>55</v>
       </c>
       <c r="R32" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>57</v>
@@ -4022,7 +4022,7 @@
         <v>55</v>
       </c>
       <c r="R33" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>57</v>
@@ -4160,7 +4160,7 @@
         <v>56</v>
       </c>
       <c r="L35" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>58</v>
@@ -4234,7 +4234,7 @@
         <v>56</v>
       </c>
       <c r="L36" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>58</v>
@@ -4312,7 +4312,7 @@
         <v>56</v>
       </c>
       <c r="L37" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>58</v>
@@ -4390,7 +4390,7 @@
         <v>56</v>
       </c>
       <c r="L38" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>58</v>
@@ -4468,7 +4468,7 @@
         <v>56</v>
       </c>
       <c r="L39" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>58</v>
@@ -4550,7 +4550,7 @@
         <v>56</v>
       </c>
       <c r="L40" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>58</v>
@@ -4632,7 +4632,7 @@
         <v>56</v>
       </c>
       <c r="L41" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>58</v>
@@ -4714,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="L42" s="3">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>58</v>
@@ -4796,7 +4796,7 @@
         <v>56</v>
       </c>
       <c r="L43" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>58</v>
@@ -4814,7 +4814,7 @@
         <v>55</v>
       </c>
       <c r="R43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>57</v>
@@ -4878,7 +4878,7 @@
         <v>56</v>
       </c>
       <c r="L44" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>58</v>
@@ -4896,7 +4896,7 @@
         <v>55</v>
       </c>
       <c r="R44" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>57</v>
@@ -4960,7 +4960,7 @@
         <v>56</v>
       </c>
       <c r="L45" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>58</v>
@@ -4978,7 +4978,7 @@
         <v>55</v>
       </c>
       <c r="R45" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>57</v>
@@ -5042,7 +5042,7 @@
         <v>56</v>
       </c>
       <c r="L46" s="3">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>58</v>
@@ -5060,7 +5060,7 @@
         <v>55</v>
       </c>
       <c r="R46" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>57</v>
@@ -5124,7 +5124,7 @@
         <v>56</v>
       </c>
       <c r="L47" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>58</v>
@@ -5142,7 +5142,7 @@
         <v>55</v>
       </c>
       <c r="R47" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>57</v>
@@ -5206,7 +5206,7 @@
         <v>56</v>
       </c>
       <c r="L48" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>58</v>
@@ -5224,7 +5224,7 @@
         <v>55</v>
       </c>
       <c r="R48" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>57</v>
@@ -5288,7 +5288,7 @@
         <v>56</v>
       </c>
       <c r="L49" s="3">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>58</v>
@@ -5306,7 +5306,7 @@
         <v>55</v>
       </c>
       <c r="R49" s="3">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>57</v>
@@ -5370,7 +5370,7 @@
         <v>56</v>
       </c>
       <c r="L50" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>58</v>
@@ -5388,7 +5388,7 @@
         <v>55</v>
       </c>
       <c r="R50" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>57</v>
@@ -5452,7 +5452,7 @@
         <v>56</v>
       </c>
       <c r="L51" s="3">
-        <v>4400</v>
+        <v>3750</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>58</v>
@@ -5470,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="R51" s="3">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>57</v>
@@ -5534,7 +5534,7 @@
         <v>56</v>
       </c>
       <c r="L52" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>58</v>
@@ -5552,7 +5552,7 @@
         <v>55</v>
       </c>
       <c r="R52" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>57</v>
@@ -5616,7 +5616,7 @@
         <v>56</v>
       </c>
       <c r="L53" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>58</v>
@@ -5634,7 +5634,7 @@
         <v>55</v>
       </c>
       <c r="R53" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>57</v>
@@ -5716,7 +5716,7 @@
         <v>55</v>
       </c>
       <c r="R54" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>57</v>
@@ -5780,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="L55" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>58</v>
@@ -5798,7 +5798,7 @@
         <v>55</v>
       </c>
       <c r="R55" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>57</v>
@@ -5862,7 +5862,7 @@
         <v>56</v>
       </c>
       <c r="L56" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>58</v>
@@ -5880,7 +5880,7 @@
         <v>55</v>
       </c>
       <c r="R56" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>57</v>
@@ -5944,7 +5944,7 @@
         <v>56</v>
       </c>
       <c r="L57" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>58</v>
@@ -5962,7 +5962,7 @@
         <v>55</v>
       </c>
       <c r="R57" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>57</v>
@@ -6026,7 +6026,7 @@
         <v>56</v>
       </c>
       <c r="L58" s="3">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>58</v>
@@ -6044,7 +6044,7 @@
         <v>55</v>
       </c>
       <c r="R58" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>57</v>
@@ -6108,7 +6108,7 @@
         <v>56</v>
       </c>
       <c r="L59" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>58</v>
@@ -6126,7 +6126,7 @@
         <v>55</v>
       </c>
       <c r="R59" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>57</v>
@@ -6190,7 +6190,7 @@
         <v>56</v>
       </c>
       <c r="L60" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>58</v>
@@ -6208,7 +6208,7 @@
         <v>55</v>
       </c>
       <c r="R60" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>57</v>
@@ -6272,7 +6272,7 @@
         <v>56</v>
       </c>
       <c r="L61" s="3">
-        <v>6400</v>
+        <v>8500</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>58</v>
@@ -6290,7 +6290,7 @@
         <v>55</v>
       </c>
       <c r="R61" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>57</v>
@@ -6354,7 +6354,7 @@
         <v>56</v>
       </c>
       <c r="L62" s="3">
-        <v>6600</v>
+        <v>9000</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>58</v>
@@ -6372,7 +6372,7 @@
         <v>55</v>
       </c>
       <c r="R62" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>57</v>
@@ -6454,7 +6454,7 @@
         <v>55</v>
       </c>
       <c r="R63" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>57</v>
@@ -6592,7 +6592,7 @@
         <v>56</v>
       </c>
       <c r="L65" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>58</v>
@@ -6666,7 +6666,7 @@
         <v>56</v>
       </c>
       <c r="L66" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>58</v>
@@ -6744,7 +6744,7 @@
         <v>56</v>
       </c>
       <c r="L67" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>58</v>
@@ -6822,7 +6822,7 @@
         <v>56</v>
       </c>
       <c r="L68" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>58</v>
@@ -6900,7 +6900,7 @@
         <v>56</v>
       </c>
       <c r="L69" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>58</v>
@@ -6982,7 +6982,7 @@
         <v>56</v>
       </c>
       <c r="L70" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>58</v>
@@ -7064,7 +7064,7 @@
         <v>56</v>
       </c>
       <c r="L71" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>58</v>
@@ -7146,7 +7146,7 @@
         <v>56</v>
       </c>
       <c r="L72" s="3">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>58</v>
@@ -7228,7 +7228,7 @@
         <v>56</v>
       </c>
       <c r="L73" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>58</v>
@@ -7246,7 +7246,7 @@
         <v>55</v>
       </c>
       <c r="R73" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="S73" s="3" t="s">
         <v>57</v>
@@ -7310,7 +7310,7 @@
         <v>56</v>
       </c>
       <c r="L74" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>58</v>
@@ -7328,7 +7328,7 @@
         <v>55</v>
       </c>
       <c r="R74" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>57</v>
@@ -7392,7 +7392,7 @@
         <v>56</v>
       </c>
       <c r="L75" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>58</v>
@@ -7410,7 +7410,7 @@
         <v>55</v>
       </c>
       <c r="R75" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>57</v>
@@ -7474,7 +7474,7 @@
         <v>56</v>
       </c>
       <c r="L76" s="3">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>58</v>
@@ -7492,7 +7492,7 @@
         <v>55</v>
       </c>
       <c r="R76" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>57</v>
@@ -7556,7 +7556,7 @@
         <v>56</v>
       </c>
       <c r="L77" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>58</v>
@@ -7574,7 +7574,7 @@
         <v>55</v>
       </c>
       <c r="R77" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>57</v>
@@ -7638,7 +7638,7 @@
         <v>56</v>
       </c>
       <c r="L78" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>58</v>
@@ -7656,7 +7656,7 @@
         <v>55</v>
       </c>
       <c r="R78" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="S78" s="3" t="s">
         <v>57</v>
@@ -7720,7 +7720,7 @@
         <v>56</v>
       </c>
       <c r="L79" s="3">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>58</v>
@@ -7738,7 +7738,7 @@
         <v>55</v>
       </c>
       <c r="R79" s="3">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="S79" s="3" t="s">
         <v>57</v>
@@ -7802,7 +7802,7 @@
         <v>56</v>
       </c>
       <c r="L80" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>58</v>
@@ -7820,7 +7820,7 @@
         <v>55</v>
       </c>
       <c r="R80" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="S80" s="3" t="s">
         <v>57</v>
@@ -7884,7 +7884,7 @@
         <v>56</v>
       </c>
       <c r="L81" s="3">
-        <v>4400</v>
+        <v>3750</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>58</v>
@@ -7902,7 +7902,7 @@
         <v>55</v>
       </c>
       <c r="R81" s="3">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>57</v>
@@ -7966,7 +7966,7 @@
         <v>56</v>
       </c>
       <c r="L82" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>58</v>
@@ -7984,7 +7984,7 @@
         <v>55</v>
       </c>
       <c r="R82" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>57</v>
@@ -8048,7 +8048,7 @@
         <v>56</v>
       </c>
       <c r="L83" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>58</v>
@@ -8066,7 +8066,7 @@
         <v>55</v>
       </c>
       <c r="R83" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>57</v>
@@ -8148,7 +8148,7 @@
         <v>55</v>
       </c>
       <c r="R84" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>57</v>
@@ -8212,7 +8212,7 @@
         <v>56</v>
       </c>
       <c r="L85" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>58</v>
@@ -8230,7 +8230,7 @@
         <v>55</v>
       </c>
       <c r="R85" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>57</v>
@@ -8294,7 +8294,7 @@
         <v>56</v>
       </c>
       <c r="L86" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>58</v>
@@ -8312,7 +8312,7 @@
         <v>55</v>
       </c>
       <c r="R86" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>57</v>
@@ -8376,7 +8376,7 @@
         <v>56</v>
       </c>
       <c r="L87" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>58</v>
@@ -8394,7 +8394,7 @@
         <v>55</v>
       </c>
       <c r="R87" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>57</v>
@@ -8458,7 +8458,7 @@
         <v>56</v>
       </c>
       <c r="L88" s="3">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>58</v>
@@ -8476,7 +8476,7 @@
         <v>55</v>
       </c>
       <c r="R88" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>57</v>
@@ -8540,7 +8540,7 @@
         <v>56</v>
       </c>
       <c r="L89" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>58</v>
@@ -8558,7 +8558,7 @@
         <v>55</v>
       </c>
       <c r="R89" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>57</v>
@@ -8622,7 +8622,7 @@
         <v>56</v>
       </c>
       <c r="L90" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>58</v>
@@ -8640,7 +8640,7 @@
         <v>55</v>
       </c>
       <c r="R90" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>57</v>
@@ -8704,7 +8704,7 @@
         <v>56</v>
       </c>
       <c r="L91" s="3">
-        <v>6400</v>
+        <v>8500</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>58</v>
@@ -8722,7 +8722,7 @@
         <v>55</v>
       </c>
       <c r="R91" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>57</v>
@@ -8786,7 +8786,7 @@
         <v>56</v>
       </c>
       <c r="L92" s="3">
-        <v>6600</v>
+        <v>9000</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>58</v>
@@ -8804,7 +8804,7 @@
         <v>55</v>
       </c>
       <c r="R92" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="S92" s="3" t="s">
         <v>57</v>
@@ -8886,7 +8886,7 @@
         <v>55</v>
       </c>
       <c r="R93" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="S93" s="3" t="s">
         <v>57</v>
@@ -9024,7 +9024,7 @@
         <v>56</v>
       </c>
       <c r="L95" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>58</v>
@@ -9098,7 +9098,7 @@
         <v>56</v>
       </c>
       <c r="L96" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>58</v>
@@ -9176,7 +9176,7 @@
         <v>56</v>
       </c>
       <c r="L97" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>58</v>
@@ -9254,7 +9254,7 @@
         <v>56</v>
       </c>
       <c r="L98" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>58</v>
@@ -9332,7 +9332,7 @@
         <v>56</v>
       </c>
       <c r="L99" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>58</v>
@@ -9414,7 +9414,7 @@
         <v>56</v>
       </c>
       <c r="L100" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>58</v>
@@ -9496,7 +9496,7 @@
         <v>56</v>
       </c>
       <c r="L101" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>58</v>
@@ -9578,7 +9578,7 @@
         <v>56</v>
       </c>
       <c r="L102" s="3">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>58</v>
@@ -9660,7 +9660,7 @@
         <v>56</v>
       </c>
       <c r="L103" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>58</v>
@@ -9678,7 +9678,7 @@
         <v>55</v>
       </c>
       <c r="R103" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="S103" s="3" t="s">
         <v>57</v>
@@ -9742,7 +9742,7 @@
         <v>56</v>
       </c>
       <c r="L104" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>58</v>
@@ -9760,7 +9760,7 @@
         <v>55</v>
       </c>
       <c r="R104" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S104" s="3" t="s">
         <v>57</v>
@@ -9824,7 +9824,7 @@
         <v>56</v>
       </c>
       <c r="L105" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>58</v>
@@ -9842,7 +9842,7 @@
         <v>55</v>
       </c>
       <c r="R105" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="S105" s="3" t="s">
         <v>57</v>
@@ -9906,7 +9906,7 @@
         <v>56</v>
       </c>
       <c r="L106" s="3">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>58</v>
@@ -9924,7 +9924,7 @@
         <v>55</v>
       </c>
       <c r="R106" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="S106" s="3" t="s">
         <v>57</v>
@@ -9988,7 +9988,7 @@
         <v>56</v>
       </c>
       <c r="L107" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>58</v>
@@ -10006,7 +10006,7 @@
         <v>55</v>
       </c>
       <c r="R107" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="S107" s="3" t="s">
         <v>57</v>
@@ -10070,7 +10070,7 @@
         <v>56</v>
       </c>
       <c r="L108" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>58</v>
@@ -10088,7 +10088,7 @@
         <v>55</v>
       </c>
       <c r="R108" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="S108" s="3" t="s">
         <v>57</v>
@@ -10152,7 +10152,7 @@
         <v>56</v>
       </c>
       <c r="L109" s="3">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>58</v>
@@ -10170,7 +10170,7 @@
         <v>55</v>
       </c>
       <c r="R109" s="3">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="S109" s="3" t="s">
         <v>57</v>
@@ -10234,7 +10234,7 @@
         <v>56</v>
       </c>
       <c r="L110" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>58</v>
@@ -10252,7 +10252,7 @@
         <v>55</v>
       </c>
       <c r="R110" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="S110" s="3" t="s">
         <v>57</v>
@@ -10316,7 +10316,7 @@
         <v>56</v>
       </c>
       <c r="L111" s="3">
-        <v>4400</v>
+        <v>3750</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>58</v>
@@ -10334,7 +10334,7 @@
         <v>55</v>
       </c>
       <c r="R111" s="3">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="S111" s="3" t="s">
         <v>57</v>
@@ -10398,7 +10398,7 @@
         <v>56</v>
       </c>
       <c r="L112" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="M112" s="3" t="s">
         <v>58</v>
@@ -10416,7 +10416,7 @@
         <v>55</v>
       </c>
       <c r="R112" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="S112" s="3" t="s">
         <v>57</v>
@@ -10480,7 +10480,7 @@
         <v>56</v>
       </c>
       <c r="L113" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>58</v>
@@ -10498,7 +10498,7 @@
         <v>55</v>
       </c>
       <c r="R113" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="S113" s="3" t="s">
         <v>57</v>
@@ -10580,7 +10580,7 @@
         <v>55</v>
       </c>
       <c r="R114" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>57</v>
@@ -10644,7 +10644,7 @@
         <v>56</v>
       </c>
       <c r="L115" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>58</v>
@@ -10662,7 +10662,7 @@
         <v>55</v>
       </c>
       <c r="R115" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="S115" s="3" t="s">
         <v>57</v>
@@ -10726,7 +10726,7 @@
         <v>56</v>
       </c>
       <c r="L116" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>58</v>
@@ -10744,7 +10744,7 @@
         <v>55</v>
       </c>
       <c r="R116" s="3">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="S116" s="3" t="s">
         <v>57</v>
@@ -10808,7 +10808,7 @@
         <v>56</v>
       </c>
       <c r="L117" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>58</v>
@@ -10826,7 +10826,7 @@
         <v>55</v>
       </c>
       <c r="R117" s="3">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="S117" s="3" t="s">
         <v>57</v>
@@ -10890,7 +10890,7 @@
         <v>56</v>
       </c>
       <c r="L118" s="3">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>58</v>
@@ -10908,7 +10908,7 @@
         <v>55</v>
       </c>
       <c r="R118" s="3">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="S118" s="3" t="s">
         <v>57</v>
@@ -10972,7 +10972,7 @@
         <v>56</v>
       </c>
       <c r="L119" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M119" s="3" t="s">
         <v>58</v>
@@ -10990,7 +10990,7 @@
         <v>55</v>
       </c>
       <c r="R119" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="S119" s="3" t="s">
         <v>57</v>
@@ -11054,7 +11054,7 @@
         <v>56</v>
       </c>
       <c r="L120" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>58</v>
@@ -11072,7 +11072,7 @@
         <v>55</v>
       </c>
       <c r="R120" s="3">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="S120" s="3" t="s">
         <v>57</v>
@@ -11136,7 +11136,7 @@
         <v>56</v>
       </c>
       <c r="L121" s="3">
-        <v>6400</v>
+        <v>8500</v>
       </c>
       <c r="M121" s="3" t="s">
         <v>58</v>
@@ -11154,7 +11154,7 @@
         <v>55</v>
       </c>
       <c r="R121" s="3">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="S121" s="3" t="s">
         <v>57</v>
@@ -11218,7 +11218,7 @@
         <v>56</v>
       </c>
       <c r="L122" s="3">
-        <v>6600</v>
+        <v>9000</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>58</v>
@@ -11236,7 +11236,7 @@
         <v>55</v>
       </c>
       <c r="R122" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="S122" s="3" t="s">
         <v>57</v>
@@ -11318,7 +11318,7 @@
         <v>55</v>
       </c>
       <c r="R123" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="S123" s="3" t="s">
         <v>57</v>

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BC833A-EC34-4C27-97E0-CACD0C7A9A6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,10 +13,16 @@
     <sheet name="爬塔表" sheetId="26" r:id="rId3"/>
     <sheet name="卡牌限定" sheetId="29" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -579,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,22 +806,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1264,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1338,11 +1345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,22 +1640,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>20001</v>
       </c>
       <c r="F4" s="3">
-        <v>18</v>
+        <v>20002</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>20003</v>
       </c>
       <c r="H4" s="3">
-        <v>19</v>
+        <v>20004</v>
       </c>
       <c r="I4" s="3">
-        <v>3</v>
+        <v>20005</v>
       </c>
       <c r="J4" s="6">
-        <v>20</v>
+        <v>20006</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>56</v>
@@ -1707,22 +1714,28 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <f>E4+6</f>
+        <v>20007</v>
       </c>
       <c r="F5" s="3">
-        <v>18</v>
+        <f t="shared" ref="F5:J5" si="0">F4+6</f>
+        <v>20008</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>20009</v>
       </c>
       <c r="H5" s="3">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20010</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>20011</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>20012</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>56</v>
@@ -1781,22 +1794,28 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <f t="shared" ref="E6:E69" si="1">E5+6</f>
+        <v>20013</v>
       </c>
       <c r="F6" s="3">
-        <v>18</v>
+        <f t="shared" ref="F6:F69" si="2">F5+6</f>
+        <v>20014</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <f t="shared" ref="G6:G69" si="3">G5+6</f>
+        <v>20015</v>
       </c>
       <c r="H6" s="3">
-        <v>19</v>
+        <f t="shared" ref="H6:H69" si="4">H5+6</f>
+        <v>20016</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>20</v>
+        <f t="shared" ref="I6:I69" si="5">I5+6</f>
+        <v>20017</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J69" si="6">J5+6</f>
+        <v>20018</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>56</v>
@@ -1859,22 +1878,28 @@
         <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20019</v>
       </c>
       <c r="F7" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20020</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20021</v>
       </c>
       <c r="H7" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20022</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20023</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="6"/>
+        <v>20024</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>56</v>
@@ -1937,22 +1962,28 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20025</v>
       </c>
       <c r="F8" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20026</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20027</v>
       </c>
       <c r="H8" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20028</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20029</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="6"/>
+        <v>20030</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>56</v>
@@ -2015,22 +2046,28 @@
         <v>6</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20031</v>
       </c>
       <c r="F9" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20032</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20033</v>
       </c>
       <c r="H9" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20034</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20035</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="6"/>
+        <v>20036</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>56</v>
@@ -2097,22 +2134,28 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20037</v>
       </c>
       <c r="F10" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20038</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20039</v>
       </c>
       <c r="H10" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20040</v>
       </c>
       <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20041</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="6"/>
+        <v>20042</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>56</v>
@@ -2179,22 +2222,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20043</v>
       </c>
       <c r="F11" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20044</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20045</v>
       </c>
       <c r="H11" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20046</v>
       </c>
       <c r="I11" s="3">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20047</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="6"/>
+        <v>20048</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>56</v>
@@ -2261,22 +2310,28 @@
         <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20049</v>
       </c>
       <c r="F12" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20050</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20051</v>
       </c>
       <c r="H12" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20052</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20053</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="6"/>
+        <v>20054</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>56</v>
@@ -2343,22 +2398,28 @@
         <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20055</v>
       </c>
       <c r="F13" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20056</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20057</v>
       </c>
       <c r="H13" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20058</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20059</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="6"/>
+        <v>20060</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>56</v>
@@ -2425,22 +2486,28 @@
         <v>11</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20061</v>
       </c>
       <c r="F14" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20062</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20063</v>
       </c>
       <c r="H14" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20064</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20065</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="6"/>
+        <v>20066</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>56</v>
@@ -2507,22 +2574,28 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20067</v>
       </c>
       <c r="F15" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20068</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20069</v>
       </c>
       <c r="H15" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20070</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20071</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="6"/>
+        <v>20072</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>56</v>
@@ -2589,22 +2662,28 @@
         <v>13</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20073</v>
       </c>
       <c r="F16" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20074</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20075</v>
       </c>
       <c r="H16" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20076</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20077</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="6"/>
+        <v>20078</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>56</v>
@@ -2671,22 +2750,28 @@
         <v>14</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20079</v>
       </c>
       <c r="F17" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20080</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20081</v>
       </c>
       <c r="H17" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20082</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20083</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>20084</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>56</v>
@@ -2753,22 +2838,28 @@
         <v>15</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20085</v>
       </c>
       <c r="F18" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20086</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20087</v>
       </c>
       <c r="H18" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20088</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20089</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="6"/>
+        <v>20090</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>56</v>
@@ -2835,22 +2926,28 @@
         <v>16</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20091</v>
       </c>
       <c r="F19" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20092</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20093</v>
       </c>
       <c r="H19" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20094</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20095</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="6"/>
+        <v>20096</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>56</v>
@@ -2917,22 +3014,28 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20097</v>
       </c>
       <c r="F20" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20098</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20099</v>
       </c>
       <c r="H20" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20100</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20101</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="6"/>
+        <v>20102</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>56</v>
@@ -2999,22 +3102,28 @@
         <v>18</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20103</v>
       </c>
       <c r="F21" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20104</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20105</v>
       </c>
       <c r="H21" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20106</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20107</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="6"/>
+        <v>20108</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>56</v>
@@ -3081,22 +3190,28 @@
         <v>19</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20109</v>
       </c>
       <c r="F22" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20110</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20111</v>
       </c>
       <c r="H22" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20112</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20113</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="6"/>
+        <v>20114</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>56</v>
@@ -3163,22 +3278,28 @@
         <v>20</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20115</v>
       </c>
       <c r="F23" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20116</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20117</v>
       </c>
       <c r="H23" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20118</v>
       </c>
       <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20119</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
+        <v>20120</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>56</v>
@@ -3245,22 +3366,28 @@
         <v>21</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20121</v>
       </c>
       <c r="F24" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20122</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20123</v>
       </c>
       <c r="H24" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20124</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20125</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="6"/>
+        <v>20126</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>56</v>
@@ -3327,22 +3454,28 @@
         <v>22</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20127</v>
       </c>
       <c r="F25" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20128</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20129</v>
       </c>
       <c r="H25" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20130</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20131</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="6"/>
+        <v>20132</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>56</v>
@@ -3409,22 +3542,28 @@
         <v>23</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20133</v>
       </c>
       <c r="F26" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20134</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20135</v>
       </c>
       <c r="H26" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20136</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20137</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="6"/>
+        <v>20138</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>56</v>
@@ -3491,22 +3630,28 @@
         <v>24</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20139</v>
       </c>
       <c r="F27" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20140</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20141</v>
       </c>
       <c r="H27" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20142</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20143</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="6"/>
+        <v>20144</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>56</v>
@@ -3573,22 +3718,28 @@
         <v>25</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20145</v>
       </c>
       <c r="F28" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20146</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20147</v>
       </c>
       <c r="H28" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20148</v>
       </c>
       <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20149</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="6"/>
+        <v>20150</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>56</v>
@@ -3655,22 +3806,28 @@
         <v>26</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20151</v>
       </c>
       <c r="F29" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20152</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20153</v>
       </c>
       <c r="H29" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20154</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
-      </c>
-      <c r="J29" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20155</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="6"/>
+        <v>20156</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>56</v>
@@ -3737,22 +3894,28 @@
         <v>27</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20157</v>
       </c>
       <c r="F30" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20158</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20159</v>
       </c>
       <c r="H30" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20160</v>
       </c>
       <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20161</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="6"/>
+        <v>20162</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>56</v>
@@ -3819,22 +3982,28 @@
         <v>28</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20163</v>
       </c>
       <c r="F31" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20164</v>
       </c>
       <c r="G31" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20165</v>
       </c>
       <c r="H31" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20166</v>
       </c>
       <c r="I31" s="3">
-        <v>3</v>
-      </c>
-      <c r="J31" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20167</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="6"/>
+        <v>20168</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>56</v>
@@ -3901,22 +4070,28 @@
         <v>29</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20169</v>
       </c>
       <c r="F32" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20170</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20171</v>
       </c>
       <c r="H32" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20172</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20173</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="6"/>
+        <v>20174</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>56</v>
@@ -3983,22 +4158,28 @@
         <v>30</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20175</v>
       </c>
       <c r="F33" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20176</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20177</v>
       </c>
       <c r="H33" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20178</v>
       </c>
       <c r="I33" s="3">
-        <v>3</v>
-      </c>
-      <c r="J33" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20179</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="6"/>
+        <v>20180</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>81</v>
@@ -4065,22 +4246,28 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20181</v>
       </c>
       <c r="F34" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20182</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20183</v>
       </c>
       <c r="H34" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20184</v>
       </c>
       <c r="I34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20185</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="6"/>
+        <v>20186</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>56</v>
@@ -4139,22 +4326,28 @@
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20187</v>
       </c>
       <c r="F35" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20188</v>
       </c>
       <c r="G35" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20189</v>
       </c>
       <c r="H35" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20190</v>
       </c>
       <c r="I35" s="3">
-        <v>3</v>
-      </c>
-      <c r="J35" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20191</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="6"/>
+        <v>20192</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>56</v>
@@ -4213,22 +4406,28 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20193</v>
       </c>
       <c r="F36" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20194</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20195</v>
       </c>
       <c r="H36" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20196</v>
       </c>
       <c r="I36" s="3">
-        <v>3</v>
-      </c>
-      <c r="J36" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20197</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="6"/>
+        <v>20198</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>56</v>
@@ -4291,22 +4490,28 @@
         <v>4</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20199</v>
       </c>
       <c r="F37" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20200</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20201</v>
       </c>
       <c r="H37" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20202</v>
       </c>
       <c r="I37" s="3">
-        <v>3</v>
-      </c>
-      <c r="J37" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20203</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="6"/>
+        <v>20204</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>56</v>
@@ -4369,22 +4574,28 @@
         <v>5</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20205</v>
       </c>
       <c r="F38" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20206</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20207</v>
       </c>
       <c r="H38" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20208</v>
       </c>
       <c r="I38" s="3">
-        <v>3</v>
-      </c>
-      <c r="J38" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20209</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="6"/>
+        <v>20210</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>56</v>
@@ -4447,22 +4658,28 @@
         <v>6</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20211</v>
       </c>
       <c r="F39" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20212</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20213</v>
       </c>
       <c r="H39" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20214</v>
       </c>
       <c r="I39" s="3">
-        <v>3</v>
-      </c>
-      <c r="J39" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20215</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="6"/>
+        <v>20216</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>56</v>
@@ -4529,22 +4746,28 @@
         <v>7</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20217</v>
       </c>
       <c r="F40" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20218</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20219</v>
       </c>
       <c r="H40" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20220</v>
       </c>
       <c r="I40" s="3">
-        <v>3</v>
-      </c>
-      <c r="J40" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20221</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="6"/>
+        <v>20222</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>56</v>
@@ -4611,22 +4834,28 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20223</v>
       </c>
       <c r="F41" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20224</v>
       </c>
       <c r="G41" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20225</v>
       </c>
       <c r="H41" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20226</v>
       </c>
       <c r="I41" s="3">
-        <v>3</v>
-      </c>
-      <c r="J41" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20227</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="6"/>
+        <v>20228</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>56</v>
@@ -4693,22 +4922,28 @@
         <v>9</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20229</v>
       </c>
       <c r="F42" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20230</v>
       </c>
       <c r="G42" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20231</v>
       </c>
       <c r="H42" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20232</v>
       </c>
       <c r="I42" s="3">
-        <v>3</v>
-      </c>
-      <c r="J42" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20233</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="6"/>
+        <v>20234</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>56</v>
@@ -4775,22 +5010,28 @@
         <v>10</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20235</v>
       </c>
       <c r="F43" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20236</v>
       </c>
       <c r="G43" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20237</v>
       </c>
       <c r="H43" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20238</v>
       </c>
       <c r="I43" s="3">
-        <v>3</v>
-      </c>
-      <c r="J43" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20239</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="6"/>
+        <v>20240</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>56</v>
@@ -4857,22 +5098,28 @@
         <v>11</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20241</v>
       </c>
       <c r="F44" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20242</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20243</v>
       </c>
       <c r="H44" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20244</v>
       </c>
       <c r="I44" s="3">
-        <v>3</v>
-      </c>
-      <c r="J44" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20245</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="6"/>
+        <v>20246</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>56</v>
@@ -4939,22 +5186,28 @@
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20247</v>
       </c>
       <c r="F45" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20248</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20249</v>
       </c>
       <c r="H45" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20250</v>
       </c>
       <c r="I45" s="3">
-        <v>3</v>
-      </c>
-      <c r="J45" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20251</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="6"/>
+        <v>20252</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>56</v>
@@ -5021,22 +5274,28 @@
         <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20253</v>
       </c>
       <c r="F46" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20254</v>
       </c>
       <c r="G46" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20255</v>
       </c>
       <c r="H46" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20256</v>
       </c>
       <c r="I46" s="3">
-        <v>3</v>
-      </c>
-      <c r="J46" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20257</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="6"/>
+        <v>20258</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>56</v>
@@ -5103,22 +5362,28 @@
         <v>14</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20259</v>
       </c>
       <c r="F47" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20260</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20261</v>
       </c>
       <c r="H47" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20262</v>
       </c>
       <c r="I47" s="3">
-        <v>3</v>
-      </c>
-      <c r="J47" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20263</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="6"/>
+        <v>20264</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>56</v>
@@ -5185,22 +5450,28 @@
         <v>15</v>
       </c>
       <c r="E48" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20265</v>
       </c>
       <c r="F48" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20266</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20267</v>
       </c>
       <c r="H48" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20268</v>
       </c>
       <c r="I48" s="3">
-        <v>3</v>
-      </c>
-      <c r="J48" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20269</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="6"/>
+        <v>20270</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>56</v>
@@ -5267,22 +5538,28 @@
         <v>16</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20271</v>
       </c>
       <c r="F49" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20272</v>
       </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20273</v>
       </c>
       <c r="H49" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20274</v>
       </c>
       <c r="I49" s="3">
-        <v>3</v>
-      </c>
-      <c r="J49" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20275</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="6"/>
+        <v>20276</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>56</v>
@@ -5349,22 +5626,28 @@
         <v>17</v>
       </c>
       <c r="E50" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20277</v>
       </c>
       <c r="F50" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20278</v>
       </c>
       <c r="G50" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20279</v>
       </c>
       <c r="H50" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20280</v>
       </c>
       <c r="I50" s="3">
-        <v>3</v>
-      </c>
-      <c r="J50" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20281</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="6"/>
+        <v>20282</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>56</v>
@@ -5431,22 +5714,28 @@
         <v>18</v>
       </c>
       <c r="E51" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20283</v>
       </c>
       <c r="F51" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20284</v>
       </c>
       <c r="G51" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20285</v>
       </c>
       <c r="H51" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20286</v>
       </c>
       <c r="I51" s="3">
-        <v>3</v>
-      </c>
-      <c r="J51" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20287</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="6"/>
+        <v>20288</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>56</v>
@@ -5513,22 +5802,28 @@
         <v>19</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20289</v>
       </c>
       <c r="F52" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20290</v>
       </c>
       <c r="G52" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20291</v>
       </c>
       <c r="H52" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20292</v>
       </c>
       <c r="I52" s="3">
-        <v>3</v>
-      </c>
-      <c r="J52" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20293</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="6"/>
+        <v>20294</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>56</v>
@@ -5595,22 +5890,28 @@
         <v>20</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20295</v>
       </c>
       <c r="F53" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20296</v>
       </c>
       <c r="G53" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20297</v>
       </c>
       <c r="H53" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20298</v>
       </c>
       <c r="I53" s="3">
-        <v>3</v>
-      </c>
-      <c r="J53" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20299</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="6"/>
+        <v>20300</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>56</v>
@@ -5677,22 +5978,28 @@
         <v>21</v>
       </c>
       <c r="E54" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20301</v>
       </c>
       <c r="F54" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20302</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20303</v>
       </c>
       <c r="H54" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20304</v>
       </c>
       <c r="I54" s="3">
-        <v>3</v>
-      </c>
-      <c r="J54" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20305</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="6"/>
+        <v>20306</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>56</v>
@@ -5759,22 +6066,28 @@
         <v>22</v>
       </c>
       <c r="E55" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20307</v>
       </c>
       <c r="F55" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20308</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20309</v>
       </c>
       <c r="H55" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20310</v>
       </c>
       <c r="I55" s="3">
-        <v>3</v>
-      </c>
-      <c r="J55" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20311</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="6"/>
+        <v>20312</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>56</v>
@@ -5841,22 +6154,28 @@
         <v>23</v>
       </c>
       <c r="E56" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20313</v>
       </c>
       <c r="F56" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20314</v>
       </c>
       <c r="G56" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20315</v>
       </c>
       <c r="H56" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20316</v>
       </c>
       <c r="I56" s="3">
-        <v>3</v>
-      </c>
-      <c r="J56" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20317</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="6"/>
+        <v>20318</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>56</v>
@@ -5923,22 +6242,28 @@
         <v>24</v>
       </c>
       <c r="E57" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20319</v>
       </c>
       <c r="F57" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20320</v>
       </c>
       <c r="G57" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20321</v>
       </c>
       <c r="H57" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20322</v>
       </c>
       <c r="I57" s="3">
-        <v>3</v>
-      </c>
-      <c r="J57" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20323</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="6"/>
+        <v>20324</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>56</v>
@@ -6005,22 +6330,28 @@
         <v>25</v>
       </c>
       <c r="E58" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20325</v>
       </c>
       <c r="F58" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20326</v>
       </c>
       <c r="G58" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20327</v>
       </c>
       <c r="H58" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20328</v>
       </c>
       <c r="I58" s="3">
-        <v>3</v>
-      </c>
-      <c r="J58" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20329</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="6"/>
+        <v>20330</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>56</v>
@@ -6087,22 +6418,28 @@
         <v>26</v>
       </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20331</v>
       </c>
       <c r="F59" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20332</v>
       </c>
       <c r="G59" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20333</v>
       </c>
       <c r="H59" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20334</v>
       </c>
       <c r="I59" s="3">
-        <v>3</v>
-      </c>
-      <c r="J59" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20335</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="6"/>
+        <v>20336</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>56</v>
@@ -6169,22 +6506,28 @@
         <v>27</v>
       </c>
       <c r="E60" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20337</v>
       </c>
       <c r="F60" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20338</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20339</v>
       </c>
       <c r="H60" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20340</v>
       </c>
       <c r="I60" s="3">
-        <v>3</v>
-      </c>
-      <c r="J60" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20341</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="6"/>
+        <v>20342</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>56</v>
@@ -6251,22 +6594,28 @@
         <v>28</v>
       </c>
       <c r="E61" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20343</v>
       </c>
       <c r="F61" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20344</v>
       </c>
       <c r="G61" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20345</v>
       </c>
       <c r="H61" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20346</v>
       </c>
       <c r="I61" s="3">
-        <v>3</v>
-      </c>
-      <c r="J61" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20347</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="6"/>
+        <v>20348</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>56</v>
@@ -6333,22 +6682,28 @@
         <v>29</v>
       </c>
       <c r="E62" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20349</v>
       </c>
       <c r="F62" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20350</v>
       </c>
       <c r="G62" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20351</v>
       </c>
       <c r="H62" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20352</v>
       </c>
       <c r="I62" s="3">
-        <v>3</v>
-      </c>
-      <c r="J62" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20353</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="6"/>
+        <v>20354</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>56</v>
@@ -6415,22 +6770,28 @@
         <v>30</v>
       </c>
       <c r="E63" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20355</v>
       </c>
       <c r="F63" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20356</v>
       </c>
       <c r="G63" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20357</v>
       </c>
       <c r="H63" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20358</v>
       </c>
       <c r="I63" s="3">
-        <v>3</v>
-      </c>
-      <c r="J63" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20359</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="6"/>
+        <v>20360</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>84</v>
@@ -6497,22 +6858,28 @@
         <v>1</v>
       </c>
       <c r="E64" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20361</v>
       </c>
       <c r="F64" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20362</v>
       </c>
       <c r="G64" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20363</v>
       </c>
       <c r="H64" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20364</v>
       </c>
       <c r="I64" s="3">
-        <v>3</v>
-      </c>
-      <c r="J64" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20365</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="6"/>
+        <v>20366</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>56</v>
@@ -6571,22 +6938,28 @@
         <v>2</v>
       </c>
       <c r="E65" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20367</v>
       </c>
       <c r="F65" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20368</v>
       </c>
       <c r="G65" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20369</v>
       </c>
       <c r="H65" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20370</v>
       </c>
       <c r="I65" s="3">
-        <v>3</v>
-      </c>
-      <c r="J65" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20371</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="6"/>
+        <v>20372</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>56</v>
@@ -6645,22 +7018,28 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20373</v>
       </c>
       <c r="F66" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20374</v>
       </c>
       <c r="G66" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20375</v>
       </c>
       <c r="H66" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20376</v>
       </c>
       <c r="I66" s="3">
-        <v>3</v>
-      </c>
-      <c r="J66" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20377</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="6"/>
+        <v>20378</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>56</v>
@@ -6723,22 +7102,28 @@
         <v>4</v>
       </c>
       <c r="E67" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20379</v>
       </c>
       <c r="F67" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20380</v>
       </c>
       <c r="G67" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20381</v>
       </c>
       <c r="H67" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20382</v>
       </c>
       <c r="I67" s="3">
-        <v>3</v>
-      </c>
-      <c r="J67" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20383</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="6"/>
+        <v>20384</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>56</v>
@@ -6801,22 +7186,28 @@
         <v>5</v>
       </c>
       <c r="E68" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20385</v>
       </c>
       <c r="F68" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20386</v>
       </c>
       <c r="G68" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20387</v>
       </c>
       <c r="H68" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20388</v>
       </c>
       <c r="I68" s="3">
-        <v>3</v>
-      </c>
-      <c r="J68" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20389</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="6"/>
+        <v>20390</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>56</v>
@@ -6879,22 +7270,28 @@
         <v>6</v>
       </c>
       <c r="E69" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20391</v>
       </c>
       <c r="F69" s="3">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20392</v>
       </c>
       <c r="G69" s="3">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>20393</v>
       </c>
       <c r="H69" s="3">
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20394</v>
       </c>
       <c r="I69" s="3">
-        <v>3</v>
-      </c>
-      <c r="J69" s="6">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>20395</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="6"/>
+        <v>20396</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>56</v>
@@ -6961,22 +7358,28 @@
         <v>7</v>
       </c>
       <c r="E70" s="3">
-        <v>1</v>
+        <f t="shared" ref="E70:E123" si="7">E69+6</f>
+        <v>20397</v>
       </c>
       <c r="F70" s="3">
-        <v>18</v>
+        <f t="shared" ref="F70:F123" si="8">F69+6</f>
+        <v>20398</v>
       </c>
       <c r="G70" s="3">
-        <v>2</v>
+        <f t="shared" ref="G70:G123" si="9">G69+6</f>
+        <v>20399</v>
       </c>
       <c r="H70" s="3">
-        <v>19</v>
+        <f t="shared" ref="H70:H123" si="10">H69+6</f>
+        <v>20400</v>
       </c>
       <c r="I70" s="3">
-        <v>3</v>
-      </c>
-      <c r="J70" s="6">
-        <v>20</v>
+        <f t="shared" ref="I70:I123" si="11">I69+6</f>
+        <v>20401</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" ref="J70:J123" si="12">J69+6</f>
+        <v>20402</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>56</v>
@@ -7043,22 +7446,28 @@
         <v>8</v>
       </c>
       <c r="E71" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20403</v>
       </c>
       <c r="F71" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20404</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20405</v>
       </c>
       <c r="H71" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20406</v>
       </c>
       <c r="I71" s="3">
-        <v>3</v>
-      </c>
-      <c r="J71" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20407</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="12"/>
+        <v>20408</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>56</v>
@@ -7125,22 +7534,28 @@
         <v>9</v>
       </c>
       <c r="E72" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20409</v>
       </c>
       <c r="F72" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20410</v>
       </c>
       <c r="G72" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20411</v>
       </c>
       <c r="H72" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20412</v>
       </c>
       <c r="I72" s="3">
-        <v>3</v>
-      </c>
-      <c r="J72" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20413</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="12"/>
+        <v>20414</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>56</v>
@@ -7207,22 +7622,28 @@
         <v>10</v>
       </c>
       <c r="E73" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20415</v>
       </c>
       <c r="F73" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20416</v>
       </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20417</v>
       </c>
       <c r="H73" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20418</v>
       </c>
       <c r="I73" s="3">
-        <v>3</v>
-      </c>
-      <c r="J73" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20419</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="12"/>
+        <v>20420</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>56</v>
@@ -7289,22 +7710,28 @@
         <v>11</v>
       </c>
       <c r="E74" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20421</v>
       </c>
       <c r="F74" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20422</v>
       </c>
       <c r="G74" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20423</v>
       </c>
       <c r="H74" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20424</v>
       </c>
       <c r="I74" s="3">
-        <v>3</v>
-      </c>
-      <c r="J74" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20425</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="12"/>
+        <v>20426</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>56</v>
@@ -7371,22 +7798,28 @@
         <v>12</v>
       </c>
       <c r="E75" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20427</v>
       </c>
       <c r="F75" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20428</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20429</v>
       </c>
       <c r="H75" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20430</v>
       </c>
       <c r="I75" s="3">
-        <v>3</v>
-      </c>
-      <c r="J75" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20431</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="12"/>
+        <v>20432</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>56</v>
@@ -7453,22 +7886,28 @@
         <v>13</v>
       </c>
       <c r="E76" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20433</v>
       </c>
       <c r="F76" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20434</v>
       </c>
       <c r="G76" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20435</v>
       </c>
       <c r="H76" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20436</v>
       </c>
       <c r="I76" s="3">
-        <v>3</v>
-      </c>
-      <c r="J76" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20437</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="12"/>
+        <v>20438</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>56</v>
@@ -7535,22 +7974,28 @@
         <v>14</v>
       </c>
       <c r="E77" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20439</v>
       </c>
       <c r="F77" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20440</v>
       </c>
       <c r="G77" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20441</v>
       </c>
       <c r="H77" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20442</v>
       </c>
       <c r="I77" s="3">
-        <v>3</v>
-      </c>
-      <c r="J77" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20443</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="12"/>
+        <v>20444</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>56</v>
@@ -7617,22 +8062,28 @@
         <v>15</v>
       </c>
       <c r="E78" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20445</v>
       </c>
       <c r="F78" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20446</v>
       </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20447</v>
       </c>
       <c r="H78" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20448</v>
       </c>
       <c r="I78" s="3">
-        <v>3</v>
-      </c>
-      <c r="J78" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20449</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="12"/>
+        <v>20450</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>56</v>
@@ -7699,22 +8150,28 @@
         <v>16</v>
       </c>
       <c r="E79" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20451</v>
       </c>
       <c r="F79" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20452</v>
       </c>
       <c r="G79" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20453</v>
       </c>
       <c r="H79" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20454</v>
       </c>
       <c r="I79" s="3">
-        <v>3</v>
-      </c>
-      <c r="J79" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20455</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="12"/>
+        <v>20456</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>56</v>
@@ -7781,22 +8238,28 @@
         <v>17</v>
       </c>
       <c r="E80" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20457</v>
       </c>
       <c r="F80" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20458</v>
       </c>
       <c r="G80" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20459</v>
       </c>
       <c r="H80" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20460</v>
       </c>
       <c r="I80" s="3">
-        <v>3</v>
-      </c>
-      <c r="J80" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20461</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="12"/>
+        <v>20462</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>56</v>
@@ -7863,22 +8326,28 @@
         <v>18</v>
       </c>
       <c r="E81" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20463</v>
       </c>
       <c r="F81" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20464</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20465</v>
       </c>
       <c r="H81" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20466</v>
       </c>
       <c r="I81" s="3">
-        <v>3</v>
-      </c>
-      <c r="J81" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20467</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="12"/>
+        <v>20468</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>56</v>
@@ -7945,22 +8414,28 @@
         <v>19</v>
       </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20469</v>
       </c>
       <c r="F82" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20470</v>
       </c>
       <c r="G82" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20471</v>
       </c>
       <c r="H82" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20472</v>
       </c>
       <c r="I82" s="3">
-        <v>3</v>
-      </c>
-      <c r="J82" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20473</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="12"/>
+        <v>20474</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>56</v>
@@ -8027,22 +8502,28 @@
         <v>20</v>
       </c>
       <c r="E83" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20475</v>
       </c>
       <c r="F83" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20476</v>
       </c>
       <c r="G83" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20477</v>
       </c>
       <c r="H83" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20478</v>
       </c>
       <c r="I83" s="3">
-        <v>3</v>
-      </c>
-      <c r="J83" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20479</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="12"/>
+        <v>20480</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>56</v>
@@ -8109,22 +8590,28 @@
         <v>21</v>
       </c>
       <c r="E84" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20481</v>
       </c>
       <c r="F84" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20482</v>
       </c>
       <c r="G84" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20483</v>
       </c>
       <c r="H84" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20484</v>
       </c>
       <c r="I84" s="3">
-        <v>3</v>
-      </c>
-      <c r="J84" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20485</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="12"/>
+        <v>20486</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>56</v>
@@ -8191,22 +8678,28 @@
         <v>22</v>
       </c>
       <c r="E85" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20487</v>
       </c>
       <c r="F85" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20488</v>
       </c>
       <c r="G85" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20489</v>
       </c>
       <c r="H85" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20490</v>
       </c>
       <c r="I85" s="3">
-        <v>3</v>
-      </c>
-      <c r="J85" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20491</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="12"/>
+        <v>20492</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>56</v>
@@ -8273,22 +8766,28 @@
         <v>23</v>
       </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20493</v>
       </c>
       <c r="F86" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20494</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20495</v>
       </c>
       <c r="H86" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20496</v>
       </c>
       <c r="I86" s="3">
-        <v>3</v>
-      </c>
-      <c r="J86" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20497</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="12"/>
+        <v>20498</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>56</v>
@@ -8355,22 +8854,28 @@
         <v>24</v>
       </c>
       <c r="E87" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20499</v>
       </c>
       <c r="F87" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20500</v>
       </c>
       <c r="G87" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20501</v>
       </c>
       <c r="H87" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20502</v>
       </c>
       <c r="I87" s="3">
-        <v>3</v>
-      </c>
-      <c r="J87" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20503</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="12"/>
+        <v>20504</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>56</v>
@@ -8437,22 +8942,28 @@
         <v>25</v>
       </c>
       <c r="E88" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20505</v>
       </c>
       <c r="F88" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20506</v>
       </c>
       <c r="G88" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20507</v>
       </c>
       <c r="H88" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20508</v>
       </c>
       <c r="I88" s="3">
-        <v>3</v>
-      </c>
-      <c r="J88" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20509</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="12"/>
+        <v>20510</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>56</v>
@@ -8519,22 +9030,28 @@
         <v>26</v>
       </c>
       <c r="E89" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20511</v>
       </c>
       <c r="F89" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20512</v>
       </c>
       <c r="G89" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20513</v>
       </c>
       <c r="H89" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20514</v>
       </c>
       <c r="I89" s="3">
-        <v>3</v>
-      </c>
-      <c r="J89" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20515</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="12"/>
+        <v>20516</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>56</v>
@@ -8601,22 +9118,28 @@
         <v>27</v>
       </c>
       <c r="E90" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20517</v>
       </c>
       <c r="F90" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20518</v>
       </c>
       <c r="G90" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20519</v>
       </c>
       <c r="H90" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20520</v>
       </c>
       <c r="I90" s="3">
-        <v>3</v>
-      </c>
-      <c r="J90" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20521</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="12"/>
+        <v>20522</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>56</v>
@@ -8683,22 +9206,28 @@
         <v>28</v>
       </c>
       <c r="E91" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20523</v>
       </c>
       <c r="F91" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20524</v>
       </c>
       <c r="G91" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20525</v>
       </c>
       <c r="H91" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20526</v>
       </c>
       <c r="I91" s="3">
-        <v>3</v>
-      </c>
-      <c r="J91" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20527</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="12"/>
+        <v>20528</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>56</v>
@@ -8765,22 +9294,28 @@
         <v>29</v>
       </c>
       <c r="E92" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20529</v>
       </c>
       <c r="F92" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20530</v>
       </c>
       <c r="G92" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20531</v>
       </c>
       <c r="H92" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20532</v>
       </c>
       <c r="I92" s="3">
-        <v>3</v>
-      </c>
-      <c r="J92" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20533</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="12"/>
+        <v>20534</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>56</v>
@@ -8847,22 +9382,28 @@
         <v>30</v>
       </c>
       <c r="E93" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20535</v>
       </c>
       <c r="F93" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20536</v>
       </c>
       <c r="G93" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20537</v>
       </c>
       <c r="H93" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20538</v>
       </c>
       <c r="I93" s="3">
-        <v>3</v>
-      </c>
-      <c r="J93" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20539</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="12"/>
+        <v>20540</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>81</v>
@@ -8929,22 +9470,28 @@
         <v>1</v>
       </c>
       <c r="E94" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20541</v>
       </c>
       <c r="F94" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20542</v>
       </c>
       <c r="G94" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20543</v>
       </c>
       <c r="H94" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20544</v>
       </c>
       <c r="I94" s="3">
-        <v>3</v>
-      </c>
-      <c r="J94" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20545</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="12"/>
+        <v>20546</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>56</v>
@@ -9003,22 +9550,28 @@
         <v>2</v>
       </c>
       <c r="E95" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20547</v>
       </c>
       <c r="F95" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20548</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20549</v>
       </c>
       <c r="H95" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20550</v>
       </c>
       <c r="I95" s="3">
-        <v>3</v>
-      </c>
-      <c r="J95" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20551</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="12"/>
+        <v>20552</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>56</v>
@@ -9077,22 +9630,28 @@
         <v>3</v>
       </c>
       <c r="E96" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20553</v>
       </c>
       <c r="F96" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20554</v>
       </c>
       <c r="G96" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20555</v>
       </c>
       <c r="H96" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20556</v>
       </c>
       <c r="I96" s="3">
-        <v>3</v>
-      </c>
-      <c r="J96" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20557</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="12"/>
+        <v>20558</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>56</v>
@@ -9155,22 +9714,28 @@
         <v>4</v>
       </c>
       <c r="E97" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20559</v>
       </c>
       <c r="F97" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20560</v>
       </c>
       <c r="G97" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20561</v>
       </c>
       <c r="H97" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20562</v>
       </c>
       <c r="I97" s="3">
-        <v>3</v>
-      </c>
-      <c r="J97" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20563</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="12"/>
+        <v>20564</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>56</v>
@@ -9233,22 +9798,28 @@
         <v>5</v>
       </c>
       <c r="E98" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20565</v>
       </c>
       <c r="F98" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20566</v>
       </c>
       <c r="G98" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20567</v>
       </c>
       <c r="H98" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20568</v>
       </c>
       <c r="I98" s="3">
-        <v>3</v>
-      </c>
-      <c r="J98" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20569</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="12"/>
+        <v>20570</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>56</v>
@@ -9311,22 +9882,28 @@
         <v>6</v>
       </c>
       <c r="E99" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20571</v>
       </c>
       <c r="F99" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20572</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20573</v>
       </c>
       <c r="H99" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20574</v>
       </c>
       <c r="I99" s="3">
-        <v>3</v>
-      </c>
-      <c r="J99" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20575</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="12"/>
+        <v>20576</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>56</v>
@@ -9393,22 +9970,28 @@
         <v>7</v>
       </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20577</v>
       </c>
       <c r="F100" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20578</v>
       </c>
       <c r="G100" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20579</v>
       </c>
       <c r="H100" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20580</v>
       </c>
       <c r="I100" s="3">
-        <v>3</v>
-      </c>
-      <c r="J100" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20581</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="12"/>
+        <v>20582</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>56</v>
@@ -9475,22 +10058,28 @@
         <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20583</v>
       </c>
       <c r="F101" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20584</v>
       </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20585</v>
       </c>
       <c r="H101" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20586</v>
       </c>
       <c r="I101" s="3">
-        <v>3</v>
-      </c>
-      <c r="J101" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20587</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="12"/>
+        <v>20588</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>56</v>
@@ -9557,22 +10146,28 @@
         <v>9</v>
       </c>
       <c r="E102" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20589</v>
       </c>
       <c r="F102" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20590</v>
       </c>
       <c r="G102" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20591</v>
       </c>
       <c r="H102" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20592</v>
       </c>
       <c r="I102" s="3">
-        <v>3</v>
-      </c>
-      <c r="J102" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20593</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="12"/>
+        <v>20594</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>56</v>
@@ -9639,22 +10234,28 @@
         <v>10</v>
       </c>
       <c r="E103" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20595</v>
       </c>
       <c r="F103" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20596</v>
       </c>
       <c r="G103" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20597</v>
       </c>
       <c r="H103" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20598</v>
       </c>
       <c r="I103" s="3">
-        <v>3</v>
-      </c>
-      <c r="J103" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20599</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="12"/>
+        <v>20600</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>56</v>
@@ -9721,22 +10322,28 @@
         <v>11</v>
       </c>
       <c r="E104" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20601</v>
       </c>
       <c r="F104" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20602</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20603</v>
       </c>
       <c r="H104" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20604</v>
       </c>
       <c r="I104" s="3">
-        <v>3</v>
-      </c>
-      <c r="J104" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20605</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="12"/>
+        <v>20606</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>56</v>
@@ -9803,22 +10410,28 @@
         <v>12</v>
       </c>
       <c r="E105" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20607</v>
       </c>
       <c r="F105" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20608</v>
       </c>
       <c r="G105" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20609</v>
       </c>
       <c r="H105" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20610</v>
       </c>
       <c r="I105" s="3">
-        <v>3</v>
-      </c>
-      <c r="J105" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20611</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="12"/>
+        <v>20612</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>56</v>
@@ -9885,22 +10498,28 @@
         <v>13</v>
       </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20613</v>
       </c>
       <c r="F106" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20614</v>
       </c>
       <c r="G106" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20615</v>
       </c>
       <c r="H106" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20616</v>
       </c>
       <c r="I106" s="3">
-        <v>3</v>
-      </c>
-      <c r="J106" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20617</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="12"/>
+        <v>20618</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>56</v>
@@ -9967,22 +10586,28 @@
         <v>14</v>
       </c>
       <c r="E107" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20619</v>
       </c>
       <c r="F107" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20620</v>
       </c>
       <c r="G107" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20621</v>
       </c>
       <c r="H107" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20622</v>
       </c>
       <c r="I107" s="3">
-        <v>3</v>
-      </c>
-      <c r="J107" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20623</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="12"/>
+        <v>20624</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>56</v>
@@ -10049,22 +10674,28 @@
         <v>15</v>
       </c>
       <c r="E108" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20625</v>
       </c>
       <c r="F108" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20626</v>
       </c>
       <c r="G108" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20627</v>
       </c>
       <c r="H108" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20628</v>
       </c>
       <c r="I108" s="3">
-        <v>3</v>
-      </c>
-      <c r="J108" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20629</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="12"/>
+        <v>20630</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>56</v>
@@ -10131,22 +10762,28 @@
         <v>16</v>
       </c>
       <c r="E109" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20631</v>
       </c>
       <c r="F109" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20632</v>
       </c>
       <c r="G109" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20633</v>
       </c>
       <c r="H109" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20634</v>
       </c>
       <c r="I109" s="3">
-        <v>3</v>
-      </c>
-      <c r="J109" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20635</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="12"/>
+        <v>20636</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>56</v>
@@ -10213,22 +10850,28 @@
         <v>17</v>
       </c>
       <c r="E110" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20637</v>
       </c>
       <c r="F110" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20638</v>
       </c>
       <c r="G110" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20639</v>
       </c>
       <c r="H110" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20640</v>
       </c>
       <c r="I110" s="3">
-        <v>3</v>
-      </c>
-      <c r="J110" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20641</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="12"/>
+        <v>20642</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>56</v>
@@ -10295,22 +10938,28 @@
         <v>18</v>
       </c>
       <c r="E111" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20643</v>
       </c>
       <c r="F111" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20644</v>
       </c>
       <c r="G111" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20645</v>
       </c>
       <c r="H111" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20646</v>
       </c>
       <c r="I111" s="3">
-        <v>3</v>
-      </c>
-      <c r="J111" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20647</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="12"/>
+        <v>20648</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>56</v>
@@ -10377,22 +11026,28 @@
         <v>19</v>
       </c>
       <c r="E112" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20649</v>
       </c>
       <c r="F112" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20650</v>
       </c>
       <c r="G112" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20651</v>
       </c>
       <c r="H112" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20652</v>
       </c>
       <c r="I112" s="3">
-        <v>3</v>
-      </c>
-      <c r="J112" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20653</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="12"/>
+        <v>20654</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>56</v>
@@ -10459,22 +11114,28 @@
         <v>20</v>
       </c>
       <c r="E113" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20655</v>
       </c>
       <c r="F113" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20656</v>
       </c>
       <c r="G113" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20657</v>
       </c>
       <c r="H113" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20658</v>
       </c>
       <c r="I113" s="3">
-        <v>3</v>
-      </c>
-      <c r="J113" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20659</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="12"/>
+        <v>20660</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>56</v>
@@ -10541,22 +11202,28 @@
         <v>21</v>
       </c>
       <c r="E114" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20661</v>
       </c>
       <c r="F114" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20662</v>
       </c>
       <c r="G114" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20663</v>
       </c>
       <c r="H114" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20664</v>
       </c>
       <c r="I114" s="3">
-        <v>3</v>
-      </c>
-      <c r="J114" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20665</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="12"/>
+        <v>20666</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>56</v>
@@ -10623,22 +11290,28 @@
         <v>22</v>
       </c>
       <c r="E115" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20667</v>
       </c>
       <c r="F115" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20668</v>
       </c>
       <c r="G115" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20669</v>
       </c>
       <c r="H115" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20670</v>
       </c>
       <c r="I115" s="3">
-        <v>3</v>
-      </c>
-      <c r="J115" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20671</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="12"/>
+        <v>20672</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>56</v>
@@ -10705,22 +11378,28 @@
         <v>23</v>
       </c>
       <c r="E116" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20673</v>
       </c>
       <c r="F116" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20674</v>
       </c>
       <c r="G116" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20675</v>
       </c>
       <c r="H116" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20676</v>
       </c>
       <c r="I116" s="3">
-        <v>3</v>
-      </c>
-      <c r="J116" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20677</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="12"/>
+        <v>20678</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>56</v>
@@ -10787,22 +11466,28 @@
         <v>24</v>
       </c>
       <c r="E117" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20679</v>
       </c>
       <c r="F117" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20680</v>
       </c>
       <c r="G117" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20681</v>
       </c>
       <c r="H117" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20682</v>
       </c>
       <c r="I117" s="3">
-        <v>3</v>
-      </c>
-      <c r="J117" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20683</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="12"/>
+        <v>20684</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>56</v>
@@ -10869,22 +11554,28 @@
         <v>25</v>
       </c>
       <c r="E118" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20685</v>
       </c>
       <c r="F118" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20686</v>
       </c>
       <c r="G118" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20687</v>
       </c>
       <c r="H118" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20688</v>
       </c>
       <c r="I118" s="3">
-        <v>3</v>
-      </c>
-      <c r="J118" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20689</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="12"/>
+        <v>20690</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>56</v>
@@ -10951,22 +11642,28 @@
         <v>26</v>
       </c>
       <c r="E119" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20691</v>
       </c>
       <c r="F119" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20692</v>
       </c>
       <c r="G119" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20693</v>
       </c>
       <c r="H119" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20694</v>
       </c>
       <c r="I119" s="3">
-        <v>3</v>
-      </c>
-      <c r="J119" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20695</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="12"/>
+        <v>20696</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>56</v>
@@ -11033,22 +11730,28 @@
         <v>27</v>
       </c>
       <c r="E120" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20697</v>
       </c>
       <c r="F120" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20698</v>
       </c>
       <c r="G120" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20699</v>
       </c>
       <c r="H120" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20700</v>
       </c>
       <c r="I120" s="3">
-        <v>3</v>
-      </c>
-      <c r="J120" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20701</v>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="12"/>
+        <v>20702</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>56</v>
@@ -11115,22 +11818,28 @@
         <v>28</v>
       </c>
       <c r="E121" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20703</v>
       </c>
       <c r="F121" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20704</v>
       </c>
       <c r="G121" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20705</v>
       </c>
       <c r="H121" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20706</v>
       </c>
       <c r="I121" s="3">
-        <v>3</v>
-      </c>
-      <c r="J121" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20707</v>
+      </c>
+      <c r="J121" s="3">
+        <f t="shared" si="12"/>
+        <v>20708</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>56</v>
@@ -11197,22 +11906,28 @@
         <v>29</v>
       </c>
       <c r="E122" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20709</v>
       </c>
       <c r="F122" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20710</v>
       </c>
       <c r="G122" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20711</v>
       </c>
       <c r="H122" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20712</v>
       </c>
       <c r="I122" s="3">
-        <v>3</v>
-      </c>
-      <c r="J122" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20713</v>
+      </c>
+      <c r="J122" s="3">
+        <f t="shared" si="12"/>
+        <v>20714</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>56</v>
@@ -11279,22 +11994,28 @@
         <v>30</v>
       </c>
       <c r="E123" s="3">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>20715</v>
       </c>
       <c r="F123" s="3">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>20716</v>
       </c>
       <c r="G123" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>20717</v>
       </c>
       <c r="H123" s="3">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>20718</v>
       </c>
       <c r="I123" s="3">
-        <v>3</v>
-      </c>
-      <c r="J123" s="6">
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>20719</v>
+      </c>
+      <c r="J123" s="3">
+        <f t="shared" si="12"/>
+        <v>20720</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>81</v>
@@ -11355,7 +12076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E8F1-1469-408E-B3C2-C31F2ED71570}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="爬塔表" sheetId="26" r:id="rId3"/>
     <sheet name="卡牌限定" sheetId="29" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="181">
   <si>
     <t>sheet名</t>
   </si>
@@ -564,13 +563,124 @@
   </si>
   <si>
     <t>Monsters[3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>盖文</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,21 +894,102 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1073,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1246,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1320,10 +1511,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10592,11 +10783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10604,9 +10795,13 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="5" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>122</v>
       </c>
@@ -10623,7 +10818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -10640,7 +10835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -10657,7 +10852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10667,26 +10862,14 @@
       <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="3">
-        <v>1101001</v>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1101001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1102001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -10696,26 +10879,14 @@
       <c r="C5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="3">
-        <v>1101002</v>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1101002</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1102002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -10725,26 +10896,14 @@
       <c r="C6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3">
-        <v>1101003</v>
+      <c r="D6" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1101003</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1102003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -10754,26 +10913,14 @@
       <c r="C7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="3">
-        <v>1101004</v>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1101004</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1102004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10783,26 +10930,14 @@
       <c r="C8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3">
-        <v>1102001</v>
+      <c r="D8" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1101005</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1102005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -10812,26 +10947,14 @@
       <c r="C9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="3">
-        <v>1102002</v>
+      <c r="D9" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1101006</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1102006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -10841,26 +10964,14 @@
       <c r="C10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="3">
-        <v>1102003</v>
+      <c r="D10" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1101007</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>1102007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -10870,26 +10981,14 @@
       <c r="C11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="3">
-        <v>1102004</v>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1101008</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>1102008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10899,468 +10998,348 @@
       <c r="C12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="3">
-        <v>1102005</v>
+      <c r="D12" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1101009</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>1102009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="3">
-        <v>1101005</v>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1101010</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>1102010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="3">
-        <v>1101006</v>
+      <c r="D14" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1101011</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>1102011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="3">
-        <v>1101007</v>
+      <c r="D15" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1101012</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>1102012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="3">
-        <v>1101008</v>
+      <c r="D16" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>1101013</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>1102013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="3">
-        <v>1102006</v>
+      <c r="D17" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>1101014</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>1102014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="3">
-        <v>1102007</v>
+      <c r="D18" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1101015</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>1102015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="3">
-        <v>1102008</v>
+      <c r="D19" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>1102016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="3">
-        <v>1102009</v>
+      <c r="D20" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>1102017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="3">
-        <v>1102010</v>
+      <c r="D21" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E21" s="3">
-        <v>9</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>1102018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="3">
-        <v>1101009</v>
+      <c r="D22" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>1102019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="3">
-        <v>1101010</v>
+      <c r="D23" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>1102020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="3">
-        <v>1101011</v>
+      <c r="D24" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>1102021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="3">
-        <v>1101012</v>
+      <c r="D25" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="3">
-        <v>1102011</v>
+      <c r="D26" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="3">
-        <v>1102012</v>
+      <c r="D27" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="3">
-        <v>1102013</v>
+      <c r="D28" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E28" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="3">
-        <v>1102014</v>
+      <c r="D29" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E29" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="3">
-        <v>1102015</v>
+      <c r="D30" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E30" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="3">
-        <v>1101013</v>
+      <c r="D31" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="3">
-        <v>1101014</v>
+      <c r="D32" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -11371,13 +11350,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="3">
-        <v>1101015</v>
+      <c r="D33" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -11388,13 +11367,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="3">
-        <v>1102016</v>
+      <c r="D34" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -11405,13 +11384,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="3">
-        <v>1102017</v>
+      <c r="D35" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E35" s="3">
         <v>5</v>
@@ -11422,13 +11401,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="3">
-        <v>1102018</v>
+      <c r="D36" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E36" s="3">
         <v>6</v>
@@ -11439,13 +11418,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="3">
-        <v>1102019</v>
+      <c r="D37" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E37" s="3">
         <v>7</v>
@@ -11456,13 +11435,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="3">
-        <v>1102020</v>
+      <c r="D38" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E38" s="3">
         <v>8</v>
@@ -11473,20 +11452,877 @@
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="3">
-        <v>1102021</v>
+      <c r="D39" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E39" s="3">
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="3">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I22:I23">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J23">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K22">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D55">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:D70">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D88">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="182">
   <si>
     <t>sheet名</t>
   </si>
@@ -617,9 +617,6 @@
     <t>关羽</t>
   </si>
   <si>
-    <t>许褚</t>
-  </si>
-  <si>
     <t>典韦</t>
   </si>
   <si>
@@ -674,6 +671,14 @@
   </si>
   <si>
     <t>飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10784,10 +10789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11100,8 +11105,8 @@
       <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>161</v>
+      <c r="D18" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E18" s="3">
         <v>15</v>
@@ -11118,7 +11123,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E19" s="3">
         <v>16</v>
@@ -11135,7 +11140,7 @@
         <v>108</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3">
         <v>17</v>
@@ -11152,7 +11157,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E21" s="3">
         <v>18</v>
@@ -11169,7 +11174,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="3">
         <v>19</v>
@@ -11186,7 +11191,7 @@
         <v>108</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E23" s="3">
         <v>20</v>
@@ -11203,7 +11208,7 @@
         <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E24" s="3">
         <v>21</v>
@@ -11220,7 +11225,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="3">
         <v>22</v>
@@ -11237,7 +11242,7 @@
         <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E26" s="3">
         <v>23</v>
@@ -11254,7 +11259,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E27" s="3">
         <v>24</v>
@@ -11271,7 +11276,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="3">
         <v>25</v>
@@ -11288,7 +11293,7 @@
         <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="3">
         <v>26</v>
@@ -11305,7 +11310,7 @@
         <v>108</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="3">
         <v>27</v>
@@ -11316,16 +11321,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11339,10 +11344,10 @@
         <v>108</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11356,10 +11361,10 @@
         <v>108</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11373,10 +11378,10 @@
         <v>108</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11390,10 +11395,10 @@
         <v>108</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11407,10 +11412,10 @@
         <v>108</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11424,10 +11429,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11441,10 +11446,10 @@
         <v>108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E38" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11458,10 +11463,10 @@
         <v>108</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E39" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11475,10 +11480,10 @@
         <v>108</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11492,10 +11497,10 @@
         <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E41" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11509,10 +11514,10 @@
         <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E42" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11529,7 +11534,7 @@
         <v>168</v>
       </c>
       <c r="E43" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11543,10 +11548,10 @@
         <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E44" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11560,10 +11565,10 @@
         <v>108</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E45" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11577,10 +11582,10 @@
         <v>108</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E46" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11593,11 +11598,11 @@
       <c r="C47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>163</v>
+      <c r="D47" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E47" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11611,10 +11616,10 @@
         <v>108</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11628,10 +11633,10 @@
         <v>108</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E49" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11645,10 +11650,10 @@
         <v>108</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E50" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11656,16 +11661,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E51" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11679,10 +11684,10 @@
         <v>108</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11696,10 +11701,10 @@
         <v>108</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11713,10 +11718,10 @@
         <v>108</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11730,10 +11735,10 @@
         <v>108</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11747,10 +11752,10 @@
         <v>108</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E56" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11764,10 +11769,10 @@
         <v>108</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E57" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11781,10 +11786,10 @@
         <v>108</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11798,10 +11803,10 @@
         <v>108</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E59" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11815,10 +11820,10 @@
         <v>108</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E60" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11832,10 +11837,10 @@
         <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11849,10 +11854,10 @@
         <v>108</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E62" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11869,7 +11874,7 @@
         <v>168</v>
       </c>
       <c r="E63" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11883,10 +11888,10 @@
         <v>108</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E64" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11900,10 +11905,10 @@
         <v>108</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E65" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11917,10 +11922,10 @@
         <v>108</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E66" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11934,10 +11939,10 @@
         <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E67" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11951,10 +11956,10 @@
         <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E68" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11968,10 +11973,10 @@
         <v>108</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E69" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11985,10 +11990,10 @@
         <v>108</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E70" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -11996,16 +12001,16 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E71" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12019,10 +12024,10 @@
         <v>108</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12036,10 +12041,10 @@
         <v>108</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12053,10 +12058,10 @@
         <v>108</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12070,10 +12075,10 @@
         <v>108</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12087,10 +12092,10 @@
         <v>108</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E76" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -12104,15 +12109,15 @@
         <v>108</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E77" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
@@ -12121,15 +12126,15 @@
         <v>108</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E78" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="3">
         <v>4</v>
@@ -12138,15 +12143,15 @@
         <v>108</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E79" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3">
         <v>4</v>
@@ -12158,12 +12163,12 @@
         <v>168</v>
       </c>
       <c r="E80" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="3">
         <v>4</v>
@@ -12172,15 +12177,15 @@
         <v>108</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E81" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
@@ -12189,15 +12194,15 @@
         <v>108</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E82" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3">
         <v>4</v>
@@ -12209,12 +12214,12 @@
         <v>166</v>
       </c>
       <c r="E83" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>4</v>
@@ -12223,15 +12228,15 @@
         <v>108</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E84" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="3">
         <v>4</v>
@@ -12240,15 +12245,15 @@
         <v>108</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E85" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="3">
         <v>4</v>
@@ -12257,15 +12262,15 @@
         <v>108</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
@@ -12274,15 +12279,15 @@
         <v>108</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E87" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3">
         <v>4</v>
@@ -12291,36 +12296,53 @@
         <v>108</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E88" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="3">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I22:I23">
+  <conditionalFormatting sqref="I23:I24">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J8">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J23">
+  <conditionalFormatting sqref="J23:J24">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K22">
+  <conditionalFormatting sqref="K22:K23">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D55">
+  <conditionalFormatting sqref="D53:D56">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D70">
+  <conditionalFormatting sqref="D70:D71">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D88">
+  <conditionalFormatting sqref="D88:D89">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -2419,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="M289" sqref="M289"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1501001</v>
+        <v>41001</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2725,13 +2725,13 @@
         <v>153</v>
       </c>
       <c r="I4" s="3">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K4" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>140</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1501002</v>
+        <v>41002</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>156</v>
       </c>
       <c r="I5" s="3">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>140</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>1501003</v>
+        <v>41003</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>1501004</v>
+        <v>41004</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>1501005</v>
+        <v>41005</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>1501006</v>
+        <v>41006</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>1501007</v>
+        <v>41007</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1501008</v>
+        <v>41008</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>1501009</v>
+        <v>41009</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>1501010</v>
+        <v>41010</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>1501011</v>
+        <v>41011</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>1501012</v>
+        <v>41012</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>1501013</v>
+        <v>41013</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>1501014</v>
+        <v>41014</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>1501015</v>
+        <v>41015</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1501016</v>
+        <v>41016</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -3750,13 +3750,13 @@
         <v>198</v>
       </c>
       <c r="I19" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K19" s="3">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>140</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1501017</v>
+        <v>41017</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -3817,13 +3817,13 @@
         <v>201</v>
       </c>
       <c r="I20" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="3">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>140</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1501018</v>
+        <v>41018</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -3884,13 +3884,13 @@
         <v>204</v>
       </c>
       <c r="I21" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K21" s="3">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>140</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>1501019</v>
+        <v>41019</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -3951,13 +3951,13 @@
         <v>207</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K22" s="3">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>140</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1501020</v>
+        <v>41020</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -4018,13 +4018,13 @@
         <v>210</v>
       </c>
       <c r="I23" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="3">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>140</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1501021</v>
+        <v>41021</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -4089,13 +4089,13 @@
         <v>213</v>
       </c>
       <c r="I24" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K24" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>140</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1501022</v>
+        <v>41022</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -4156,13 +4156,13 @@
         <v>216</v>
       </c>
       <c r="I25" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K25" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>140</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1501023</v>
+        <v>41023</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -4223,13 +4223,13 @@
         <v>219</v>
       </c>
       <c r="I26" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K26" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>140</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1501024</v>
+        <v>41024</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -4290,13 +4290,13 @@
         <v>222</v>
       </c>
       <c r="I27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K27" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>140</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1501025</v>
+        <v>41025</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -4357,13 +4357,13 @@
         <v>225</v>
       </c>
       <c r="I28" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K28" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>140</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1501026</v>
+        <v>41026</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -4428,13 +4428,13 @@
         <v>228</v>
       </c>
       <c r="I29" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K29" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>140</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>1501027</v>
+        <v>41027</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4495,13 +4495,13 @@
         <v>231</v>
       </c>
       <c r="I30" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K30" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>140</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>1501028</v>
+        <v>41028</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -4562,13 +4562,13 @@
         <v>234</v>
       </c>
       <c r="I31" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K31" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>140</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>1501029</v>
+        <v>41029</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -4629,13 +4629,13 @@
         <v>237</v>
       </c>
       <c r="I32" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K32" s="3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>140</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>1501030</v>
+        <v>41030</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -4696,13 +4696,13 @@
         <v>240</v>
       </c>
       <c r="I33" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K33" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>140</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>1501031</v>
+        <v>41031</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -4767,13 +4767,13 @@
         <v>243</v>
       </c>
       <c r="I34" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K34" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>140</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>1501032</v>
+        <v>41032</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -4834,13 +4834,13 @@
         <v>246</v>
       </c>
       <c r="I35" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K35" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>140</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1501033</v>
+        <v>41033</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -4901,13 +4901,13 @@
         <v>249</v>
       </c>
       <c r="I36" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>140</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1501034</v>
+        <v>41034</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -4968,13 +4968,13 @@
         <v>252</v>
       </c>
       <c r="I37" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K37" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>140</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1501035</v>
+        <v>41035</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -5035,13 +5035,13 @@
         <v>255</v>
       </c>
       <c r="I38" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K38" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>140</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1501036</v>
+        <v>41036</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -5106,13 +5106,13 @@
         <v>258</v>
       </c>
       <c r="I39" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K39" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>140</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1501037</v>
+        <v>41037</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -5173,13 +5173,13 @@
         <v>261</v>
       </c>
       <c r="I40" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K40" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>140</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1501038</v>
+        <v>41038</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -5240,13 +5240,13 @@
         <v>264</v>
       </c>
       <c r="I41" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>140</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1501039</v>
+        <v>41039</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -5307,13 +5307,13 @@
         <v>267</v>
       </c>
       <c r="I42" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K42" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>140</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1501040</v>
+        <v>41040</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -5374,13 +5374,13 @@
         <v>270</v>
       </c>
       <c r="I43" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K43" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>140</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1501041</v>
+        <v>41041</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -5445,13 +5445,13 @@
         <v>273</v>
       </c>
       <c r="I44" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K44" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>140</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1501042</v>
+        <v>41042</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -5512,13 +5512,13 @@
         <v>276</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K45" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>140</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1501043</v>
+        <v>41043</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -5579,13 +5579,13 @@
         <v>279</v>
       </c>
       <c r="I46" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K46" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>140</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1501044</v>
+        <v>41044</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -5646,13 +5646,13 @@
         <v>282</v>
       </c>
       <c r="I47" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K47" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>140</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1501045</v>
+        <v>41045</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -5713,13 +5713,13 @@
         <v>285</v>
       </c>
       <c r="I48" s="3">
-        <v>2160</v>
+        <v>1500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K48" s="3">
-        <v>4320</v>
+        <v>3000</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>140</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1501046</v>
+        <v>41046</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -5784,13 +5784,13 @@
         <v>288</v>
       </c>
       <c r="I49" s="3">
-        <v>2160</v>
+        <v>1500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K49" s="3">
-        <v>4320</v>
+        <v>3000</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>140</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1501047</v>
+        <v>41047</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -5851,13 +5851,13 @@
         <v>291</v>
       </c>
       <c r="I50" s="3">
-        <v>2160</v>
+        <v>1500</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K50" s="3">
-        <v>4320</v>
+        <v>3000</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>140</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1501048</v>
+        <v>41048</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -5918,13 +5918,13 @@
         <v>294</v>
       </c>
       <c r="I51" s="3">
-        <v>2160</v>
+        <v>1500</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K51" s="3">
-        <v>4320</v>
+        <v>3000</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>140</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1501049</v>
+        <v>41049</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -5985,13 +5985,13 @@
         <v>297</v>
       </c>
       <c r="I52" s="3">
-        <v>2160</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K52" s="3">
-        <v>4320</v>
+        <v>3000</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>140</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1501050</v>
+        <v>41050</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -6052,13 +6052,13 @@
         <v>300</v>
       </c>
       <c r="I53" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K53" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>140</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1501051</v>
+        <v>41051</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="I54" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K54" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>140</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1501052</v>
+        <v>41052</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -6190,13 +6190,13 @@
         <v>306</v>
       </c>
       <c r="I55" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K55" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>140</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1501053</v>
+        <v>41053</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -6257,13 +6257,13 @@
         <v>309</v>
       </c>
       <c r="I56" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K56" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>140</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1501054</v>
+        <v>41054</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6324,13 +6324,13 @@
         <v>312</v>
       </c>
       <c r="I57" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K57" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>140</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1501055</v>
+        <v>41055</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -6391,13 +6391,13 @@
         <v>315</v>
       </c>
       <c r="I58" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K58" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>140</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1501056</v>
+        <v>41056</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -6462,13 +6462,13 @@
         <v>318</v>
       </c>
       <c r="I59" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K59" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>140</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1501057</v>
+        <v>41057</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -6529,13 +6529,13 @@
         <v>321</v>
       </c>
       <c r="I60" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K60" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>140</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1501058</v>
+        <v>41058</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -6596,13 +6596,13 @@
         <v>324</v>
       </c>
       <c r="I61" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K61" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>140</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1501059</v>
+        <v>41059</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -6663,13 +6663,13 @@
         <v>327</v>
       </c>
       <c r="I62" s="3">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K62" s="3">
-        <v>4320</v>
+        <v>3600</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>140</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1501060</v>
+        <v>41060</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -6730,13 +6730,13 @@
         <v>330</v>
       </c>
       <c r="I63" s="3">
-        <v>2640</v>
+        <v>1800</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K63" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>140</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1501061</v>
+        <v>41061</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -6801,13 +6801,13 @@
         <v>333</v>
       </c>
       <c r="I64" s="3">
-        <v>2640</v>
+        <v>1800</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K64" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>140</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1501062</v>
+        <v>41062</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -6868,13 +6868,13 @@
         <v>336</v>
       </c>
       <c r="I65" s="3">
-        <v>2640</v>
+        <v>1800</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K65" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>140</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1501063</v>
+        <v>41063</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
@@ -6935,13 +6935,13 @@
         <v>339</v>
       </c>
       <c r="I66" s="3">
-        <v>2640</v>
+        <v>1800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K66" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>140</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1501064</v>
+        <v>41064</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -7002,13 +7002,13 @@
         <v>342</v>
       </c>
       <c r="I67" s="3">
-        <v>2640</v>
+        <v>1800</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K67" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>140</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1501065</v>
+        <v>41065</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -7069,13 +7069,13 @@
         <v>345</v>
       </c>
       <c r="I68" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K68" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>140</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1501066</v>
+        <v>41066</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -7140,13 +7140,13 @@
         <v>348</v>
       </c>
       <c r="I69" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K69" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>140</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1501067</v>
+        <v>41067</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -7207,13 +7207,13 @@
         <v>351</v>
       </c>
       <c r="I70" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K70" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>140</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1501068</v>
+        <v>41068</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -7274,13 +7274,13 @@
         <v>354</v>
       </c>
       <c r="I71" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K71" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>140</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1501069</v>
+        <v>41069</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -7341,13 +7341,13 @@
         <v>357</v>
       </c>
       <c r="I72" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K72" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>140</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1501070</v>
+        <v>41070</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -7408,13 +7408,13 @@
         <v>360</v>
       </c>
       <c r="I73" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K73" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>140</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1501071</v>
+        <v>41071</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -7479,13 +7479,13 @@
         <v>363</v>
       </c>
       <c r="I74" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K74" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>140</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1501072</v>
+        <v>41072</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -7546,13 +7546,13 @@
         <v>366</v>
       </c>
       <c r="I75" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K75" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>140</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1501073</v>
+        <v>41073</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -7613,13 +7613,13 @@
         <v>369</v>
       </c>
       <c r="I76" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K76" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>140</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1501074</v>
+        <v>41074</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -7680,13 +7680,13 @@
         <v>372</v>
       </c>
       <c r="I77" s="3">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K77" s="3">
-        <v>5400</v>
+        <v>4320</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>140</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1501075</v>
+        <v>41075</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -7747,13 +7747,13 @@
         <v>375</v>
       </c>
       <c r="I78" s="3">
-        <v>3180</v>
+        <v>2160</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K78" s="3">
-        <v>6600</v>
+        <v>4320</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>140</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1501076</v>
+        <v>41076</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -7818,13 +7818,13 @@
         <v>378</v>
       </c>
       <c r="I79" s="3">
-        <v>3180</v>
+        <v>2160</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K79" s="3">
-        <v>6600</v>
+        <v>4320</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>140</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1501077</v>
+        <v>41077</v>
       </c>
       <c r="B80" s="3">
         <v>1</v>
@@ -7885,13 +7885,13 @@
         <v>381</v>
       </c>
       <c r="I80" s="3">
-        <v>3180</v>
+        <v>2160</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K80" s="3">
-        <v>6600</v>
+        <v>4320</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>140</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1501078</v>
+        <v>41078</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -7952,13 +7952,13 @@
         <v>384</v>
       </c>
       <c r="I81" s="3">
-        <v>3180</v>
+        <v>2160</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K81" s="3">
-        <v>6600</v>
+        <v>4320</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>140</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1501079</v>
+        <v>41079</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
@@ -8019,13 +8019,13 @@
         <v>387</v>
       </c>
       <c r="I82" s="3">
-        <v>3180</v>
+        <v>2160</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K82" s="3">
-        <v>6600</v>
+        <v>4320</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>140</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1501080</v>
+        <v>41080</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -8086,13 +8086,13 @@
         <v>390</v>
       </c>
       <c r="I83" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K83" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>140</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1501081</v>
+        <v>41081</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -8157,13 +8157,13 @@
         <v>393</v>
       </c>
       <c r="I84" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K84" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>140</v>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1501082</v>
+        <v>41082</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -8224,13 +8224,13 @@
         <v>396</v>
       </c>
       <c r="I85" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K85" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>140</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1501083</v>
+        <v>41083</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
@@ -8291,13 +8291,13 @@
         <v>399</v>
       </c>
       <c r="I86" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K86" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>140</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1501084</v>
+        <v>41084</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -8358,13 +8358,13 @@
         <v>402</v>
       </c>
       <c r="I87" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K87" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>140</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1501085</v>
+        <v>41085</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -8425,13 +8425,13 @@
         <v>405</v>
       </c>
       <c r="I88" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K88" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>140</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1501086</v>
+        <v>41086</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -8496,13 +8496,13 @@
         <v>408</v>
       </c>
       <c r="I89" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K89" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>140</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1501087</v>
+        <v>41087</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -8563,13 +8563,13 @@
         <v>411</v>
       </c>
       <c r="I90" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K90" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>140</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1501088</v>
+        <v>41088</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -8630,13 +8630,13 @@
         <v>414</v>
       </c>
       <c r="I91" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K91" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>140</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1501089</v>
+        <v>41089</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -8697,13 +8697,13 @@
         <v>417</v>
       </c>
       <c r="I92" s="3">
-        <v>3180</v>
+        <v>2640</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K92" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>140</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1501090</v>
+        <v>41090</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
@@ -8764,13 +8764,13 @@
         <v>420</v>
       </c>
       <c r="I93" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K93" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>140</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1501091</v>
+        <v>41091</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -8835,13 +8835,13 @@
         <v>423</v>
       </c>
       <c r="I94" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K94" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>140</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1501092</v>
+        <v>41092</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -8902,13 +8902,13 @@
         <v>426</v>
       </c>
       <c r="I95" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K95" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>140</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1501093</v>
+        <v>41093</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -8969,13 +8969,13 @@
         <v>429</v>
       </c>
       <c r="I96" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K96" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>140</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1501094</v>
+        <v>41094</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -9036,13 +9036,13 @@
         <v>432</v>
       </c>
       <c r="I97" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K97" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>140</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1501095</v>
+        <v>41095</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -9103,13 +9103,13 @@
         <v>435</v>
       </c>
       <c r="I98" s="3">
-        <v>3900</v>
+        <v>2640</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K98" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>140</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1501096</v>
+        <v>41096</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -9174,13 +9174,13 @@
         <v>438</v>
       </c>
       <c r="I99" s="3">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K99" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>140</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1501097</v>
+        <v>41097</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -9241,13 +9241,13 @@
         <v>441</v>
       </c>
       <c r="I100" s="3">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K100" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>140</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1501098</v>
+        <v>41098</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -9308,13 +9308,13 @@
         <v>444</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K101" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>140</v>
@@ -9351,7 +9351,7 @@
     </row>
     <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1501099</v>
+        <v>41099</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -9375,13 +9375,13 @@
         <v>447</v>
       </c>
       <c r="I102" s="3">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K102" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>140</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1501100</v>
+        <v>41100</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -9442,13 +9442,13 @@
         <v>450</v>
       </c>
       <c r="I103" s="3">
-        <v>4800</v>
+        <v>3180</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K103" s="3">
-        <v>9000</v>
+        <v>6600</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>140</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1502001</v>
+        <v>42001</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1502002</v>
+        <v>42002</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1502003</v>
+        <v>42003</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1502004</v>
+        <v>42004</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1502005</v>
+        <v>42005</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
@@ -9789,13 +9789,13 @@
         <v>165</v>
       </c>
       <c r="I108" s="3">
-        <v>1560</v>
+        <v>1920</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K108" s="3">
-        <v>3000</v>
+        <v>3840</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>140</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1502006</v>
+        <v>42006</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -9856,13 +9856,13 @@
         <v>168</v>
       </c>
       <c r="I109" s="3">
-        <v>1560</v>
+        <v>1920</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K109" s="3">
-        <v>3000</v>
+        <v>3840</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>140</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1502007</v>
+        <v>42007</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -9923,13 +9923,13 @@
         <v>171</v>
       </c>
       <c r="I110" s="3">
-        <v>1560</v>
+        <v>1920</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K110" s="3">
-        <v>3000</v>
+        <v>3840</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>140</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1502008</v>
+        <v>42008</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1502009</v>
+        <v>42009</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1502010</v>
+        <v>42010</v>
       </c>
       <c r="B113" s="3">
         <v>2</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1502011</v>
+        <v>42011</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
@@ -10199,13 +10199,13 @@
         <v>183</v>
       </c>
       <c r="I114" s="3">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K114" s="3">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>140</v>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1502012</v>
+        <v>42012</v>
       </c>
       <c r="B115" s="3">
         <v>2</v>
@@ -10266,13 +10266,13 @@
         <v>186</v>
       </c>
       <c r="I115" s="3">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K115" s="3">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>140</v>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1502013</v>
+        <v>42013</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -10333,13 +10333,13 @@
         <v>189</v>
       </c>
       <c r="I116" s="3">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K116" s="3">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>140</v>
@@ -10376,7 +10376,7 @@
     </row>
     <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1502014</v>
+        <v>42014</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
@@ -10400,13 +10400,13 @@
         <v>192</v>
       </c>
       <c r="I117" s="3">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K117" s="3">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>140</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1502015</v>
+        <v>42015</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1502016</v>
+        <v>42016</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1502017</v>
+        <v>42017</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1502018</v>
+        <v>42018</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1502019</v>
+        <v>42019</v>
       </c>
       <c r="B122" s="3">
         <v>2</v>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1502020</v>
+        <v>42020</v>
       </c>
       <c r="B123" s="3">
         <v>2</v>
@@ -10806,13 +10806,13 @@
         <v>210</v>
       </c>
       <c r="I123" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K123" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>140</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1502021</v>
+        <v>42021</v>
       </c>
       <c r="B124" s="3">
         <v>2</v>
@@ -10877,13 +10877,13 @@
         <v>213</v>
       </c>
       <c r="I124" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K124" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>140</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1502022</v>
+        <v>42022</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
@@ -10944,13 +10944,13 @@
         <v>216</v>
       </c>
       <c r="I125" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K125" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>140</v>
@@ -10987,7 +10987,7 @@
     </row>
     <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1502023</v>
+        <v>42023</v>
       </c>
       <c r="B126" s="3">
         <v>2</v>
@@ -11011,13 +11011,13 @@
         <v>219</v>
       </c>
       <c r="I126" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K126" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>140</v>
@@ -11054,7 +11054,7 @@
     </row>
     <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1502024</v>
+        <v>42024</v>
       </c>
       <c r="B127" s="3">
         <v>2</v>
@@ -11078,13 +11078,13 @@
         <v>222</v>
       </c>
       <c r="I127" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K127" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>140</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1502025</v>
+        <v>42025</v>
       </c>
       <c r="B128" s="3">
         <v>2</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1502026</v>
+        <v>42026</v>
       </c>
       <c r="B129" s="3">
         <v>2</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1502027</v>
+        <v>42027</v>
       </c>
       <c r="B130" s="3">
         <v>2</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1502028</v>
+        <v>42028</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1502029</v>
+        <v>42029</v>
       </c>
       <c r="B132" s="3">
         <v>2</v>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1502030</v>
+        <v>42030</v>
       </c>
       <c r="B133" s="3">
         <v>2</v>
@@ -11484,13 +11484,13 @@
         <v>240</v>
       </c>
       <c r="I133" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K133" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>140</v>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1502031</v>
+        <v>42031</v>
       </c>
       <c r="B134" s="3">
         <v>2</v>
@@ -11555,13 +11555,13 @@
         <v>243</v>
       </c>
       <c r="I134" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K134" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>140</v>
@@ -11598,7 +11598,7 @@
     </row>
     <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1502032</v>
+        <v>42032</v>
       </c>
       <c r="B135" s="3">
         <v>2</v>
@@ -11622,13 +11622,13 @@
         <v>246</v>
       </c>
       <c r="I135" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K135" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>140</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1502033</v>
+        <v>42033</v>
       </c>
       <c r="B136" s="3">
         <v>2</v>
@@ -11689,13 +11689,13 @@
         <v>249</v>
       </c>
       <c r="I136" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K136" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>140</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1502034</v>
+        <v>42034</v>
       </c>
       <c r="B137" s="3">
         <v>2</v>
@@ -11756,13 +11756,13 @@
         <v>252</v>
       </c>
       <c r="I137" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K137" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>140</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1502035</v>
+        <v>42035</v>
       </c>
       <c r="B138" s="3">
         <v>2</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1502036</v>
+        <v>42036</v>
       </c>
       <c r="B139" s="3">
         <v>2</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1502037</v>
+        <v>42037</v>
       </c>
       <c r="B140" s="3">
         <v>2</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1502038</v>
+        <v>42038</v>
       </c>
       <c r="B141" s="3">
         <v>2</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1502039</v>
+        <v>42039</v>
       </c>
       <c r="B142" s="3">
         <v>2</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1502040</v>
+        <v>42040</v>
       </c>
       <c r="B143" s="3">
         <v>2</v>
@@ -12162,13 +12162,13 @@
         <v>270</v>
       </c>
       <c r="I143" s="3">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K143" s="3">
-        <v>7200</v>
+        <v>8640</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>140</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1502041</v>
+        <v>42041</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
@@ -12233,13 +12233,13 @@
         <v>273</v>
       </c>
       <c r="I144" s="3">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K144" s="3">
-        <v>7200</v>
+        <v>8640</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>140</v>
@@ -12276,7 +12276,7 @@
     </row>
     <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1502042</v>
+        <v>42042</v>
       </c>
       <c r="B145" s="3">
         <v>2</v>
@@ -12300,13 +12300,13 @@
         <v>276</v>
       </c>
       <c r="I145" s="3">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K145" s="3">
-        <v>7200</v>
+        <v>8640</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>140</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1502043</v>
+        <v>42043</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -12367,13 +12367,13 @@
         <v>279</v>
       </c>
       <c r="I146" s="3">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K146" s="3">
-        <v>7200</v>
+        <v>8640</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>140</v>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1502044</v>
+        <v>42044</v>
       </c>
       <c r="B147" s="3">
         <v>2</v>
@@ -12434,13 +12434,13 @@
         <v>282</v>
       </c>
       <c r="I147" s="3">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K147" s="3">
-        <v>7200</v>
+        <v>8640</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>140</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1502045</v>
+        <v>42045</v>
       </c>
       <c r="B148" s="3">
         <v>2</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1502046</v>
+        <v>42046</v>
       </c>
       <c r="B149" s="3">
         <v>2</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1502047</v>
+        <v>42047</v>
       </c>
       <c r="B150" s="3">
         <v>2</v>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1502048</v>
+        <v>42048</v>
       </c>
       <c r="B151" s="3">
         <v>2</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1502049</v>
+        <v>42049</v>
       </c>
       <c r="B152" s="3">
         <v>2</v>
@@ -12816,7 +12816,7 @@
     </row>
     <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1502050</v>
+        <v>42050</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1502051</v>
+        <v>42051</v>
       </c>
       <c r="B154" s="3">
         <v>2</v>
@@ -12954,7 +12954,7 @@
     </row>
     <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1502052</v>
+        <v>42052</v>
       </c>
       <c r="B155" s="3">
         <v>2</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1502053</v>
+        <v>42053</v>
       </c>
       <c r="B156" s="3">
         <v>2</v>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1502054</v>
+        <v>42054</v>
       </c>
       <c r="B157" s="3">
         <v>2</v>
@@ -13155,7 +13155,7 @@
     </row>
     <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1502055</v>
+        <v>42055</v>
       </c>
       <c r="B158" s="3">
         <v>2</v>
@@ -13179,13 +13179,13 @@
         <v>315</v>
       </c>
       <c r="I158" s="3">
-        <v>4320</v>
+        <v>5280</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K158" s="3">
-        <v>8640</v>
+        <v>10800</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>140</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1502056</v>
+        <v>42056</v>
       </c>
       <c r="B159" s="3">
         <v>2</v>
@@ -13250,13 +13250,13 @@
         <v>318</v>
       </c>
       <c r="I159" s="3">
-        <v>4320</v>
+        <v>5280</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K159" s="3">
-        <v>8640</v>
+        <v>10800</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>140</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1502057</v>
+        <v>42057</v>
       </c>
       <c r="B160" s="3">
         <v>2</v>
@@ -13317,13 +13317,13 @@
         <v>321</v>
       </c>
       <c r="I160" s="3">
-        <v>4320</v>
+        <v>5280</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K160" s="3">
-        <v>8640</v>
+        <v>10800</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>140</v>
@@ -13360,7 +13360,7 @@
     </row>
     <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1502058</v>
+        <v>42058</v>
       </c>
       <c r="B161" s="3">
         <v>2</v>
@@ -13384,13 +13384,13 @@
         <v>324</v>
       </c>
       <c r="I161" s="3">
-        <v>4320</v>
+        <v>5280</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K161" s="3">
-        <v>8640</v>
+        <v>10800</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>140</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1502059</v>
+        <v>42059</v>
       </c>
       <c r="B162" s="3">
         <v>2</v>
@@ -13451,13 +13451,13 @@
         <v>327</v>
       </c>
       <c r="I162" s="3">
-        <v>4320</v>
+        <v>5280</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K162" s="3">
-        <v>8640</v>
+        <v>10800</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>140</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1502060</v>
+        <v>42060</v>
       </c>
       <c r="B163" s="3">
         <v>2</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1502061</v>
+        <v>42061</v>
       </c>
       <c r="B164" s="3">
         <v>2</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1502062</v>
+        <v>42062</v>
       </c>
       <c r="B165" s="3">
         <v>2</v>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1502063</v>
+        <v>42063</v>
       </c>
       <c r="B166" s="3">
         <v>2</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1502064</v>
+        <v>42064</v>
       </c>
       <c r="B167" s="3">
         <v>2</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1502065</v>
+        <v>42065</v>
       </c>
       <c r="B168" s="3">
         <v>2</v>
@@ -13904,7 +13904,7 @@
     </row>
     <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1502066</v>
+        <v>42066</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1502067</v>
+        <v>42067</v>
       </c>
       <c r="B170" s="3">
         <v>2</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1502068</v>
+        <v>42068</v>
       </c>
       <c r="B171" s="3">
         <v>2</v>
@@ -14105,7 +14105,7 @@
     </row>
     <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1502069</v>
+        <v>42069</v>
       </c>
       <c r="B172" s="3">
         <v>2</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>1502070</v>
+        <v>42070</v>
       </c>
       <c r="B173" s="3">
         <v>2</v>
@@ -14196,13 +14196,13 @@
         <v>360</v>
       </c>
       <c r="I173" s="3">
-        <v>5280</v>
+        <v>6360</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K173" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>140</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>1502071</v>
+        <v>42071</v>
       </c>
       <c r="B174" s="3">
         <v>2</v>
@@ -14267,13 +14267,13 @@
         <v>363</v>
       </c>
       <c r="I174" s="3">
-        <v>5280</v>
+        <v>6360</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K174" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>140</v>
@@ -14310,7 +14310,7 @@
     </row>
     <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>1502072</v>
+        <v>42072</v>
       </c>
       <c r="B175" s="3">
         <v>2</v>
@@ -14334,13 +14334,13 @@
         <v>366</v>
       </c>
       <c r="I175" s="3">
-        <v>5280</v>
+        <v>6360</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K175" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>140</v>
@@ -14377,7 +14377,7 @@
     </row>
     <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>1502073</v>
+        <v>42073</v>
       </c>
       <c r="B176" s="3">
         <v>2</v>
@@ -14401,13 +14401,13 @@
         <v>369</v>
       </c>
       <c r="I176" s="3">
-        <v>5280</v>
+        <v>6360</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K176" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>140</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>1502074</v>
+        <v>42074</v>
       </c>
       <c r="B177" s="3">
         <v>2</v>
@@ -14468,13 +14468,13 @@
         <v>372</v>
       </c>
       <c r="I177" s="3">
-        <v>5280</v>
+        <v>6360</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K177" s="3">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>140</v>
@@ -14511,7 +14511,7 @@
     </row>
     <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>1502075</v>
+        <v>42075</v>
       </c>
       <c r="B178" s="3">
         <v>2</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>1502076</v>
+        <v>42076</v>
       </c>
       <c r="B179" s="3">
         <v>2</v>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>1502077</v>
+        <v>42077</v>
       </c>
       <c r="B180" s="3">
         <v>2</v>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>1502078</v>
+        <v>42078</v>
       </c>
       <c r="B181" s="3">
         <v>2</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>1502079</v>
+        <v>42079</v>
       </c>
       <c r="B182" s="3">
         <v>2</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>1502080</v>
+        <v>42080</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>1502081</v>
+        <v>42081</v>
       </c>
       <c r="B184" s="3">
         <v>2</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>1502082</v>
+        <v>42082</v>
       </c>
       <c r="B185" s="3">
         <v>2</v>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>1502083</v>
+        <v>42083</v>
       </c>
       <c r="B186" s="3">
         <v>2</v>
@@ -15122,7 +15122,7 @@
     </row>
     <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>1502084</v>
+        <v>42084</v>
       </c>
       <c r="B187" s="3">
         <v>2</v>
@@ -15189,7 +15189,7 @@
     </row>
     <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>1502085</v>
+        <v>42085</v>
       </c>
       <c r="B188" s="3">
         <v>2</v>
@@ -15213,13 +15213,13 @@
         <v>405</v>
       </c>
       <c r="I188" s="3">
-        <v>6360</v>
+        <v>7800</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K188" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>140</v>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="189" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>1502086</v>
+        <v>42086</v>
       </c>
       <c r="B189" s="3">
         <v>2</v>
@@ -15284,13 +15284,13 @@
         <v>408</v>
       </c>
       <c r="I189" s="3">
-        <v>6360</v>
+        <v>7800</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K189" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>140</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="190" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>1502087</v>
+        <v>42087</v>
       </c>
       <c r="B190" s="3">
         <v>2</v>
@@ -15351,13 +15351,13 @@
         <v>411</v>
       </c>
       <c r="I190" s="3">
-        <v>6360</v>
+        <v>7800</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K190" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>140</v>
@@ -15394,7 +15394,7 @@
     </row>
     <row r="191" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1502088</v>
+        <v>42088</v>
       </c>
       <c r="B191" s="3">
         <v>2</v>
@@ -15418,13 +15418,13 @@
         <v>414</v>
       </c>
       <c r="I191" s="3">
-        <v>6360</v>
+        <v>7800</v>
       </c>
       <c r="J191" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K191" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>140</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="192" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1502089</v>
+        <v>42089</v>
       </c>
       <c r="B192" s="3">
         <v>2</v>
@@ -15485,13 +15485,13 @@
         <v>417</v>
       </c>
       <c r="I192" s="3">
-        <v>6360</v>
+        <v>7800</v>
       </c>
       <c r="J192" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K192" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>140</v>
@@ -15528,7 +15528,7 @@
     </row>
     <row r="193" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1502090</v>
+        <v>42090</v>
       </c>
       <c r="B193" s="3">
         <v>2</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="194" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1502091</v>
+        <v>42091</v>
       </c>
       <c r="B194" s="3">
         <v>2</v>
@@ -15666,7 +15666,7 @@
     </row>
     <row r="195" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1502092</v>
+        <v>42092</v>
       </c>
       <c r="B195" s="3">
         <v>2</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="196" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1502093</v>
+        <v>42093</v>
       </c>
       <c r="B196" s="3">
         <v>2</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="197" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1502094</v>
+        <v>42094</v>
       </c>
       <c r="B197" s="3">
         <v>2</v>
@@ -15867,7 +15867,7 @@
     </row>
     <row r="198" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1502095</v>
+        <v>42095</v>
       </c>
       <c r="B198" s="3">
         <v>2</v>
@@ -15938,7 +15938,7 @@
     </row>
     <row r="199" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1502096</v>
+        <v>42096</v>
       </c>
       <c r="B199" s="3">
         <v>2</v>
@@ -16005,7 +16005,7 @@
     </row>
     <row r="200" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1502097</v>
+        <v>42097</v>
       </c>
       <c r="B200" s="3">
         <v>2</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="201" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1502098</v>
+        <v>42098</v>
       </c>
       <c r="B201" s="3">
         <v>2</v>
@@ -16139,7 +16139,7 @@
     </row>
     <row r="202" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1502099</v>
+        <v>42099</v>
       </c>
       <c r="B202" s="3">
         <v>2</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="203" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1502100</v>
+        <v>42100</v>
       </c>
       <c r="B203" s="3">
         <v>2</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="204" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1503001</v>
+        <v>43001</v>
       </c>
       <c r="B204" s="3">
         <v>3</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="205" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1503002</v>
+        <v>43002</v>
       </c>
       <c r="B205" s="3">
         <v>3</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="206" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1503003</v>
+        <v>43003</v>
       </c>
       <c r="B206" s="3">
         <v>3</v>
@@ -16482,7 +16482,7 @@
     </row>
     <row r="207" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1503004</v>
+        <v>43004</v>
       </c>
       <c r="B207" s="3">
         <v>3</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="208" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>1503005</v>
+        <v>43005</v>
       </c>
       <c r="B208" s="3">
         <v>3</v>
@@ -16577,13 +16577,13 @@
         <v>165</v>
       </c>
       <c r="I208" s="3">
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="J208" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K208" s="3">
-        <v>7200</v>
+        <v>5760</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>140</v>
@@ -16620,7 +16620,7 @@
     </row>
     <row r="209" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>1503006</v>
+        <v>43006</v>
       </c>
       <c r="B209" s="3">
         <v>3</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="210" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>1503007</v>
+        <v>43007</v>
       </c>
       <c r="B210" s="3">
         <v>3</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="211" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>1503008</v>
+        <v>43008</v>
       </c>
       <c r="B211" s="3">
         <v>3</v>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="212" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>1503009</v>
+        <v>43009</v>
       </c>
       <c r="B212" s="3">
         <v>3</v>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="213" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>1503010</v>
+        <v>43010</v>
       </c>
       <c r="B213" s="3">
         <v>3</v>
@@ -16916,13 +16916,13 @@
         <v>180</v>
       </c>
       <c r="I213" s="3">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K213" s="3">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>140</v>
@@ -16963,7 +16963,7 @@
     </row>
     <row r="214" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>1503011</v>
+        <v>43011</v>
       </c>
       <c r="B214" s="3">
         <v>3</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="215" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>1503012</v>
+        <v>43012</v>
       </c>
       <c r="B215" s="3">
         <v>3</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="216" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>1503013</v>
+        <v>43013</v>
       </c>
       <c r="B216" s="3">
         <v>3</v>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="217" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>1503014</v>
+        <v>43014</v>
       </c>
       <c r="B217" s="3">
         <v>3</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="218" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>1503015</v>
+        <v>43015</v>
       </c>
       <c r="B218" s="3">
         <v>3</v>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="219" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>1503016</v>
+        <v>43016</v>
       </c>
       <c r="B219" s="3">
         <v>3</v>
@@ -17326,13 +17326,13 @@
         <v>198</v>
       </c>
       <c r="I219" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K219" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>140</v>
@@ -17369,7 +17369,7 @@
     </row>
     <row r="220" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>1503017</v>
+        <v>43017</v>
       </c>
       <c r="B220" s="3">
         <v>3</v>
@@ -17393,13 +17393,13 @@
         <v>201</v>
       </c>
       <c r="I220" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K220" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>140</v>
@@ -17436,7 +17436,7 @@
     </row>
     <row r="221" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>1503018</v>
+        <v>43018</v>
       </c>
       <c r="B221" s="3">
         <v>3</v>
@@ -17460,13 +17460,13 @@
         <v>204</v>
       </c>
       <c r="I221" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K221" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>140</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="222" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>1503019</v>
+        <v>43019</v>
       </c>
       <c r="B222" s="3">
         <v>3</v>
@@ -17527,13 +17527,13 @@
         <v>207</v>
       </c>
       <c r="I222" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K222" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>140</v>
@@ -17570,7 +17570,7 @@
     </row>
     <row r="223" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>1503020</v>
+        <v>43020</v>
       </c>
       <c r="B223" s="3">
         <v>3</v>
@@ -17594,13 +17594,13 @@
         <v>210</v>
       </c>
       <c r="I223" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K223" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L223" s="3" t="s">
         <v>140</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="224" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>1503021</v>
+        <v>43021</v>
       </c>
       <c r="B224" s="3">
         <v>3</v>
@@ -17665,13 +17665,13 @@
         <v>213</v>
       </c>
       <c r="I224" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K224" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>140</v>
@@ -17708,7 +17708,7 @@
     </row>
     <row r="225" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>1503022</v>
+        <v>43022</v>
       </c>
       <c r="B225" s="3">
         <v>3</v>
@@ -17732,13 +17732,13 @@
         <v>216</v>
       </c>
       <c r="I225" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K225" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>140</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="226" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>1503023</v>
+        <v>43023</v>
       </c>
       <c r="B226" s="3">
         <v>3</v>
@@ -17799,13 +17799,13 @@
         <v>219</v>
       </c>
       <c r="I226" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K226" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>140</v>
@@ -17842,7 +17842,7 @@
     </row>
     <row r="227" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>1503024</v>
+        <v>43024</v>
       </c>
       <c r="B227" s="3">
         <v>3</v>
@@ -17866,13 +17866,13 @@
         <v>222</v>
       </c>
       <c r="I227" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K227" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L227" s="3" t="s">
         <v>140</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="228" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>1503025</v>
+        <v>43025</v>
       </c>
       <c r="B228" s="3">
         <v>3</v>
@@ -17933,13 +17933,13 @@
         <v>225</v>
       </c>
       <c r="I228" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K228" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>140</v>
@@ -17980,7 +17980,7 @@
     </row>
     <row r="229" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>1503026</v>
+        <v>43026</v>
       </c>
       <c r="B229" s="3">
         <v>3</v>
@@ -18004,13 +18004,13 @@
         <v>228</v>
       </c>
       <c r="I229" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K229" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L229" s="3" t="s">
         <v>140</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="230" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>1503027</v>
+        <v>43027</v>
       </c>
       <c r="B230" s="3">
         <v>3</v>
@@ -18071,13 +18071,13 @@
         <v>231</v>
       </c>
       <c r="I230" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K230" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L230" s="3" t="s">
         <v>140</v>
@@ -18114,7 +18114,7 @@
     </row>
     <row r="231" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>1503028</v>
+        <v>43028</v>
       </c>
       <c r="B231" s="3">
         <v>3</v>
@@ -18138,13 +18138,13 @@
         <v>234</v>
       </c>
       <c r="I231" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K231" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L231" s="3" t="s">
         <v>140</v>
@@ -18181,7 +18181,7 @@
     </row>
     <row r="232" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>1503029</v>
+        <v>43029</v>
       </c>
       <c r="B232" s="3">
         <v>3</v>
@@ -18205,13 +18205,13 @@
         <v>237</v>
       </c>
       <c r="I232" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K232" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>140</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="233" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>1503030</v>
+        <v>43030</v>
       </c>
       <c r="B233" s="3">
         <v>3</v>
@@ -18272,13 +18272,13 @@
         <v>240</v>
       </c>
       <c r="I233" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K233" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L233" s="3" t="s">
         <v>140</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="234" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>1503031</v>
+        <v>43031</v>
       </c>
       <c r="B234" s="3">
         <v>3</v>
@@ -18343,13 +18343,13 @@
         <v>243</v>
       </c>
       <c r="I234" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J234" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K234" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L234" s="3" t="s">
         <v>140</v>
@@ -18386,7 +18386,7 @@
     </row>
     <row r="235" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>1503032</v>
+        <v>43032</v>
       </c>
       <c r="B235" s="3">
         <v>3</v>
@@ -18410,13 +18410,13 @@
         <v>246</v>
       </c>
       <c r="I235" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J235" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K235" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L235" s="3" t="s">
         <v>140</v>
@@ -18453,7 +18453,7 @@
     </row>
     <row r="236" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>1503033</v>
+        <v>43033</v>
       </c>
       <c r="B236" s="3">
         <v>3</v>
@@ -18477,13 +18477,13 @@
         <v>249</v>
       </c>
       <c r="I236" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J236" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K236" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L236" s="3" t="s">
         <v>140</v>
@@ -18520,7 +18520,7 @@
     </row>
     <row r="237" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>1503034</v>
+        <v>43034</v>
       </c>
       <c r="B237" s="3">
         <v>3</v>
@@ -18544,13 +18544,13 @@
         <v>252</v>
       </c>
       <c r="I237" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J237" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K237" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L237" s="3" t="s">
         <v>140</v>
@@ -18587,7 +18587,7 @@
     </row>
     <row r="238" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>1503035</v>
+        <v>43035</v>
       </c>
       <c r="B238" s="3">
         <v>3</v>
@@ -18611,13 +18611,13 @@
         <v>255</v>
       </c>
       <c r="I238" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K238" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L238" s="3" t="s">
         <v>140</v>
@@ -18658,7 +18658,7 @@
     </row>
     <row r="239" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>1503036</v>
+        <v>43036</v>
       </c>
       <c r="B239" s="3">
         <v>3</v>
@@ -18682,13 +18682,13 @@
         <v>258</v>
       </c>
       <c r="I239" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K239" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L239" s="3" t="s">
         <v>140</v>
@@ -18725,7 +18725,7 @@
     </row>
     <row r="240" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>1503037</v>
+        <v>43037</v>
       </c>
       <c r="B240" s="3">
         <v>3</v>
@@ -18749,13 +18749,13 @@
         <v>261</v>
       </c>
       <c r="I240" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K240" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L240" s="3" t="s">
         <v>140</v>
@@ -18792,7 +18792,7 @@
     </row>
     <row r="241" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>1503038</v>
+        <v>43038</v>
       </c>
       <c r="B241" s="3">
         <v>3</v>
@@ -18816,13 +18816,13 @@
         <v>264</v>
       </c>
       <c r="I241" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K241" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L241" s="3" t="s">
         <v>140</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="242" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>1503039</v>
+        <v>43039</v>
       </c>
       <c r="B242" s="3">
         <v>3</v>
@@ -18883,13 +18883,13 @@
         <v>267</v>
       </c>
       <c r="I242" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J242" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K242" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L242" s="3" t="s">
         <v>140</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="243" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>1503040</v>
+        <v>43040</v>
       </c>
       <c r="B243" s="3">
         <v>3</v>
@@ -18997,7 +18997,7 @@
     </row>
     <row r="244" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>1503041</v>
+        <v>43041</v>
       </c>
       <c r="B244" s="3">
         <v>3</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="245" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>1503042</v>
+        <v>43042</v>
       </c>
       <c r="B245" s="3">
         <v>3</v>
@@ -19131,7 +19131,7 @@
     </row>
     <row r="246" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>1503043</v>
+        <v>43043</v>
       </c>
       <c r="B246" s="3">
         <v>3</v>
@@ -19198,7 +19198,7 @@
     </row>
     <row r="247" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>1503044</v>
+        <v>43044</v>
       </c>
       <c r="B247" s="3">
         <v>3</v>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="248" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>1503045</v>
+        <v>43045</v>
       </c>
       <c r="B248" s="3">
         <v>3</v>
@@ -19289,13 +19289,13 @@
         <v>285</v>
       </c>
       <c r="I248" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J248" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K248" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L248" s="3" t="s">
         <v>140</v>
@@ -19336,7 +19336,7 @@
     </row>
     <row r="249" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>1503046</v>
+        <v>43046</v>
       </c>
       <c r="B249" s="3">
         <v>3</v>
@@ -19360,13 +19360,13 @@
         <v>288</v>
       </c>
       <c r="I249" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K249" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L249" s="3" t="s">
         <v>140</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="250" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>1503047</v>
+        <v>43047</v>
       </c>
       <c r="B250" s="3">
         <v>3</v>
@@ -19427,13 +19427,13 @@
         <v>291</v>
       </c>
       <c r="I250" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K250" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L250" s="3" t="s">
         <v>140</v>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="251" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>1503048</v>
+        <v>43048</v>
       </c>
       <c r="B251" s="3">
         <v>3</v>
@@ -19494,13 +19494,13 @@
         <v>294</v>
       </c>
       <c r="I251" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J251" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K251" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L251" s="3" t="s">
         <v>140</v>
@@ -19537,7 +19537,7 @@
     </row>
     <row r="252" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>1503049</v>
+        <v>43049</v>
       </c>
       <c r="B252" s="3">
         <v>3</v>
@@ -19561,13 +19561,13 @@
         <v>297</v>
       </c>
       <c r="I252" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J252" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K252" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L252" s="3" t="s">
         <v>140</v>
@@ -19604,7 +19604,7 @@
     </row>
     <row r="253" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>1503050</v>
+        <v>43050</v>
       </c>
       <c r="B253" s="3">
         <v>3</v>
@@ -19675,7 +19675,7 @@
     </row>
     <row r="254" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>1503051</v>
+        <v>43051</v>
       </c>
       <c r="B254" s="3">
         <v>3</v>
@@ -19742,7 +19742,7 @@
     </row>
     <row r="255" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>1503052</v>
+        <v>43052</v>
       </c>
       <c r="B255" s="3">
         <v>3</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="256" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>1503053</v>
+        <v>43053</v>
       </c>
       <c r="B256" s="3">
         <v>3</v>
@@ -19876,7 +19876,7 @@
     </row>
     <row r="257" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>1503054</v>
+        <v>43054</v>
       </c>
       <c r="B257" s="3">
         <v>3</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="258" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>1503055</v>
+        <v>43055</v>
       </c>
       <c r="B258" s="3">
         <v>3</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="259" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>1503056</v>
+        <v>43056</v>
       </c>
       <c r="B259" s="3">
         <v>3</v>
@@ -20081,7 +20081,7 @@
     </row>
     <row r="260" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>1503057</v>
+        <v>43057</v>
       </c>
       <c r="B260" s="3">
         <v>3</v>
@@ -20148,7 +20148,7 @@
     </row>
     <row r="261" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>1503058</v>
+        <v>43058</v>
       </c>
       <c r="B261" s="3">
         <v>3</v>
@@ -20215,7 +20215,7 @@
     </row>
     <row r="262" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>1503059</v>
+        <v>43059</v>
       </c>
       <c r="B262" s="3">
         <v>3</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="263" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>1503060</v>
+        <v>43060</v>
       </c>
       <c r="B263" s="3">
         <v>3</v>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="264" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <v>1503061</v>
+        <v>43061</v>
       </c>
       <c r="B264" s="3">
         <v>3</v>
@@ -20420,7 +20420,7 @@
     </row>
     <row r="265" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>1503062</v>
+        <v>43062</v>
       </c>
       <c r="B265" s="3">
         <v>3</v>
@@ -20487,7 +20487,7 @@
     </row>
     <row r="266" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <v>1503063</v>
+        <v>43063</v>
       </c>
       <c r="B266" s="3">
         <v>3</v>
@@ -20554,7 +20554,7 @@
     </row>
     <row r="267" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>1503064</v>
+        <v>43064</v>
       </c>
       <c r="B267" s="3">
         <v>3</v>
@@ -20621,7 +20621,7 @@
     </row>
     <row r="268" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>1503065</v>
+        <v>43065</v>
       </c>
       <c r="B268" s="3">
         <v>3</v>
@@ -20692,7 +20692,7 @@
     </row>
     <row r="269" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>1503066</v>
+        <v>43066</v>
       </c>
       <c r="B269" s="3">
         <v>3</v>
@@ -20759,7 +20759,7 @@
     </row>
     <row r="270" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>1503067</v>
+        <v>43067</v>
       </c>
       <c r="B270" s="3">
         <v>3</v>
@@ -20826,7 +20826,7 @@
     </row>
     <row r="271" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <v>1503068</v>
+        <v>43068</v>
       </c>
       <c r="B271" s="3">
         <v>3</v>
@@ -20893,7 +20893,7 @@
     </row>
     <row r="272" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>1503069</v>
+        <v>43069</v>
       </c>
       <c r="B272" s="3">
         <v>3</v>
@@ -20960,7 +20960,7 @@
     </row>
     <row r="273" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <v>1503070</v>
+        <v>43070</v>
       </c>
       <c r="B273" s="3">
         <v>3</v>
@@ -20984,13 +20984,13 @@
         <v>360</v>
       </c>
       <c r="I273" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J273" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K273" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L273" s="3" t="s">
         <v>140</v>
@@ -21031,7 +21031,7 @@
     </row>
     <row r="274" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>1503071</v>
+        <v>43071</v>
       </c>
       <c r="B274" s="3">
         <v>3</v>
@@ -21055,13 +21055,13 @@
         <v>363</v>
       </c>
       <c r="I274" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J274" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K274" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L274" s="3" t="s">
         <v>140</v>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="275" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
-        <v>1503072</v>
+        <v>43072</v>
       </c>
       <c r="B275" s="3">
         <v>3</v>
@@ -21122,13 +21122,13 @@
         <v>366</v>
       </c>
       <c r="I275" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J275" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K275" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L275" s="3" t="s">
         <v>140</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="276" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>1503073</v>
+        <v>43073</v>
       </c>
       <c r="B276" s="3">
         <v>3</v>
@@ -21189,13 +21189,13 @@
         <v>369</v>
       </c>
       <c r="I276" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J276" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K276" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L276" s="3" t="s">
         <v>140</v>
@@ -21232,7 +21232,7 @@
     </row>
     <row r="277" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
-        <v>1503074</v>
+        <v>43074</v>
       </c>
       <c r="B277" s="3">
         <v>3</v>
@@ -21256,13 +21256,13 @@
         <v>372</v>
       </c>
       <c r="I277" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J277" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K277" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L277" s="3" t="s">
         <v>140</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="278" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>1503075</v>
+        <v>43075</v>
       </c>
       <c r="B278" s="3">
         <v>3</v>
@@ -21323,13 +21323,13 @@
         <v>375</v>
       </c>
       <c r="I278" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J278" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K278" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L278" s="3" t="s">
         <v>140</v>
@@ -21370,7 +21370,7 @@
     </row>
     <row r="279" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
-        <v>1503076</v>
+        <v>43076</v>
       </c>
       <c r="B279" s="3">
         <v>3</v>
@@ -21394,13 +21394,13 @@
         <v>378</v>
       </c>
       <c r="I279" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J279" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K279" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L279" s="3" t="s">
         <v>140</v>
@@ -21437,7 +21437,7 @@
     </row>
     <row r="280" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>1503077</v>
+        <v>43077</v>
       </c>
       <c r="B280" s="3">
         <v>3</v>
@@ -21461,13 +21461,13 @@
         <v>381</v>
       </c>
       <c r="I280" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J280" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K280" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L280" s="3" t="s">
         <v>140</v>
@@ -21504,7 +21504,7 @@
     </row>
     <row r="281" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
-        <v>1503078</v>
+        <v>43078</v>
       </c>
       <c r="B281" s="3">
         <v>3</v>
@@ -21528,13 +21528,13 @@
         <v>384</v>
       </c>
       <c r="I281" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J281" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K281" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L281" s="3" t="s">
         <v>140</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="282" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>1503079</v>
+        <v>43079</v>
       </c>
       <c r="B282" s="3">
         <v>3</v>
@@ -21595,13 +21595,13 @@
         <v>387</v>
       </c>
       <c r="I282" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J282" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K282" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L282" s="3" t="s">
         <v>140</v>
@@ -21638,7 +21638,7 @@
     </row>
     <row r="283" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
-        <v>1503080</v>
+        <v>43080</v>
       </c>
       <c r="B283" s="3">
         <v>3</v>
@@ -21662,13 +21662,13 @@
         <v>390</v>
       </c>
       <c r="I283" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J283" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K283" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L283" s="3" t="s">
         <v>140</v>
@@ -21709,7 +21709,7 @@
     </row>
     <row r="284" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>1503081</v>
+        <v>43081</v>
       </c>
       <c r="B284" s="3">
         <v>3</v>
@@ -21733,13 +21733,13 @@
         <v>393</v>
       </c>
       <c r="I284" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J284" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K284" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L284" s="3" t="s">
         <v>140</v>
@@ -21776,7 +21776,7 @@
     </row>
     <row r="285" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
-        <v>1503082</v>
+        <v>43082</v>
       </c>
       <c r="B285" s="3">
         <v>3</v>
@@ -21800,13 +21800,13 @@
         <v>396</v>
       </c>
       <c r="I285" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J285" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K285" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L285" s="3" t="s">
         <v>140</v>
@@ -21843,7 +21843,7 @@
     </row>
     <row r="286" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <v>1503083</v>
+        <v>43083</v>
       </c>
       <c r="B286" s="3">
         <v>3</v>
@@ -21867,13 +21867,13 @@
         <v>399</v>
       </c>
       <c r="I286" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J286" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K286" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L286" s="3" t="s">
         <v>140</v>
@@ -21910,7 +21910,7 @@
     </row>
     <row r="287" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <v>1503084</v>
+        <v>43084</v>
       </c>
       <c r="B287" s="3">
         <v>3</v>
@@ -21934,13 +21934,13 @@
         <v>402</v>
       </c>
       <c r="I287" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J287" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K287" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L287" s="3" t="s">
         <v>140</v>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="288" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <v>1503085</v>
+        <v>43085</v>
       </c>
       <c r="B288" s="3">
         <v>3</v>
@@ -22001,13 +22001,13 @@
         <v>405</v>
       </c>
       <c r="I288" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J288" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K288" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L288" s="3" t="s">
         <v>140</v>
@@ -22048,7 +22048,7 @@
     </row>
     <row r="289" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <v>1503086</v>
+        <v>43086</v>
       </c>
       <c r="B289" s="3">
         <v>3</v>
@@ -22072,13 +22072,13 @@
         <v>408</v>
       </c>
       <c r="I289" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J289" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K289" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L289" s="3" t="s">
         <v>140</v>
@@ -22115,7 +22115,7 @@
     </row>
     <row r="290" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <v>1503087</v>
+        <v>43087</v>
       </c>
       <c r="B290" s="3">
         <v>3</v>
@@ -22139,13 +22139,13 @@
         <v>411</v>
       </c>
       <c r="I290" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J290" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K290" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L290" s="3" t="s">
         <v>140</v>
@@ -22182,7 +22182,7 @@
     </row>
     <row r="291" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <v>1503088</v>
+        <v>43088</v>
       </c>
       <c r="B291" s="3">
         <v>3</v>
@@ -22206,13 +22206,13 @@
         <v>414</v>
       </c>
       <c r="I291" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J291" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K291" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L291" s="3" t="s">
         <v>140</v>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="292" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <v>1503089</v>
+        <v>43089</v>
       </c>
       <c r="B292" s="3">
         <v>3</v>
@@ -22273,13 +22273,13 @@
         <v>417</v>
       </c>
       <c r="I292" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J292" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K292" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L292" s="3" t="s">
         <v>140</v>
@@ -22316,7 +22316,7 @@
     </row>
     <row r="293" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <v>1503090</v>
+        <v>43090</v>
       </c>
       <c r="B293" s="3">
         <v>3</v>
@@ -22340,13 +22340,13 @@
         <v>420</v>
       </c>
       <c r="I293" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J293" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K293" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L293" s="3" t="s">
         <v>140</v>
@@ -22387,7 +22387,7 @@
     </row>
     <row r="294" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <v>1503091</v>
+        <v>43091</v>
       </c>
       <c r="B294" s="3">
         <v>3</v>
@@ -22411,13 +22411,13 @@
         <v>423</v>
       </c>
       <c r="I294" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J294" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K294" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L294" s="3" t="s">
         <v>140</v>
@@ -22454,7 +22454,7 @@
     </row>
     <row r="295" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <v>1503092</v>
+        <v>43092</v>
       </c>
       <c r="B295" s="3">
         <v>3</v>
@@ -22478,13 +22478,13 @@
         <v>426</v>
       </c>
       <c r="I295" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J295" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K295" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L295" s="3" t="s">
         <v>140</v>
@@ -22521,7 +22521,7 @@
     </row>
     <row r="296" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <v>1503093</v>
+        <v>43093</v>
       </c>
       <c r="B296" s="3">
         <v>3</v>
@@ -22545,13 +22545,13 @@
         <v>429</v>
       </c>
       <c r="I296" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J296" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K296" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L296" s="3" t="s">
         <v>140</v>
@@ -22588,7 +22588,7 @@
     </row>
     <row r="297" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <v>1503094</v>
+        <v>43094</v>
       </c>
       <c r="B297" s="3">
         <v>3</v>
@@ -22612,13 +22612,13 @@
         <v>432</v>
       </c>
       <c r="I297" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J297" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K297" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L297" s="3" t="s">
         <v>140</v>
@@ -22655,7 +22655,7 @@
     </row>
     <row r="298" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <v>1503095</v>
+        <v>43095</v>
       </c>
       <c r="B298" s="3">
         <v>3</v>
@@ -22679,13 +22679,13 @@
         <v>435</v>
       </c>
       <c r="I298" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J298" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K298" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L298" s="3" t="s">
         <v>140</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="299" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <v>1503096</v>
+        <v>43096</v>
       </c>
       <c r="B299" s="3">
         <v>3</v>
@@ -22793,7 +22793,7 @@
     </row>
     <row r="300" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <v>1503097</v>
+        <v>43097</v>
       </c>
       <c r="B300" s="3">
         <v>3</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="301" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <v>1503098</v>
+        <v>43098</v>
       </c>
       <c r="B301" s="3">
         <v>3</v>
@@ -22927,7 +22927,7 @@
     </row>
     <row r="302" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <v>1503099</v>
+        <v>43099</v>
       </c>
       <c r="B302" s="3">
         <v>3</v>
@@ -22994,7 +22994,7 @@
     </row>
     <row r="303" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <v>1503100</v>
+        <v>43100</v>
       </c>
       <c r="B303" s="3">
         <v>3</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="304" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <v>1504001</v>
+        <v>44001</v>
       </c>
       <c r="B304" s="3">
         <v>4</v>
@@ -23132,7 +23132,7 @@
     </row>
     <row r="305" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <v>1504002</v>
+        <v>44002</v>
       </c>
       <c r="B305" s="3">
         <v>4</v>
@@ -23203,7 +23203,7 @@
     </row>
     <row r="306" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <v>1504003</v>
+        <v>44003</v>
       </c>
       <c r="B306" s="3">
         <v>4</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="307" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <v>1504004</v>
+        <v>44004</v>
       </c>
       <c r="B307" s="3">
         <v>4</v>
@@ -23341,7 +23341,7 @@
     </row>
     <row r="308" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <v>1504005</v>
+        <v>44005</v>
       </c>
       <c r="B308" s="3">
         <v>4</v>
@@ -23365,13 +23365,13 @@
         <v>165</v>
       </c>
       <c r="I308" s="3">
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="J308" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K308" s="3">
-        <v>7200</v>
+        <v>5760</v>
       </c>
       <c r="L308" s="3" t="s">
         <v>140</v>
@@ -23408,7 +23408,7 @@
     </row>
     <row r="309" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <v>1504006</v>
+        <v>44006</v>
       </c>
       <c r="B309" s="3">
         <v>4</v>
@@ -23475,7 +23475,7 @@
     </row>
     <row r="310" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <v>1504007</v>
+        <v>44007</v>
       </c>
       <c r="B310" s="3">
         <v>4</v>
@@ -23546,7 +23546,7 @@
     </row>
     <row r="311" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <v>1504008</v>
+        <v>44008</v>
       </c>
       <c r="B311" s="3">
         <v>4</v>
@@ -23613,7 +23613,7 @@
     </row>
     <row r="312" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <v>1504009</v>
+        <v>44009</v>
       </c>
       <c r="B312" s="3">
         <v>4</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="313" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <v>1504010</v>
+        <v>44010</v>
       </c>
       <c r="B313" s="3">
         <v>4</v>
@@ -23704,13 +23704,13 @@
         <v>180</v>
       </c>
       <c r="I313" s="3">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="J313" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K313" s="3">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="L313" s="3" t="s">
         <v>140</v>
@@ -23751,7 +23751,7 @@
     </row>
     <row r="314" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <v>1504011</v>
+        <v>44011</v>
       </c>
       <c r="B314" s="3">
         <v>4</v>
@@ -23818,7 +23818,7 @@
     </row>
     <row r="315" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
-        <v>1504012</v>
+        <v>44012</v>
       </c>
       <c r="B315" s="3">
         <v>4</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="316" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
-        <v>1504013</v>
+        <v>44013</v>
       </c>
       <c r="B316" s="3">
         <v>4</v>
@@ -23952,7 +23952,7 @@
     </row>
     <row r="317" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
-        <v>1504014</v>
+        <v>44014</v>
       </c>
       <c r="B317" s="3">
         <v>4</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="318" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
-        <v>1504015</v>
+        <v>44015</v>
       </c>
       <c r="B318" s="3">
         <v>4</v>
@@ -24090,7 +24090,7 @@
     </row>
     <row r="319" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
-        <v>1504016</v>
+        <v>44016</v>
       </c>
       <c r="B319" s="3">
         <v>4</v>
@@ -24114,13 +24114,13 @@
         <v>198</v>
       </c>
       <c r="I319" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J319" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K319" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L319" s="3" t="s">
         <v>140</v>
@@ -24157,7 +24157,7 @@
     </row>
     <row r="320" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
-        <v>1504017</v>
+        <v>44017</v>
       </c>
       <c r="B320" s="3">
         <v>4</v>
@@ -24181,13 +24181,13 @@
         <v>201</v>
       </c>
       <c r="I320" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J320" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K320" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L320" s="3" t="s">
         <v>140</v>
@@ -24224,7 +24224,7 @@
     </row>
     <row r="321" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
-        <v>1504018</v>
+        <v>44018</v>
       </c>
       <c r="B321" s="3">
         <v>4</v>
@@ -24248,13 +24248,13 @@
         <v>204</v>
       </c>
       <c r="I321" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J321" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K321" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L321" s="3" t="s">
         <v>140</v>
@@ -24291,7 +24291,7 @@
     </row>
     <row r="322" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
-        <v>1504019</v>
+        <v>44019</v>
       </c>
       <c r="B322" s="3">
         <v>4</v>
@@ -24315,13 +24315,13 @@
         <v>207</v>
       </c>
       <c r="I322" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="J322" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K322" s="3">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="L322" s="3" t="s">
         <v>140</v>
@@ -24358,7 +24358,7 @@
     </row>
     <row r="323" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
-        <v>1504020</v>
+        <v>44020</v>
       </c>
       <c r="B323" s="3">
         <v>4</v>
@@ -24382,13 +24382,13 @@
         <v>210</v>
       </c>
       <c r="I323" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J323" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K323" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L323" s="3" t="s">
         <v>140</v>
@@ -24429,7 +24429,7 @@
     </row>
     <row r="324" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
-        <v>1504021</v>
+        <v>44021</v>
       </c>
       <c r="B324" s="3">
         <v>4</v>
@@ -24453,13 +24453,13 @@
         <v>213</v>
       </c>
       <c r="I324" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J324" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K324" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L324" s="3" t="s">
         <v>140</v>
@@ -24496,7 +24496,7 @@
     </row>
     <row r="325" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
-        <v>1504022</v>
+        <v>44022</v>
       </c>
       <c r="B325" s="3">
         <v>4</v>
@@ -24520,13 +24520,13 @@
         <v>216</v>
       </c>
       <c r="I325" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J325" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K325" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L325" s="3" t="s">
         <v>140</v>
@@ -24563,7 +24563,7 @@
     </row>
     <row r="326" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <v>1504023</v>
+        <v>44023</v>
       </c>
       <c r="B326" s="3">
         <v>4</v>
@@ -24587,13 +24587,13 @@
         <v>219</v>
       </c>
       <c r="I326" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J326" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K326" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L326" s="3" t="s">
         <v>140</v>
@@ -24630,7 +24630,7 @@
     </row>
     <row r="327" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
-        <v>1504024</v>
+        <v>44024</v>
       </c>
       <c r="B327" s="3">
         <v>4</v>
@@ -24654,13 +24654,13 @@
         <v>222</v>
       </c>
       <c r="I327" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J327" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K327" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L327" s="3" t="s">
         <v>140</v>
@@ -24697,7 +24697,7 @@
     </row>
     <row r="328" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <v>1504025</v>
+        <v>44025</v>
       </c>
       <c r="B328" s="3">
         <v>4</v>
@@ -24721,13 +24721,13 @@
         <v>225</v>
       </c>
       <c r="I328" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J328" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K328" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L328" s="3" t="s">
         <v>140</v>
@@ -24768,7 +24768,7 @@
     </row>
     <row r="329" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
-        <v>1504026</v>
+        <v>44026</v>
       </c>
       <c r="B329" s="3">
         <v>4</v>
@@ -24792,13 +24792,13 @@
         <v>228</v>
       </c>
       <c r="I329" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J329" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K329" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L329" s="3" t="s">
         <v>140</v>
@@ -24835,7 +24835,7 @@
     </row>
     <row r="330" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <v>1504027</v>
+        <v>44027</v>
       </c>
       <c r="B330" s="3">
         <v>4</v>
@@ -24859,13 +24859,13 @@
         <v>231</v>
       </c>
       <c r="I330" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J330" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K330" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L330" s="3" t="s">
         <v>140</v>
@@ -24902,7 +24902,7 @@
     </row>
     <row r="331" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
-        <v>1504028</v>
+        <v>44028</v>
       </c>
       <c r="B331" s="3">
         <v>4</v>
@@ -24926,13 +24926,13 @@
         <v>234</v>
       </c>
       <c r="I331" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J331" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K331" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L331" s="3" t="s">
         <v>140</v>
@@ -24969,7 +24969,7 @@
     </row>
     <row r="332" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <v>1504029</v>
+        <v>44029</v>
       </c>
       <c r="B332" s="3">
         <v>4</v>
@@ -24993,13 +24993,13 @@
         <v>237</v>
       </c>
       <c r="I332" s="3">
-        <v>5400</v>
+        <v>6480</v>
       </c>
       <c r="J332" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K332" s="3">
-        <v>10800</v>
+        <v>12960</v>
       </c>
       <c r="L332" s="3" t="s">
         <v>140</v>
@@ -25036,7 +25036,7 @@
     </row>
     <row r="333" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
-        <v>1504030</v>
+        <v>44030</v>
       </c>
       <c r="B333" s="3">
         <v>4</v>
@@ -25060,13 +25060,13 @@
         <v>240</v>
       </c>
       <c r="I333" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J333" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K333" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L333" s="3" t="s">
         <v>140</v>
@@ -25107,7 +25107,7 @@
     </row>
     <row r="334" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <v>1504031</v>
+        <v>44031</v>
       </c>
       <c r="B334" s="3">
         <v>4</v>
@@ -25131,13 +25131,13 @@
         <v>243</v>
       </c>
       <c r="I334" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K334" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L334" s="3" t="s">
         <v>140</v>
@@ -25174,7 +25174,7 @@
     </row>
     <row r="335" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
-        <v>1504032</v>
+        <v>44032</v>
       </c>
       <c r="B335" s="3">
         <v>4</v>
@@ -25198,13 +25198,13 @@
         <v>246</v>
       </c>
       <c r="I335" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J335" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K335" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L335" s="3" t="s">
         <v>140</v>
@@ -25241,7 +25241,7 @@
     </row>
     <row r="336" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
-        <v>1504033</v>
+        <v>44033</v>
       </c>
       <c r="B336" s="3">
         <v>4</v>
@@ -25265,13 +25265,13 @@
         <v>249</v>
       </c>
       <c r="I336" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J336" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K336" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L336" s="3" t="s">
         <v>140</v>
@@ -25308,7 +25308,7 @@
     </row>
     <row r="337" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
-        <v>1504034</v>
+        <v>44034</v>
       </c>
       <c r="B337" s="3">
         <v>4</v>
@@ -25332,13 +25332,13 @@
         <v>252</v>
       </c>
       <c r="I337" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J337" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K337" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L337" s="3" t="s">
         <v>140</v>
@@ -25375,7 +25375,7 @@
     </row>
     <row r="338" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
-        <v>1504035</v>
+        <v>44035</v>
       </c>
       <c r="B338" s="3">
         <v>4</v>
@@ -25399,13 +25399,13 @@
         <v>255</v>
       </c>
       <c r="I338" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K338" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L338" s="3" t="s">
         <v>140</v>
@@ -25446,7 +25446,7 @@
     </row>
     <row r="339" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
-        <v>1504036</v>
+        <v>44036</v>
       </c>
       <c r="B339" s="3">
         <v>4</v>
@@ -25470,13 +25470,13 @@
         <v>258</v>
       </c>
       <c r="I339" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J339" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K339" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L339" s="3" t="s">
         <v>140</v>
@@ -25513,7 +25513,7 @@
     </row>
     <row r="340" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
-        <v>1504037</v>
+        <v>44037</v>
       </c>
       <c r="B340" s="3">
         <v>4</v>
@@ -25537,13 +25537,13 @@
         <v>261</v>
       </c>
       <c r="I340" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J340" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K340" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L340" s="3" t="s">
         <v>140</v>
@@ -25580,7 +25580,7 @@
     </row>
     <row r="341" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
-        <v>1504038</v>
+        <v>44038</v>
       </c>
       <c r="B341" s="3">
         <v>4</v>
@@ -25604,13 +25604,13 @@
         <v>264</v>
       </c>
       <c r="I341" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J341" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K341" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L341" s="3" t="s">
         <v>140</v>
@@ -25647,7 +25647,7 @@
     </row>
     <row r="342" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
-        <v>1504039</v>
+        <v>44039</v>
       </c>
       <c r="B342" s="3">
         <v>4</v>
@@ -25671,13 +25671,13 @@
         <v>267</v>
       </c>
       <c r="I342" s="3">
-        <v>6480</v>
+        <v>7920</v>
       </c>
       <c r="J342" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K342" s="3">
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="L342" s="3" t="s">
         <v>140</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="343" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
-        <v>1504040</v>
+        <v>44040</v>
       </c>
       <c r="B343" s="3">
         <v>4</v>
@@ -25785,7 +25785,7 @@
     </row>
     <row r="344" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
-        <v>1504041</v>
+        <v>44041</v>
       </c>
       <c r="B344" s="3">
         <v>4</v>
@@ -25852,7 +25852,7 @@
     </row>
     <row r="345" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
-        <v>1504042</v>
+        <v>44042</v>
       </c>
       <c r="B345" s="3">
         <v>4</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="346" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
-        <v>1504043</v>
+        <v>44043</v>
       </c>
       <c r="B346" s="3">
         <v>4</v>
@@ -25986,7 +25986,7 @@
     </row>
     <row r="347" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
-        <v>1504044</v>
+        <v>44044</v>
       </c>
       <c r="B347" s="3">
         <v>4</v>
@@ -26053,7 +26053,7 @@
     </row>
     <row r="348" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
-        <v>1504045</v>
+        <v>44045</v>
       </c>
       <c r="B348" s="3">
         <v>4</v>
@@ -26077,13 +26077,13 @@
         <v>285</v>
       </c>
       <c r="I348" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J348" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K348" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L348" s="3" t="s">
         <v>140</v>
@@ -26124,7 +26124,7 @@
     </row>
     <row r="349" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
-        <v>1504046</v>
+        <v>44046</v>
       </c>
       <c r="B349" s="3">
         <v>4</v>
@@ -26148,13 +26148,13 @@
         <v>288</v>
       </c>
       <c r="I349" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J349" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K349" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L349" s="3" t="s">
         <v>140</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="350" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
-        <v>1504047</v>
+        <v>44047</v>
       </c>
       <c r="B350" s="3">
         <v>4</v>
@@ -26215,13 +26215,13 @@
         <v>291</v>
       </c>
       <c r="I350" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J350" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K350" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L350" s="3" t="s">
         <v>140</v>
@@ -26258,7 +26258,7 @@
     </row>
     <row r="351" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
-        <v>1504048</v>
+        <v>44048</v>
       </c>
       <c r="B351" s="3">
         <v>4</v>
@@ -26282,13 +26282,13 @@
         <v>294</v>
       </c>
       <c r="I351" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J351" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K351" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L351" s="3" t="s">
         <v>140</v>
@@ -26325,7 +26325,7 @@
     </row>
     <row r="352" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <v>1504049</v>
+        <v>44049</v>
       </c>
       <c r="B352" s="3">
         <v>4</v>
@@ -26349,13 +26349,13 @@
         <v>297</v>
       </c>
       <c r="I352" s="3">
-        <v>7920</v>
+        <v>9540</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K352" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="L352" s="3" t="s">
         <v>140</v>
@@ -26392,7 +26392,7 @@
     </row>
     <row r="353" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
-        <v>1504050</v>
+        <v>44050</v>
       </c>
       <c r="B353" s="3">
         <v>4</v>
@@ -26463,7 +26463,7 @@
     </row>
     <row r="354" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
-        <v>1504051</v>
+        <v>44051</v>
       </c>
       <c r="B354" s="3">
         <v>4</v>
@@ -26530,7 +26530,7 @@
     </row>
     <row r="355" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
-        <v>1504052</v>
+        <v>44052</v>
       </c>
       <c r="B355" s="3">
         <v>4</v>
@@ -26597,7 +26597,7 @@
     </row>
     <row r="356" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
-        <v>1504053</v>
+        <v>44053</v>
       </c>
       <c r="B356" s="3">
         <v>4</v>
@@ -26664,7 +26664,7 @@
     </row>
     <row r="357" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
-        <v>1504054</v>
+        <v>44054</v>
       </c>
       <c r="B357" s="3">
         <v>4</v>
@@ -26731,7 +26731,7 @@
     </row>
     <row r="358" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <v>1504055</v>
+        <v>44055</v>
       </c>
       <c r="B358" s="3">
         <v>4</v>
@@ -26802,7 +26802,7 @@
     </row>
     <row r="359" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
-        <v>1504056</v>
+        <v>44056</v>
       </c>
       <c r="B359" s="3">
         <v>4</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="360" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <v>1504057</v>
+        <v>44057</v>
       </c>
       <c r="B360" s="3">
         <v>4</v>
@@ -26936,7 +26936,7 @@
     </row>
     <row r="361" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
-        <v>1504058</v>
+        <v>44058</v>
       </c>
       <c r="B361" s="3">
         <v>4</v>
@@ -27003,7 +27003,7 @@
     </row>
     <row r="362" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <v>1504059</v>
+        <v>44059</v>
       </c>
       <c r="B362" s="3">
         <v>4</v>
@@ -27070,7 +27070,7 @@
     </row>
     <row r="363" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
-        <v>1504060</v>
+        <v>44060</v>
       </c>
       <c r="B363" s="3">
         <v>4</v>
@@ -27141,7 +27141,7 @@
     </row>
     <row r="364" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <v>1504061</v>
+        <v>44061</v>
       </c>
       <c r="B364" s="3">
         <v>4</v>
@@ -27208,7 +27208,7 @@
     </row>
     <row r="365" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
-        <v>1504062</v>
+        <v>44062</v>
       </c>
       <c r="B365" s="3">
         <v>4</v>
@@ -27275,7 +27275,7 @@
     </row>
     <row r="366" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
-        <v>1504063</v>
+        <v>44063</v>
       </c>
       <c r="B366" s="3">
         <v>4</v>
@@ -27342,7 +27342,7 @@
     </row>
     <row r="367" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
-        <v>1504064</v>
+        <v>44064</v>
       </c>
       <c r="B367" s="3">
         <v>4</v>
@@ -27409,7 +27409,7 @@
     </row>
     <row r="368" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
-        <v>1504065</v>
+        <v>44065</v>
       </c>
       <c r="B368" s="3">
         <v>4</v>
@@ -27480,7 +27480,7 @@
     </row>
     <row r="369" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
-        <v>1504066</v>
+        <v>44066</v>
       </c>
       <c r="B369" s="3">
         <v>4</v>
@@ -27547,7 +27547,7 @@
     </row>
     <row r="370" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
-        <v>1504067</v>
+        <v>44067</v>
       </c>
       <c r="B370" s="3">
         <v>4</v>
@@ -27614,7 +27614,7 @@
     </row>
     <row r="371" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
-        <v>1504068</v>
+        <v>44068</v>
       </c>
       <c r="B371" s="3">
         <v>4</v>
@@ -27681,7 +27681,7 @@
     </row>
     <row r="372" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
-        <v>1504069</v>
+        <v>44069</v>
       </c>
       <c r="B372" s="3">
         <v>4</v>
@@ -27748,7 +27748,7 @@
     </row>
     <row r="373" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
-        <v>1504070</v>
+        <v>44070</v>
       </c>
       <c r="B373" s="3">
         <v>4</v>
@@ -27772,13 +27772,13 @@
         <v>360</v>
       </c>
       <c r="I373" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J373" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K373" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L373" s="3" t="s">
         <v>140</v>
@@ -27819,7 +27819,7 @@
     </row>
     <row r="374" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
-        <v>1504071</v>
+        <v>44071</v>
       </c>
       <c r="B374" s="3">
         <v>4</v>
@@ -27843,13 +27843,13 @@
         <v>363</v>
       </c>
       <c r="I374" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J374" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K374" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L374" s="3" t="s">
         <v>140</v>
@@ -27886,7 +27886,7 @@
     </row>
     <row r="375" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
-        <v>1504072</v>
+        <v>44072</v>
       </c>
       <c r="B375" s="3">
         <v>4</v>
@@ -27910,13 +27910,13 @@
         <v>366</v>
       </c>
       <c r="I375" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J375" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K375" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L375" s="3" t="s">
         <v>140</v>
@@ -27953,7 +27953,7 @@
     </row>
     <row r="376" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
-        <v>1504073</v>
+        <v>44073</v>
       </c>
       <c r="B376" s="3">
         <v>4</v>
@@ -27977,13 +27977,13 @@
         <v>369</v>
       </c>
       <c r="I376" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J376" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K376" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L376" s="3" t="s">
         <v>140</v>
@@ -28020,7 +28020,7 @@
     </row>
     <row r="377" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
-        <v>1504074</v>
+        <v>44074</v>
       </c>
       <c r="B377" s="3">
         <v>4</v>
@@ -28044,13 +28044,13 @@
         <v>372</v>
       </c>
       <c r="I377" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J377" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K377" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L377" s="3" t="s">
         <v>140</v>
@@ -28087,7 +28087,7 @@
     </row>
     <row r="378" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
-        <v>1504075</v>
+        <v>44075</v>
       </c>
       <c r="B378" s="3">
         <v>4</v>
@@ -28111,13 +28111,13 @@
         <v>375</v>
       </c>
       <c r="I378" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J378" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K378" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L378" s="3" t="s">
         <v>140</v>
@@ -28158,7 +28158,7 @@
     </row>
     <row r="379" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
-        <v>1504076</v>
+        <v>44076</v>
       </c>
       <c r="B379" s="3">
         <v>4</v>
@@ -28182,13 +28182,13 @@
         <v>378</v>
       </c>
       <c r="I379" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J379" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K379" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L379" s="3" t="s">
         <v>140</v>
@@ -28225,7 +28225,7 @@
     </row>
     <row r="380" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
-        <v>1504077</v>
+        <v>44077</v>
       </c>
       <c r="B380" s="3">
         <v>4</v>
@@ -28249,13 +28249,13 @@
         <v>381</v>
       </c>
       <c r="I380" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J380" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K380" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L380" s="3" t="s">
         <v>140</v>
@@ -28292,7 +28292,7 @@
     </row>
     <row r="381" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
-        <v>1504078</v>
+        <v>44078</v>
       </c>
       <c r="B381" s="3">
         <v>4</v>
@@ -28316,13 +28316,13 @@
         <v>384</v>
       </c>
       <c r="I381" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J381" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K381" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L381" s="3" t="s">
         <v>140</v>
@@ -28359,7 +28359,7 @@
     </row>
     <row r="382" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
-        <v>1504079</v>
+        <v>44079</v>
       </c>
       <c r="B382" s="3">
         <v>4</v>
@@ -28383,13 +28383,13 @@
         <v>387</v>
       </c>
       <c r="I382" s="3">
-        <v>14400</v>
+        <v>11700</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K382" s="3">
-        <v>27000</v>
+        <v>23400</v>
       </c>
       <c r="L382" s="3" t="s">
         <v>140</v>
@@ -28426,7 +28426,7 @@
     </row>
     <row r="383" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
-        <v>1504080</v>
+        <v>44080</v>
       </c>
       <c r="B383" s="3">
         <v>4</v>
@@ -28450,13 +28450,13 @@
         <v>390</v>
       </c>
       <c r="I383" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J383" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K383" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L383" s="3" t="s">
         <v>140</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="384" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
-        <v>1504081</v>
+        <v>44081</v>
       </c>
       <c r="B384" s="3">
         <v>4</v>
@@ -28521,13 +28521,13 @@
         <v>393</v>
       </c>
       <c r="I384" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J384" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K384" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L384" s="3" t="s">
         <v>140</v>
@@ -28564,7 +28564,7 @@
     </row>
     <row r="385" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
-        <v>1504082</v>
+        <v>44082</v>
       </c>
       <c r="B385" s="3">
         <v>4</v>
@@ -28588,13 +28588,13 @@
         <v>396</v>
       </c>
       <c r="I385" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J385" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K385" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L385" s="3" t="s">
         <v>140</v>
@@ -28631,7 +28631,7 @@
     </row>
     <row r="386" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
-        <v>1504083</v>
+        <v>44083</v>
       </c>
       <c r="B386" s="3">
         <v>4</v>
@@ -28655,13 +28655,13 @@
         <v>399</v>
       </c>
       <c r="I386" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K386" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L386" s="3" t="s">
         <v>140</v>
@@ -28698,7 +28698,7 @@
     </row>
     <row r="387" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
-        <v>1504084</v>
+        <v>44084</v>
       </c>
       <c r="B387" s="3">
         <v>4</v>
@@ -28722,13 +28722,13 @@
         <v>402</v>
       </c>
       <c r="I387" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J387" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K387" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L387" s="3" t="s">
         <v>140</v>
@@ -28765,7 +28765,7 @@
     </row>
     <row r="388" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <v>1504085</v>
+        <v>44085</v>
       </c>
       <c r="B388" s="3">
         <v>4</v>
@@ -28789,13 +28789,13 @@
         <v>405</v>
       </c>
       <c r="I388" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J388" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K388" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L388" s="3" t="s">
         <v>140</v>
@@ -28836,7 +28836,7 @@
     </row>
     <row r="389" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
-        <v>1504086</v>
+        <v>44086</v>
       </c>
       <c r="B389" s="3">
         <v>4</v>
@@ -28860,13 +28860,13 @@
         <v>408</v>
       </c>
       <c r="I389" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J389" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K389" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L389" s="3" t="s">
         <v>140</v>
@@ -28903,7 +28903,7 @@
     </row>
     <row r="390" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
-        <v>1504087</v>
+        <v>44087</v>
       </c>
       <c r="B390" s="3">
         <v>4</v>
@@ -28927,13 +28927,13 @@
         <v>411</v>
       </c>
       <c r="I390" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J390" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K390" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L390" s="3" t="s">
         <v>140</v>
@@ -28970,7 +28970,7 @@
     </row>
     <row r="391" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
-        <v>1504088</v>
+        <v>44088</v>
       </c>
       <c r="B391" s="3">
         <v>4</v>
@@ -28994,13 +28994,13 @@
         <v>414</v>
       </c>
       <c r="I391" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J391" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K391" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L391" s="3" t="s">
         <v>140</v>
@@ -29037,7 +29037,7 @@
     </row>
     <row r="392" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
-        <v>1504089</v>
+        <v>44089</v>
       </c>
       <c r="B392" s="3">
         <v>4</v>
@@ -29061,13 +29061,13 @@
         <v>417</v>
       </c>
       <c r="I392" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="J392" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K392" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="L392" s="3" t="s">
         <v>140</v>
@@ -29104,7 +29104,7 @@
     </row>
     <row r="393" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
-        <v>1504090</v>
+        <v>44090</v>
       </c>
       <c r="B393" s="3">
         <v>4</v>
@@ -29128,13 +29128,13 @@
         <v>420</v>
       </c>
       <c r="I393" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J393" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K393" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L393" s="3" t="s">
         <v>140</v>
@@ -29175,7 +29175,7 @@
     </row>
     <row r="394" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
-        <v>1504091</v>
+        <v>44091</v>
       </c>
       <c r="B394" s="3">
         <v>4</v>
@@ -29199,13 +29199,13 @@
         <v>423</v>
       </c>
       <c r="I394" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J394" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K394" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L394" s="3" t="s">
         <v>140</v>
@@ -29242,7 +29242,7 @@
     </row>
     <row r="395" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
-        <v>1504092</v>
+        <v>44092</v>
       </c>
       <c r="B395" s="3">
         <v>4</v>
@@ -29266,13 +29266,13 @@
         <v>426</v>
       </c>
       <c r="I395" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J395" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K395" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L395" s="3" t="s">
         <v>140</v>
@@ -29309,7 +29309,7 @@
     </row>
     <row r="396" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
-        <v>1504093</v>
+        <v>44093</v>
       </c>
       <c r="B396" s="3">
         <v>4</v>
@@ -29333,13 +29333,13 @@
         <v>429</v>
       </c>
       <c r="I396" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K396" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L396" s="3" t="s">
         <v>140</v>
@@ -29376,7 +29376,7 @@
     </row>
     <row r="397" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
-        <v>1504094</v>
+        <v>44094</v>
       </c>
       <c r="B397" s="3">
         <v>4</v>
@@ -29400,13 +29400,13 @@
         <v>432</v>
       </c>
       <c r="I397" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K397" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L397" s="3" t="s">
         <v>140</v>
@@ -29443,7 +29443,7 @@
     </row>
     <row r="398" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
-        <v>1504095</v>
+        <v>44095</v>
       </c>
       <c r="B398" s="3">
         <v>4</v>
@@ -29467,13 +29467,13 @@
         <v>435</v>
       </c>
       <c r="I398" s="3">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K398" s="3">
-        <v>36000</v>
+        <v>31500</v>
       </c>
       <c r="L398" s="3" t="s">
         <v>140</v>
@@ -29514,7 +29514,7 @@
     </row>
     <row r="399" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
-        <v>1504096</v>
+        <v>44096</v>
       </c>
       <c r="B399" s="3">
         <v>4</v>
@@ -29581,7 +29581,7 @@
     </row>
     <row r="400" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
-        <v>1504097</v>
+        <v>44097</v>
       </c>
       <c r="B400" s="3">
         <v>4</v>
@@ -29648,7 +29648,7 @@
     </row>
     <row r="401" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
-        <v>1504098</v>
+        <v>44098</v>
       </c>
       <c r="B401" s="3">
         <v>4</v>
@@ -29715,7 +29715,7 @@
     </row>
     <row r="402" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
-        <v>1504099</v>
+        <v>44099</v>
       </c>
       <c r="B402" s="3">
         <v>4</v>
@@ -29782,7 +29782,7 @@
     </row>
     <row r="403" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
-        <v>1504100</v>
+        <v>44100</v>
       </c>
       <c r="B403" s="3">
         <v>4</v>
@@ -29862,8 +29862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="1426">
   <si>
     <t>sheet名</t>
   </si>
@@ -4481,9 +4481,6 @@
   <si>
     <t>首通值6</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器低级材料</t>
   </si>
 </sst>
 </file>
@@ -5346,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P283" workbookViewId="0">
-      <selection activeCell="R304" sqref="R304:R403"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5821,12 +5818,8 @@
       <c r="V4" s="3">
         <v>5</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X4" s="3">
-        <v>50</v>
-      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="3"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="4"/>
@@ -5909,18 +5902,14 @@
       <c r="V5" s="3">
         <v>5</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>1426</v>
+      <c r="W5" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X5" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -6001,18 +5990,14 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>1426</v>
+      <c r="W6" s="4" t="s">
+        <v>1351</v>
       </c>
       <c r="X6" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -6093,18 +6078,14 @@
       <c r="V7" s="3">
         <v>5</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>1426</v>
+      <c r="W7" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="X7" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -6185,12 +6166,8 @@
       <c r="V8" s="3">
         <v>5</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X8" s="3">
-        <v>50</v>
-      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -6273,12 +6250,8 @@
       <c r="V9" s="3">
         <v>10</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X9" s="3">
-        <v>50</v>
-      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -6361,18 +6334,14 @@
       <c r="V10" s="3">
         <v>10</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>1426</v>
+      <c r="W10" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X10" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -6453,18 +6422,14 @@
       <c r="V11" s="3">
         <v>10</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>1426</v>
+      <c r="W11" s="4" t="s">
+        <v>1351</v>
       </c>
       <c r="X11" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -6545,12 +6510,8 @@
       <c r="V12" s="3">
         <v>10</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X12" s="3">
-        <v>50</v>
-      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -6633,18 +6594,14 @@
       <c r="V13" s="3">
         <v>10</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>1426</v>
+      <c r="W13" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="X13" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -6725,12 +6682,8 @@
       <c r="V14" s="3">
         <v>15</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X14" s="3">
-        <v>50</v>
-      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -6813,12 +6766,8 @@
       <c r="V15" s="3">
         <v>15</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X15" s="3">
-        <v>50</v>
-      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -6901,12 +6850,8 @@
       <c r="V16" s="3">
         <v>15</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X16" s="3">
-        <v>50</v>
-      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -6989,12 +6934,8 @@
       <c r="V17" s="3">
         <v>15</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X17" s="3">
-        <v>50</v>
-      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -7077,18 +7018,14 @@
       <c r="V18" s="3">
         <v>15</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>1426</v>
+      <c r="W18" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X18" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -7169,12 +7106,8 @@
       <c r="V19" s="3">
         <v>20</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X19" s="3">
-        <v>50</v>
-      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -7257,12 +7190,8 @@
       <c r="V20" s="3">
         <v>20</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X20" s="3">
-        <v>50</v>
-      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="3"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -7345,12 +7274,8 @@
       <c r="V21" s="3">
         <v>20</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X21" s="3">
-        <v>50</v>
-      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -7433,12 +7358,8 @@
       <c r="V22" s="3">
         <v>20</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X22" s="3">
-        <v>50</v>
-      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -7521,18 +7442,14 @@
       <c r="V23" s="3">
         <v>20</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>1426</v>
+      <c r="W23" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X23" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -7613,12 +7530,8 @@
       <c r="V24" s="3">
         <v>25</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X24" s="3">
-        <v>50</v>
-      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -7701,12 +7614,8 @@
       <c r="V25" s="3">
         <v>25</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X25" s="3">
-        <v>50</v>
-      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -7789,12 +7698,8 @@
       <c r="V26" s="3">
         <v>25</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X26" s="3">
-        <v>50</v>
-      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -7877,12 +7782,8 @@
       <c r="V27" s="3">
         <v>25</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X27" s="3">
-        <v>50</v>
-      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -7965,18 +7866,14 @@
       <c r="V28" s="3">
         <v>25</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>1426</v>
+      <c r="W28" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X28" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -8057,12 +7954,8 @@
       <c r="V29" s="3">
         <v>30</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X29" s="3">
-        <v>50</v>
-      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
@@ -8145,12 +8038,8 @@
       <c r="V30" s="3">
         <v>30</v>
       </c>
-      <c r="W30" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X30" s="3">
-        <v>50</v>
-      </c>
+      <c r="W30" s="4"/>
+      <c r="X30" s="3"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
@@ -8233,12 +8122,8 @@
       <c r="V31" s="3">
         <v>30</v>
       </c>
-      <c r="W31" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X31" s="3">
-        <v>50</v>
-      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
@@ -8321,12 +8206,8 @@
       <c r="V32" s="3">
         <v>30</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X32" s="3">
-        <v>50</v>
-      </c>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
@@ -8409,18 +8290,14 @@
       <c r="V33" s="3">
         <v>30</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>1426</v>
+      <c r="W33" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X33" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -8501,12 +8378,8 @@
       <c r="V34" s="3">
         <v>35</v>
       </c>
-      <c r="W34" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X34" s="3">
-        <v>50</v>
-      </c>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
@@ -8589,12 +8462,8 @@
       <c r="V35" s="3">
         <v>35</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X35" s="3">
-        <v>50</v>
-      </c>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -8677,12 +8546,8 @@
       <c r="V36" s="3">
         <v>35</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X36" s="3">
-        <v>50</v>
-      </c>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
@@ -8765,12 +8630,8 @@
       <c r="V37" s="3">
         <v>35</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X37" s="3">
-        <v>50</v>
-      </c>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -8853,18 +8714,14 @@
       <c r="V38" s="3">
         <v>35</v>
       </c>
-      <c r="W38" s="3" t="s">
-        <v>1426</v>
+      <c r="W38" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X38" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
@@ -8945,12 +8802,8 @@
       <c r="V39" s="3">
         <v>40</v>
       </c>
-      <c r="W39" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X39" s="3">
-        <v>50</v>
-      </c>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -9033,12 +8886,8 @@
       <c r="V40" s="3">
         <v>40</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X40" s="3">
-        <v>50</v>
-      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="3"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
@@ -9121,12 +8970,8 @@
       <c r="V41" s="3">
         <v>40</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X41" s="3">
-        <v>50</v>
-      </c>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
@@ -9209,12 +9054,8 @@
       <c r="V42" s="3">
         <v>40</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X42" s="3">
-        <v>50</v>
-      </c>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
@@ -9297,18 +9138,14 @@
       <c r="V43" s="3">
         <v>40</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>1426</v>
+      <c r="W43" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X43" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
@@ -9389,12 +9226,8 @@
       <c r="V44" s="3">
         <v>45</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X44" s="3">
-        <v>50</v>
-      </c>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
@@ -9477,12 +9310,8 @@
       <c r="V45" s="3">
         <v>45</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X45" s="3">
-        <v>50</v>
-      </c>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
@@ -9565,12 +9394,8 @@
       <c r="V46" s="3">
         <v>45</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X46" s="3">
-        <v>50</v>
-      </c>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
@@ -9653,12 +9478,8 @@
       <c r="V47" s="3">
         <v>45</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X47" s="3">
-        <v>50</v>
-      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
@@ -9741,18 +9562,14 @@
       <c r="V48" s="3">
         <v>45</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>1426</v>
+      <c r="W48" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X48" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
@@ -9833,12 +9650,8 @@
       <c r="V49" s="3">
         <v>50</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X49" s="3">
-        <v>50</v>
-      </c>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
@@ -9921,12 +9734,8 @@
       <c r="V50" s="3">
         <v>50</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X50" s="3">
-        <v>50</v>
-      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="3"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
@@ -10009,12 +9818,8 @@
       <c r="V51" s="3">
         <v>50</v>
       </c>
-      <c r="W51" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X51" s="3">
-        <v>50</v>
-      </c>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
@@ -10097,12 +9902,8 @@
       <c r="V52" s="3">
         <v>50</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X52" s="3">
-        <v>50</v>
-      </c>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
@@ -10185,18 +9986,14 @@
       <c r="V53" s="3">
         <v>50</v>
       </c>
-      <c r="W53" s="3" t="s">
-        <v>1426</v>
+      <c r="W53" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X53" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
@@ -10277,12 +10074,8 @@
       <c r="V54" s="3">
         <v>55</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X54" s="3">
-        <v>50</v>
-      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
@@ -10365,12 +10158,8 @@
       <c r="V55" s="3">
         <v>55</v>
       </c>
-      <c r="W55" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X55" s="3">
-        <v>50</v>
-      </c>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
@@ -10453,12 +10242,8 @@
       <c r="V56" s="3">
         <v>55</v>
       </c>
-      <c r="W56" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X56" s="3">
-        <v>50</v>
-      </c>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
@@ -10541,12 +10326,8 @@
       <c r="V57" s="3">
         <v>55</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X57" s="3">
-        <v>50</v>
-      </c>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
@@ -10629,18 +10410,14 @@
       <c r="V58" s="3">
         <v>55</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>1426</v>
+      <c r="W58" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X58" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
@@ -10721,12 +10498,8 @@
       <c r="V59" s="3">
         <v>60</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X59" s="3">
-        <v>50</v>
-      </c>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
@@ -10809,12 +10582,8 @@
       <c r="V60" s="3">
         <v>60</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X60" s="3">
-        <v>50</v>
-      </c>
+      <c r="W60" s="4"/>
+      <c r="X60" s="3"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
@@ -10897,12 +10666,8 @@
       <c r="V61" s="3">
         <v>60</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X61" s="3">
-        <v>50</v>
-      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
@@ -10985,12 +10750,8 @@
       <c r="V62" s="3">
         <v>60</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X62" s="3">
-        <v>50</v>
-      </c>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
@@ -11073,18 +10834,14 @@
       <c r="V63" s="3">
         <v>60</v>
       </c>
-      <c r="W63" s="3" t="s">
-        <v>1426</v>
+      <c r="W63" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X63" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y63" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
@@ -11165,12 +10922,8 @@
       <c r="V64" s="3">
         <v>65</v>
       </c>
-      <c r="W64" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X64" s="3">
-        <v>50</v>
-      </c>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -11253,12 +11006,8 @@
       <c r="V65" s="3">
         <v>65</v>
       </c>
-      <c r="W65" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X65" s="3">
-        <v>50</v>
-      </c>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
@@ -11341,12 +11090,8 @@
       <c r="V66" s="3">
         <v>65</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X66" s="3">
-        <v>50</v>
-      </c>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
@@ -11429,12 +11174,8 @@
       <c r="V67" s="3">
         <v>65</v>
       </c>
-      <c r="W67" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X67" s="3">
-        <v>50</v>
-      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
@@ -11517,18 +11258,14 @@
       <c r="V68" s="3">
         <v>65</v>
       </c>
-      <c r="W68" s="3" t="s">
-        <v>1426</v>
+      <c r="W68" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X68" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y68" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z68" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
@@ -11609,12 +11346,8 @@
       <c r="V69" s="3">
         <v>70</v>
       </c>
-      <c r="W69" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X69" s="3">
-        <v>50</v>
-      </c>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
@@ -11697,12 +11430,8 @@
       <c r="V70" s="3">
         <v>70</v>
       </c>
-      <c r="W70" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X70" s="3">
-        <v>50</v>
-      </c>
+      <c r="W70" s="4"/>
+      <c r="X70" s="3"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -11785,12 +11514,8 @@
       <c r="V71" s="3">
         <v>70</v>
       </c>
-      <c r="W71" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X71" s="3">
-        <v>50</v>
-      </c>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
@@ -11873,12 +11598,8 @@
       <c r="V72" s="3">
         <v>70</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X72" s="3">
-        <v>50</v>
-      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
@@ -11961,18 +11682,14 @@
       <c r="V73" s="3">
         <v>70</v>
       </c>
-      <c r="W73" s="3" t="s">
-        <v>1426</v>
+      <c r="W73" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X73" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y73" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z73" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
@@ -12053,12 +11770,8 @@
       <c r="V74" s="3">
         <v>75</v>
       </c>
-      <c r="W74" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X74" s="3">
-        <v>50</v>
-      </c>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
@@ -12141,12 +11854,8 @@
       <c r="V75" s="3">
         <v>75</v>
       </c>
-      <c r="W75" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X75" s="3">
-        <v>50</v>
-      </c>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
@@ -12229,12 +11938,8 @@
       <c r="V76" s="3">
         <v>75</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X76" s="3">
-        <v>50</v>
-      </c>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
@@ -12317,12 +12022,8 @@
       <c r="V77" s="3">
         <v>75</v>
       </c>
-      <c r="W77" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X77" s="3">
-        <v>50</v>
-      </c>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
@@ -12405,18 +12106,14 @@
       <c r="V78" s="3">
         <v>75</v>
       </c>
-      <c r="W78" s="3" t="s">
-        <v>1426</v>
+      <c r="W78" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X78" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y78" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
@@ -12497,12 +12194,8 @@
       <c r="V79" s="3">
         <v>80</v>
       </c>
-      <c r="W79" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X79" s="3">
-        <v>50</v>
-      </c>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
@@ -12585,12 +12278,8 @@
       <c r="V80" s="3">
         <v>80</v>
       </c>
-      <c r="W80" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X80" s="3">
-        <v>50</v>
-      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="3"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
@@ -12673,12 +12362,8 @@
       <c r="V81" s="3">
         <v>80</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X81" s="3">
-        <v>50</v>
-      </c>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
@@ -12761,12 +12446,8 @@
       <c r="V82" s="3">
         <v>80</v>
       </c>
-      <c r="W82" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X82" s="3">
-        <v>50</v>
-      </c>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
@@ -12849,18 +12530,14 @@
       <c r="V83" s="3">
         <v>80</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>1426</v>
+      <c r="W83" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X83" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y83" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
@@ -12941,12 +12618,8 @@
       <c r="V84" s="3">
         <v>85</v>
       </c>
-      <c r="W84" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X84" s="3">
-        <v>50</v>
-      </c>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
@@ -13029,12 +12702,8 @@
       <c r="V85" s="3">
         <v>85</v>
       </c>
-      <c r="W85" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X85" s="3">
-        <v>50</v>
-      </c>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
@@ -13117,12 +12786,8 @@
       <c r="V86" s="3">
         <v>85</v>
       </c>
-      <c r="W86" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X86" s="3">
-        <v>50</v>
-      </c>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
@@ -13205,12 +12870,8 @@
       <c r="V87" s="3">
         <v>85</v>
       </c>
-      <c r="W87" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X87" s="3">
-        <v>50</v>
-      </c>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
@@ -13293,18 +12954,14 @@
       <c r="V88" s="3">
         <v>85</v>
       </c>
-      <c r="W88" s="3" t="s">
-        <v>1426</v>
+      <c r="W88" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X88" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y88" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
@@ -13385,12 +13042,8 @@
       <c r="V89" s="3">
         <v>90</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X89" s="3">
-        <v>50</v>
-      </c>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
@@ -13473,12 +13126,8 @@
       <c r="V90" s="3">
         <v>90</v>
       </c>
-      <c r="W90" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X90" s="3">
-        <v>50</v>
-      </c>
+      <c r="W90" s="4"/>
+      <c r="X90" s="3"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
@@ -13561,12 +13210,8 @@
       <c r="V91" s="3">
         <v>90</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X91" s="3">
-        <v>50</v>
-      </c>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
@@ -13649,12 +13294,8 @@
       <c r="V92" s="3">
         <v>90</v>
       </c>
-      <c r="W92" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X92" s="3">
-        <v>50</v>
-      </c>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
@@ -13737,18 +13378,14 @@
       <c r="V93" s="3">
         <v>90</v>
       </c>
-      <c r="W93" s="3" t="s">
-        <v>1426</v>
+      <c r="W93" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X93" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y93" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
@@ -13829,12 +13466,8 @@
       <c r="V94" s="3">
         <v>95</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X94" s="3">
-        <v>50</v>
-      </c>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
@@ -13917,12 +13550,8 @@
       <c r="V95" s="3">
         <v>95</v>
       </c>
-      <c r="W95" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X95" s="3">
-        <v>50</v>
-      </c>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
@@ -14005,12 +13634,8 @@
       <c r="V96" s="3">
         <v>95</v>
       </c>
-      <c r="W96" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X96" s="3">
-        <v>50</v>
-      </c>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
@@ -14093,12 +13718,8 @@
       <c r="V97" s="3">
         <v>95</v>
       </c>
-      <c r="W97" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X97" s="3">
-        <v>50</v>
-      </c>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
@@ -14181,18 +13802,14 @@
       <c r="V98" s="3">
         <v>95</v>
       </c>
-      <c r="W98" s="3" t="s">
-        <v>1426</v>
+      <c r="W98" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="X98" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y98" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="Z98" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
@@ -14273,12 +13890,8 @@
       <c r="V99" s="3">
         <v>100</v>
       </c>
-      <c r="W99" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X99" s="3">
-        <v>50</v>
-      </c>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
@@ -14361,12 +13974,8 @@
       <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X100" s="3">
-        <v>50</v>
-      </c>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
@@ -14449,12 +14058,8 @@
       <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X101" s="3">
-        <v>50</v>
-      </c>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
@@ -14537,12 +14142,8 @@
       <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X102" s="3">
-        <v>50</v>
-      </c>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
@@ -14625,18 +14226,14 @@
       <c r="V103" s="3">
         <v>100</v>
       </c>
-      <c r="W103" s="3" t="s">
-        <v>1426</v>
+      <c r="W103" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="X103" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y103" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Z103" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
@@ -14719,12 +14316,8 @@
       <c r="V104" s="3">
         <v>10</v>
       </c>
-      <c r="W104" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X104" s="3">
-        <v>50</v>
-      </c>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
@@ -14809,18 +14402,14 @@
       <c r="V105" s="3">
         <v>10</v>
       </c>
-      <c r="W105" s="3" t="s">
-        <v>1426</v>
+      <c r="W105" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="X105" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y105" s="4" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Z105" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
@@ -14903,12 +14492,8 @@
       <c r="V106" s="3">
         <v>10</v>
       </c>
-      <c r="W106" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X106" s="3">
-        <v>50</v>
-      </c>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
@@ -14993,18 +14578,14 @@
       <c r="V107" s="3">
         <v>10</v>
       </c>
-      <c r="W107" s="3" t="s">
-        <v>1426</v>
+      <c r="W107" s="4" t="s">
+        <v>1357</v>
       </c>
       <c r="X107" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y107" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="Z107" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
@@ -15087,12 +14668,8 @@
       <c r="V108" s="3">
         <v>10</v>
       </c>
-      <c r="W108" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X108" s="3">
-        <v>50</v>
-      </c>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
@@ -15177,12 +14754,8 @@
       <c r="V109" s="3">
         <v>15</v>
       </c>
-      <c r="W109" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X109" s="3">
-        <v>50</v>
-      </c>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
@@ -15267,18 +14840,14 @@
       <c r="V110" s="3">
         <v>15</v>
       </c>
-      <c r="W110" s="3" t="s">
-        <v>1426</v>
+      <c r="W110" s="4" t="s">
+        <v>1359</v>
       </c>
       <c r="X110" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y110" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="Z110" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
@@ -15361,12 +14930,8 @@
       <c r="V111" s="3">
         <v>15</v>
       </c>
-      <c r="W111" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X111" s="3">
-        <v>50</v>
-      </c>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
@@ -15451,12 +15016,8 @@
       <c r="V112" s="3">
         <v>15</v>
       </c>
-      <c r="W112" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X112" s="3">
-        <v>50</v>
-      </c>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
@@ -15541,18 +15102,14 @@
       <c r="V113" s="3">
         <v>15</v>
       </c>
-      <c r="W113" s="3" t="s">
-        <v>1426</v>
+      <c r="W113" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="X113" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y113" s="4" t="s">
-        <v>1361</v>
-      </c>
-      <c r="Z113" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
@@ -15635,12 +15192,8 @@
       <c r="V114" s="3">
         <v>20</v>
       </c>
-      <c r="W114" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X114" s="3">
-        <v>50</v>
-      </c>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
@@ -15725,12 +15278,8 @@
       <c r="V115" s="3">
         <v>20</v>
       </c>
-      <c r="W115" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X115" s="3">
-        <v>50</v>
-      </c>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
@@ -15815,12 +15364,8 @@
       <c r="V116" s="3">
         <v>20</v>
       </c>
-      <c r="W116" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X116" s="3">
-        <v>50</v>
-      </c>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
@@ -15905,12 +15450,8 @@
       <c r="V117" s="3">
         <v>20</v>
       </c>
-      <c r="W117" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X117" s="3">
-        <v>50</v>
-      </c>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
@@ -15995,18 +15536,14 @@
       <c r="V118" s="3">
         <v>20</v>
       </c>
-      <c r="W118" s="3" t="s">
-        <v>1426</v>
+      <c r="W118" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="X118" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y118" s="4" t="s">
-        <v>1363</v>
-      </c>
-      <c r="Z118" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
@@ -16089,12 +15626,8 @@
       <c r="V119" s="3">
         <v>25</v>
       </c>
-      <c r="W119" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X119" s="3">
-        <v>50</v>
-      </c>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
@@ -16180,17 +15713,13 @@
         <v>25</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>1426</v>
+        <v>1354</v>
       </c>
       <c r="X120" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y120" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Z120" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
@@ -16273,12 +15802,8 @@
       <c r="V121" s="3">
         <v>25</v>
       </c>
-      <c r="W121" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X121" s="3">
-        <v>50</v>
-      </c>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
@@ -16364,17 +15889,13 @@
         <v>25</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="X122" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y122" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z122" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
@@ -16457,12 +15978,8 @@
       <c r="V123" s="3">
         <v>25</v>
       </c>
-      <c r="W123" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X123" s="3">
-        <v>50</v>
-      </c>
+      <c r="W123" s="4"/>
+      <c r="X123" s="3"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
@@ -16547,12 +16064,8 @@
       <c r="V124" s="3">
         <v>30</v>
       </c>
-      <c r="W124" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X124" s="3">
-        <v>50</v>
-      </c>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
@@ -16638,17 +16151,13 @@
         <v>30</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="X125" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y125" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Z125" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
@@ -16731,12 +16240,8 @@
       <c r="V126" s="3">
         <v>30</v>
       </c>
-      <c r="W126" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X126" s="3">
-        <v>50</v>
-      </c>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
@@ -16821,12 +16326,8 @@
       <c r="V127" s="3">
         <v>30</v>
       </c>
-      <c r="W127" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X127" s="3">
-        <v>50</v>
-      </c>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
@@ -16911,18 +16412,14 @@
       <c r="V128" s="3">
         <v>30</v>
       </c>
-      <c r="W128" s="3" t="s">
-        <v>1426</v>
+      <c r="W128" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="X128" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y128" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Z128" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
@@ -17005,12 +16502,8 @@
       <c r="V129" s="3">
         <v>35</v>
       </c>
-      <c r="W129" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X129" s="3">
-        <v>50</v>
-      </c>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
@@ -17095,12 +16588,8 @@
       <c r="V130" s="3">
         <v>35</v>
       </c>
-      <c r="W130" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X130" s="3">
-        <v>50</v>
-      </c>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
@@ -17185,12 +16674,8 @@
       <c r="V131" s="3">
         <v>35</v>
       </c>
-      <c r="W131" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X131" s="3">
-        <v>50</v>
-      </c>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
@@ -17275,12 +16760,8 @@
       <c r="V132" s="3">
         <v>35</v>
       </c>
-      <c r="W132" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X132" s="3">
-        <v>50</v>
-      </c>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
@@ -17365,18 +16846,14 @@
       <c r="V133" s="3">
         <v>35</v>
       </c>
-      <c r="W133" s="3" t="s">
-        <v>1426</v>
+      <c r="W133" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="X133" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y133" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Z133" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
@@ -17459,12 +16936,8 @@
       <c r="V134" s="3">
         <v>40</v>
       </c>
-      <c r="W134" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X134" s="3">
-        <v>50</v>
-      </c>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
@@ -17550,17 +17023,13 @@
         <v>40</v>
       </c>
       <c r="W135" s="3" t="s">
-        <v>1426</v>
+        <v>1354</v>
       </c>
       <c r="X135" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y135" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Z135" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
@@ -17643,12 +17112,8 @@
       <c r="V136" s="3">
         <v>40</v>
       </c>
-      <c r="W136" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X136" s="3">
-        <v>50</v>
-      </c>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
@@ -17734,17 +17199,13 @@
         <v>40</v>
       </c>
       <c r="W137" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="X137" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y137" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z137" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
@@ -17827,12 +17288,8 @@
       <c r="V138" s="3">
         <v>40</v>
       </c>
-      <c r="W138" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X138" s="3">
-        <v>50</v>
-      </c>
+      <c r="W138" s="4"/>
+      <c r="X138" s="3"/>
       <c r="Y138" s="4"/>
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
@@ -17917,12 +17374,8 @@
       <c r="V139" s="3">
         <v>45</v>
       </c>
-      <c r="W139" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X139" s="3">
-        <v>50</v>
-      </c>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
@@ -18008,17 +17461,13 @@
         <v>45</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="X140" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y140" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Z140" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
@@ -18101,12 +17550,8 @@
       <c r="V141" s="3">
         <v>45</v>
       </c>
-      <c r="W141" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X141" s="3">
-        <v>50</v>
-      </c>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
@@ -18191,12 +17636,8 @@
       <c r="V142" s="3">
         <v>45</v>
       </c>
-      <c r="W142" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X142" s="3">
-        <v>50</v>
-      </c>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
       <c r="AA142" s="3"/>
@@ -18281,18 +17722,14 @@
       <c r="V143" s="3">
         <v>45</v>
       </c>
-      <c r="W143" s="3" t="s">
-        <v>1426</v>
+      <c r="W143" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="X143" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y143" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Z143" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
@@ -18375,12 +17812,8 @@
       <c r="V144" s="3">
         <v>50</v>
       </c>
-      <c r="W144" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X144" s="3">
-        <v>50</v>
-      </c>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
@@ -18465,12 +17898,8 @@
       <c r="V145" s="3">
         <v>50</v>
       </c>
-      <c r="W145" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X145" s="3">
-        <v>50</v>
-      </c>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
@@ -18555,12 +17984,8 @@
       <c r="V146" s="3">
         <v>50</v>
       </c>
-      <c r="W146" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X146" s="3">
-        <v>50</v>
-      </c>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
@@ -18645,12 +18070,8 @@
       <c r="V147" s="3">
         <v>50</v>
       </c>
-      <c r="W147" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X147" s="3">
-        <v>50</v>
-      </c>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
@@ -18735,18 +18156,14 @@
       <c r="V148" s="3">
         <v>50</v>
       </c>
-      <c r="W148" s="3" t="s">
-        <v>1426</v>
+      <c r="W148" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="X148" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y148" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Z148" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
@@ -18829,12 +18246,8 @@
       <c r="V149" s="3">
         <v>55</v>
       </c>
-      <c r="W149" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X149" s="3">
-        <v>50</v>
-      </c>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
@@ -18920,17 +18333,13 @@
         <v>55</v>
       </c>
       <c r="W150" s="3" t="s">
-        <v>1426</v>
+        <v>1354</v>
       </c>
       <c r="X150" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y150" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Z150" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
@@ -19013,12 +18422,8 @@
       <c r="V151" s="3">
         <v>55</v>
       </c>
-      <c r="W151" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X151" s="3">
-        <v>50</v>
-      </c>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
@@ -19104,17 +18509,13 @@
         <v>55</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="X152" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y152" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z152" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
@@ -19197,12 +18598,8 @@
       <c r="V153" s="3">
         <v>55</v>
       </c>
-      <c r="W153" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X153" s="3">
-        <v>50</v>
-      </c>
+      <c r="W153" s="4"/>
+      <c r="X153" s="3"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
@@ -19287,12 +18684,8 @@
       <c r="V154" s="3">
         <v>60</v>
       </c>
-      <c r="W154" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X154" s="3">
-        <v>50</v>
-      </c>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
       <c r="AA154" s="3"/>
@@ -19378,17 +18771,13 @@
         <v>60</v>
       </c>
       <c r="W155" s="3" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="X155" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y155" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Z155" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
@@ -19471,12 +18860,8 @@
       <c r="V156" s="3">
         <v>60</v>
       </c>
-      <c r="W156" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X156" s="3">
-        <v>50</v>
-      </c>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
       <c r="AA156" s="3"/>
@@ -19561,12 +18946,8 @@
       <c r="V157" s="3">
         <v>60</v>
       </c>
-      <c r="W157" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X157" s="3">
-        <v>50</v>
-      </c>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
@@ -19651,18 +19032,14 @@
       <c r="V158" s="3">
         <v>60</v>
       </c>
-      <c r="W158" s="3" t="s">
-        <v>1426</v>
+      <c r="W158" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="X158" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y158" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Z158" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y158" s="4"/>
+      <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
@@ -19745,12 +19122,8 @@
       <c r="V159" s="3">
         <v>65</v>
       </c>
-      <c r="W159" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X159" s="3">
-        <v>50</v>
-      </c>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
@@ -19835,12 +19208,8 @@
       <c r="V160" s="3">
         <v>65</v>
       </c>
-      <c r="W160" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X160" s="3">
-        <v>50</v>
-      </c>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
@@ -19925,12 +19294,8 @@
       <c r="V161" s="3">
         <v>65</v>
       </c>
-      <c r="W161" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X161" s="3">
-        <v>50</v>
-      </c>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
@@ -20015,12 +19380,8 @@
       <c r="V162" s="3">
         <v>65</v>
       </c>
-      <c r="W162" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X162" s="3">
-        <v>50</v>
-      </c>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
@@ -20105,18 +19466,14 @@
       <c r="V163" s="3">
         <v>65</v>
       </c>
-      <c r="W163" s="3" t="s">
-        <v>1426</v>
+      <c r="W163" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="X163" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y163" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Z163" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
@@ -20199,12 +19556,8 @@
       <c r="V164" s="3">
         <v>70</v>
       </c>
-      <c r="W164" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X164" s="3">
-        <v>50</v>
-      </c>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
@@ -20290,17 +19643,13 @@
         <v>70</v>
       </c>
       <c r="W165" s="3" t="s">
-        <v>1426</v>
+        <v>1354</v>
       </c>
       <c r="X165" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y165" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Z165" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
@@ -20383,12 +19732,8 @@
       <c r="V166" s="3">
         <v>70</v>
       </c>
-      <c r="W166" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X166" s="3">
-        <v>50</v>
-      </c>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
@@ -20474,17 +19819,13 @@
         <v>70</v>
       </c>
       <c r="W167" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="X167" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y167" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z167" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
@@ -20567,12 +19908,8 @@
       <c r="V168" s="3">
         <v>70</v>
       </c>
-      <c r="W168" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X168" s="3">
-        <v>50</v>
-      </c>
+      <c r="W168" s="4"/>
+      <c r="X168" s="3"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
@@ -20657,12 +19994,8 @@
       <c r="V169" s="3">
         <v>75</v>
       </c>
-      <c r="W169" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X169" s="3">
-        <v>50</v>
-      </c>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
@@ -20748,17 +20081,13 @@
         <v>75</v>
       </c>
       <c r="W170" s="3" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="X170" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y170" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Z170" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
@@ -20841,12 +20170,8 @@
       <c r="V171" s="3">
         <v>75</v>
       </c>
-      <c r="W171" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X171" s="3">
-        <v>50</v>
-      </c>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
@@ -20931,12 +20256,8 @@
       <c r="V172" s="3">
         <v>75</v>
       </c>
-      <c r="W172" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X172" s="3">
-        <v>50</v>
-      </c>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
@@ -21021,18 +20342,14 @@
       <c r="V173" s="3">
         <v>75</v>
       </c>
-      <c r="W173" s="3" t="s">
-        <v>1426</v>
+      <c r="W173" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="X173" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y173" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Z173" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
@@ -21115,12 +20432,8 @@
       <c r="V174" s="3">
         <v>80</v>
       </c>
-      <c r="W174" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X174" s="3">
-        <v>50</v>
-      </c>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
@@ -21205,12 +20518,8 @@
       <c r="V175" s="3">
         <v>80</v>
       </c>
-      <c r="W175" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X175" s="3">
-        <v>50</v>
-      </c>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
@@ -21295,12 +20604,8 @@
       <c r="V176" s="3">
         <v>80</v>
       </c>
-      <c r="W176" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X176" s="3">
-        <v>50</v>
-      </c>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
       <c r="AA176" s="3"/>
@@ -21385,12 +20690,8 @@
       <c r="V177" s="3">
         <v>80</v>
       </c>
-      <c r="W177" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X177" s="3">
-        <v>50</v>
-      </c>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
@@ -21475,18 +20776,14 @@
       <c r="V178" s="3">
         <v>80</v>
       </c>
-      <c r="W178" s="3" t="s">
-        <v>1426</v>
+      <c r="W178" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="X178" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y178" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Z178" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y178" s="4"/>
+      <c r="Z178" s="3"/>
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
@@ -21569,12 +20866,8 @@
       <c r="V179" s="3">
         <v>85</v>
       </c>
-      <c r="W179" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X179" s="3">
-        <v>50</v>
-      </c>
+      <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
@@ -21660,17 +20953,13 @@
         <v>85</v>
       </c>
       <c r="W180" s="3" t="s">
-        <v>1426</v>
+        <v>1354</v>
       </c>
       <c r="X180" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y180" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Z180" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
@@ -21753,12 +21042,8 @@
       <c r="V181" s="3">
         <v>85</v>
       </c>
-      <c r="W181" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X181" s="3">
-        <v>50</v>
-      </c>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
@@ -21844,17 +21129,13 @@
         <v>85</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="X182" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y182" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z182" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
@@ -21937,12 +21218,8 @@
       <c r="V183" s="3">
         <v>85</v>
       </c>
-      <c r="W183" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X183" s="3">
-        <v>50</v>
-      </c>
+      <c r="W183" s="4"/>
+      <c r="X183" s="3"/>
       <c r="Y183" s="4"/>
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
@@ -22027,12 +21304,8 @@
       <c r="V184" s="3">
         <v>90</v>
       </c>
-      <c r="W184" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X184" s="3">
-        <v>50</v>
-      </c>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
       <c r="AA184" s="3"/>
@@ -22118,17 +21391,13 @@
         <v>90</v>
       </c>
       <c r="W185" s="3" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="X185" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y185" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="Z185" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
@@ -22211,12 +21480,8 @@
       <c r="V186" s="3">
         <v>90</v>
       </c>
-      <c r="W186" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X186" s="3">
-        <v>50</v>
-      </c>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
       <c r="AA186" s="3"/>
@@ -22301,12 +21566,8 @@
       <c r="V187" s="3">
         <v>90</v>
       </c>
-      <c r="W187" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X187" s="3">
-        <v>50</v>
-      </c>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
@@ -22391,18 +21652,14 @@
       <c r="V188" s="3">
         <v>90</v>
       </c>
-      <c r="W188" s="3" t="s">
-        <v>1426</v>
+      <c r="W188" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="X188" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y188" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Z188" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y188" s="4"/>
+      <c r="Z188" s="3"/>
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
@@ -22485,12 +21742,8 @@
       <c r="V189" s="3">
         <v>95</v>
       </c>
-      <c r="W189" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X189" s="3">
-        <v>50</v>
-      </c>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
@@ -22575,12 +21828,8 @@
       <c r="V190" s="3">
         <v>95</v>
       </c>
-      <c r="W190" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X190" s="3">
-        <v>50</v>
-      </c>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
       <c r="AA190" s="3"/>
@@ -22665,12 +21914,8 @@
       <c r="V191" s="3">
         <v>95</v>
       </c>
-      <c r="W191" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X191" s="3">
-        <v>50</v>
-      </c>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
@@ -22755,12 +22000,8 @@
       <c r="V192" s="3">
         <v>95</v>
       </c>
-      <c r="W192" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X192" s="3">
-        <v>50</v>
-      </c>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
       <c r="AA192" s="3"/>
@@ -22845,18 +22086,14 @@
       <c r="V193" s="3">
         <v>95</v>
       </c>
-      <c r="W193" s="3" t="s">
-        <v>1426</v>
+      <c r="W193" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="X193" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y193" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="Z193" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y193" s="4"/>
+      <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
@@ -22939,12 +22176,8 @@
       <c r="V194" s="3">
         <v>100</v>
       </c>
-      <c r="W194" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X194" s="3">
-        <v>50</v>
-      </c>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
       <c r="AA194" s="3"/>
@@ -23029,12 +22262,8 @@
       <c r="V195" s="3">
         <v>100</v>
       </c>
-      <c r="W195" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X195" s="3">
-        <v>50</v>
-      </c>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
@@ -23119,12 +22348,8 @@
       <c r="V196" s="3">
         <v>100</v>
       </c>
-      <c r="W196" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X196" s="3">
-        <v>50</v>
-      </c>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
       <c r="AA196" s="3"/>
@@ -23209,12 +22434,8 @@
       <c r="V197" s="3">
         <v>100</v>
       </c>
-      <c r="W197" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X197" s="3">
-        <v>50</v>
-      </c>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
       <c r="AA197" s="3"/>
@@ -23299,18 +22520,14 @@
       <c r="V198" s="3">
         <v>100</v>
       </c>
-      <c r="W198" s="3" t="s">
-        <v>1426</v>
+      <c r="W198" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="X198" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y198" s="4" t="s">
-        <v>1364</v>
-      </c>
-      <c r="Z198" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y198" s="4"/>
+      <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
@@ -23393,12 +22610,8 @@
       <c r="V199" s="3">
         <v>105</v>
       </c>
-      <c r="W199" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X199" s="3">
-        <v>50</v>
-      </c>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
@@ -23483,18 +22696,14 @@
       <c r="V200" s="3">
         <v>105</v>
       </c>
-      <c r="W200" s="3" t="s">
-        <v>1426</v>
+      <c r="W200" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="X200" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y200" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Z200" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y200" s="4"/>
+      <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
@@ -23577,12 +22786,8 @@
       <c r="V201" s="3">
         <v>105</v>
       </c>
-      <c r="W201" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X201" s="3">
-        <v>50</v>
-      </c>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
@@ -23667,12 +22872,8 @@
       <c r="V202" s="3">
         <v>105</v>
       </c>
-      <c r="W202" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X202" s="3">
-        <v>50</v>
-      </c>
+      <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
@@ -23757,18 +22958,14 @@
       <c r="V203" s="3">
         <v>105</v>
       </c>
-      <c r="W203" s="3" t="s">
-        <v>1426</v>
+      <c r="W203" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="X203" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y203" s="4" t="s">
-        <v>1363</v>
-      </c>
-      <c r="Z203" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
@@ -23851,12 +23048,8 @@
       <c r="V204" s="3">
         <v>15</v>
       </c>
-      <c r="W204" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X204" s="3">
-        <v>50</v>
-      </c>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
       <c r="AA204" s="3"/>
@@ -23941,18 +23134,14 @@
       <c r="V205" s="3">
         <v>15</v>
       </c>
-      <c r="W205" s="3" t="s">
-        <v>1426</v>
+      <c r="W205" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X205" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y205" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z205" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
@@ -24035,12 +23224,8 @@
       <c r="V206" s="3">
         <v>15</v>
       </c>
-      <c r="W206" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X206" s="3">
-        <v>50</v>
-      </c>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
       <c r="AA206" s="3"/>
@@ -24125,18 +23310,14 @@
       <c r="V207" s="3">
         <v>15</v>
       </c>
-      <c r="W207" s="3" t="s">
-        <v>1426</v>
+      <c r="W207" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X207" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y207" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z207" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y207" s="4"/>
+      <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
@@ -24219,12 +23400,8 @@
       <c r="V208" s="3">
         <v>15</v>
       </c>
-      <c r="W208" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X208" s="3">
-        <v>50</v>
-      </c>
+      <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
       <c r="AA208" s="3"/>
@@ -24309,12 +23486,8 @@
       <c r="V209" s="3">
         <v>20</v>
       </c>
-      <c r="W209" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X209" s="3">
-        <v>50</v>
-      </c>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
@@ -24399,18 +23572,14 @@
       <c r="V210" s="3">
         <v>20</v>
       </c>
-      <c r="W210" s="3" t="s">
-        <v>1426</v>
+      <c r="W210" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X210" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y210" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z210" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y210" s="4"/>
+      <c r="Z210" s="3"/>
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
@@ -24493,12 +23662,8 @@
       <c r="V211" s="3">
         <v>20</v>
       </c>
-      <c r="W211" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X211" s="3">
-        <v>50</v>
-      </c>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
@@ -24583,12 +23748,8 @@
       <c r="V212" s="3">
         <v>20</v>
       </c>
-      <c r="W212" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X212" s="3">
-        <v>50</v>
-      </c>
+      <c r="W212" s="3"/>
+      <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
       <c r="AA212" s="3"/>
@@ -24673,18 +23834,14 @@
       <c r="V213" s="3">
         <v>20</v>
       </c>
-      <c r="W213" s="3" t="s">
-        <v>1426</v>
+      <c r="W213" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X213" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y213" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z213" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
@@ -24767,12 +23924,8 @@
       <c r="V214" s="3">
         <v>25</v>
       </c>
-      <c r="W214" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X214" s="3">
-        <v>50</v>
-      </c>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
@@ -24857,12 +24010,8 @@
       <c r="V215" s="3">
         <v>25</v>
       </c>
-      <c r="W215" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X215" s="3">
-        <v>50</v>
-      </c>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
@@ -24947,12 +24096,8 @@
       <c r="V216" s="3">
         <v>25</v>
       </c>
-      <c r="W216" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X216" s="3">
-        <v>50</v>
-      </c>
+      <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
       <c r="AA216" s="3"/>
@@ -25037,12 +24182,8 @@
       <c r="V217" s="3">
         <v>25</v>
       </c>
-      <c r="W217" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X217" s="3">
-        <v>50</v>
-      </c>
+      <c r="W217" s="3"/>
+      <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
@@ -25127,18 +24268,14 @@
       <c r="V218" s="3">
         <v>25</v>
       </c>
-      <c r="W218" s="3" t="s">
-        <v>1426</v>
+      <c r="W218" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X218" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y218" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z218" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="3"/>
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
@@ -25221,12 +24358,8 @@
       <c r="V219" s="3">
         <v>30</v>
       </c>
-      <c r="W219" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X219" s="3">
-        <v>50</v>
-      </c>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
@@ -25311,18 +24444,14 @@
       <c r="V220" s="3">
         <v>30</v>
       </c>
-      <c r="W220" s="3" t="s">
-        <v>1426</v>
+      <c r="W220" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X220" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y220" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z220" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y220" s="4"/>
+      <c r="Z220" s="3"/>
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
@@ -25405,12 +24534,8 @@
       <c r="V221" s="3">
         <v>30</v>
       </c>
-      <c r="W221" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X221" s="3">
-        <v>50</v>
-      </c>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
@@ -25495,18 +24620,14 @@
       <c r="V222" s="3">
         <v>30</v>
       </c>
-      <c r="W222" s="3" t="s">
-        <v>1426</v>
+      <c r="W222" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X222" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y222" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z222" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y222" s="4"/>
+      <c r="Z222" s="3"/>
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
@@ -25589,12 +24710,8 @@
       <c r="V223" s="3">
         <v>30</v>
       </c>
-      <c r="W223" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X223" s="3">
-        <v>50</v>
-      </c>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
@@ -25679,12 +24796,8 @@
       <c r="V224" s="3">
         <v>35</v>
       </c>
-      <c r="W224" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X224" s="3">
-        <v>50</v>
-      </c>
+      <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
       <c r="AA224" s="3"/>
@@ -25769,18 +24882,14 @@
       <c r="V225" s="3">
         <v>35</v>
       </c>
-      <c r="W225" s="3" t="s">
-        <v>1426</v>
+      <c r="W225" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X225" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y225" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z225" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y225" s="4"/>
+      <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
@@ -25863,12 +24972,8 @@
       <c r="V226" s="3">
         <v>35</v>
       </c>
-      <c r="W226" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X226" s="3">
-        <v>50</v>
-      </c>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
       <c r="AA226" s="3"/>
@@ -25953,12 +25058,8 @@
       <c r="V227" s="3">
         <v>35</v>
       </c>
-      <c r="W227" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X227" s="3">
-        <v>50</v>
-      </c>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
@@ -26043,18 +25144,14 @@
       <c r="V228" s="3">
         <v>35</v>
       </c>
-      <c r="W228" s="3" t="s">
-        <v>1426</v>
+      <c r="W228" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X228" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y228" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z228" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y228" s="4"/>
+      <c r="Z228" s="3"/>
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
@@ -26137,12 +25234,8 @@
       <c r="V229" s="3">
         <v>40</v>
       </c>
-      <c r="W229" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X229" s="3">
-        <v>50</v>
-      </c>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
@@ -26227,12 +25320,8 @@
       <c r="V230" s="3">
         <v>40</v>
       </c>
-      <c r="W230" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X230" s="3">
-        <v>50</v>
-      </c>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
       <c r="AA230" s="3"/>
@@ -26317,12 +25406,8 @@
       <c r="V231" s="3">
         <v>40</v>
       </c>
-      <c r="W231" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X231" s="3">
-        <v>50</v>
-      </c>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
       <c r="AA231" s="3"/>
@@ -26407,12 +25492,8 @@
       <c r="V232" s="3">
         <v>40</v>
       </c>
-      <c r="W232" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X232" s="3">
-        <v>50</v>
-      </c>
+      <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
       <c r="AA232" s="3"/>
@@ -26497,18 +25578,14 @@
       <c r="V233" s="3">
         <v>40</v>
       </c>
-      <c r="W233" s="3" t="s">
-        <v>1426</v>
+      <c r="W233" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X233" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y233" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z233" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y233" s="4"/>
+      <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
@@ -26591,12 +25668,8 @@
       <c r="V234" s="3">
         <v>45</v>
       </c>
-      <c r="W234" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X234" s="3">
-        <v>50</v>
-      </c>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
       <c r="AA234" s="3"/>
@@ -26681,18 +25754,14 @@
       <c r="V235" s="3">
         <v>45</v>
       </c>
-      <c r="W235" s="3" t="s">
-        <v>1426</v>
+      <c r="W235" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X235" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y235" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z235" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y235" s="4"/>
+      <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
@@ -26775,12 +25844,8 @@
       <c r="V236" s="3">
         <v>45</v>
       </c>
-      <c r="W236" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X236" s="3">
-        <v>50</v>
-      </c>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
       <c r="AA236" s="3"/>
@@ -26865,18 +25930,14 @@
       <c r="V237" s="3">
         <v>45</v>
       </c>
-      <c r="W237" s="3" t="s">
-        <v>1426</v>
+      <c r="W237" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X237" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y237" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z237" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y237" s="4"/>
+      <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
@@ -26959,12 +26020,8 @@
       <c r="V238" s="3">
         <v>45</v>
       </c>
-      <c r="W238" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X238" s="3">
-        <v>50</v>
-      </c>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
       <c r="AA238" s="3"/>
@@ -27049,12 +26106,8 @@
       <c r="V239" s="3">
         <v>50</v>
       </c>
-      <c r="W239" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X239" s="3">
-        <v>50</v>
-      </c>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
@@ -27139,18 +26192,14 @@
       <c r="V240" s="3">
         <v>50</v>
       </c>
-      <c r="W240" s="3" t="s">
-        <v>1426</v>
+      <c r="W240" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X240" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y240" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z240" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y240" s="4"/>
+      <c r="Z240" s="3"/>
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
@@ -27233,12 +26282,8 @@
       <c r="V241" s="3">
         <v>50</v>
       </c>
-      <c r="W241" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X241" s="3">
-        <v>50</v>
-      </c>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
@@ -27323,12 +26368,8 @@
       <c r="V242" s="3">
         <v>50</v>
       </c>
-      <c r="W242" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X242" s="3">
-        <v>50</v>
-      </c>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
       <c r="AA242" s="3"/>
@@ -27413,18 +26454,14 @@
       <c r="V243" s="3">
         <v>50</v>
       </c>
-      <c r="W243" s="3" t="s">
-        <v>1426</v>
+      <c r="W243" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X243" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y243" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z243" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y243" s="4"/>
+      <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
@@ -27507,12 +26544,8 @@
       <c r="V244" s="3">
         <v>55</v>
       </c>
-      <c r="W244" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X244" s="3">
-        <v>50</v>
-      </c>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
       <c r="AA244" s="3"/>
@@ -27597,12 +26630,8 @@
       <c r="V245" s="3">
         <v>55</v>
       </c>
-      <c r="W245" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X245" s="3">
-        <v>50</v>
-      </c>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
@@ -27687,12 +26716,8 @@
       <c r="V246" s="3">
         <v>55</v>
       </c>
-      <c r="W246" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X246" s="3">
-        <v>50</v>
-      </c>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
       <c r="AA246" s="3"/>
@@ -27777,12 +26802,8 @@
       <c r="V247" s="3">
         <v>55</v>
       </c>
-      <c r="W247" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X247" s="3">
-        <v>50</v>
-      </c>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
@@ -27867,18 +26888,14 @@
       <c r="V248" s="3">
         <v>55</v>
       </c>
-      <c r="W248" s="3" t="s">
-        <v>1426</v>
+      <c r="W248" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X248" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y248" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z248" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y248" s="4"/>
+      <c r="Z248" s="3"/>
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
@@ -27961,12 +26978,8 @@
       <c r="V249" s="3">
         <v>60</v>
       </c>
-      <c r="W249" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X249" s="3">
-        <v>50</v>
-      </c>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
@@ -28051,18 +27064,14 @@
       <c r="V250" s="3">
         <v>60</v>
       </c>
-      <c r="W250" s="3" t="s">
-        <v>1426</v>
+      <c r="W250" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X250" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y250" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z250" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y250" s="4"/>
+      <c r="Z250" s="3"/>
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
@@ -28145,12 +27154,8 @@
       <c r="V251" s="3">
         <v>60</v>
       </c>
-      <c r="W251" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X251" s="3">
-        <v>50</v>
-      </c>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
@@ -28235,18 +27240,14 @@
       <c r="V252" s="3">
         <v>60</v>
       </c>
-      <c r="W252" s="3" t="s">
-        <v>1426</v>
+      <c r="W252" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X252" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y252" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z252" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y252" s="4"/>
+      <c r="Z252" s="3"/>
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
@@ -28329,12 +27330,8 @@
       <c r="V253" s="3">
         <v>60</v>
       </c>
-      <c r="W253" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X253" s="3">
-        <v>50</v>
-      </c>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
@@ -28419,12 +27416,8 @@
       <c r="V254" s="3">
         <v>65</v>
       </c>
-      <c r="W254" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X254" s="3">
-        <v>50</v>
-      </c>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
       <c r="AA254" s="3"/>
@@ -28509,18 +27502,14 @@
       <c r="V255" s="3">
         <v>65</v>
       </c>
-      <c r="W255" s="3" t="s">
-        <v>1426</v>
+      <c r="W255" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X255" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y255" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z255" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y255" s="4"/>
+      <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
@@ -28603,12 +27592,8 @@
       <c r="V256" s="3">
         <v>65</v>
       </c>
-      <c r="W256" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X256" s="3">
-        <v>50</v>
-      </c>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
       <c r="AA256" s="3"/>
@@ -28693,12 +27678,8 @@
       <c r="V257" s="3">
         <v>65</v>
       </c>
-      <c r="W257" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X257" s="3">
-        <v>50</v>
-      </c>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
@@ -28783,18 +27764,14 @@
       <c r="V258" s="3">
         <v>65</v>
       </c>
-      <c r="W258" s="3" t="s">
-        <v>1426</v>
+      <c r="W258" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X258" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y258" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z258" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y258" s="4"/>
+      <c r="Z258" s="3"/>
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
@@ -28877,12 +27854,8 @@
       <c r="V259" s="3">
         <v>70</v>
       </c>
-      <c r="W259" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X259" s="3">
-        <v>50</v>
-      </c>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
@@ -28967,12 +27940,8 @@
       <c r="V260" s="3">
         <v>70</v>
       </c>
-      <c r="W260" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X260" s="3">
-        <v>50</v>
-      </c>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
       <c r="AA260" s="3"/>
@@ -29057,12 +28026,8 @@
       <c r="V261" s="3">
         <v>70</v>
       </c>
-      <c r="W261" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X261" s="3">
-        <v>50</v>
-      </c>
+      <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
@@ -29147,12 +28112,8 @@
       <c r="V262" s="3">
         <v>70</v>
       </c>
-      <c r="W262" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X262" s="3">
-        <v>50</v>
-      </c>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
       <c r="AA262" s="3"/>
@@ -29237,18 +28198,14 @@
       <c r="V263" s="3">
         <v>70</v>
       </c>
-      <c r="W263" s="3" t="s">
-        <v>1426</v>
+      <c r="W263" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X263" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y263" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z263" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
@@ -29331,12 +28288,8 @@
       <c r="V264" s="3">
         <v>75</v>
       </c>
-      <c r="W264" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X264" s="3">
-        <v>50</v>
-      </c>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
       <c r="AA264" s="3"/>
@@ -29421,18 +28374,14 @@
       <c r="V265" s="3">
         <v>75</v>
       </c>
-      <c r="W265" s="3" t="s">
-        <v>1426</v>
+      <c r="W265" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X265" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y265" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z265" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y265" s="4"/>
+      <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
@@ -29515,12 +28464,8 @@
       <c r="V266" s="3">
         <v>75</v>
       </c>
-      <c r="W266" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X266" s="3">
-        <v>50</v>
-      </c>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
       <c r="AA266" s="3"/>
@@ -29605,18 +28550,14 @@
       <c r="V267" s="3">
         <v>75</v>
       </c>
-      <c r="W267" s="3" t="s">
-        <v>1426</v>
+      <c r="W267" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X267" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y267" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z267" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y267" s="4"/>
+      <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
@@ -29699,12 +28640,8 @@
       <c r="V268" s="3">
         <v>75</v>
       </c>
-      <c r="W268" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X268" s="3">
-        <v>50</v>
-      </c>
+      <c r="W268" s="3"/>
+      <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
       <c r="AA268" s="3"/>
@@ -29789,12 +28726,8 @@
       <c r="V269" s="3">
         <v>80</v>
       </c>
-      <c r="W269" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X269" s="3">
-        <v>50</v>
-      </c>
+      <c r="W269" s="3"/>
+      <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
@@ -29879,18 +28812,14 @@
       <c r="V270" s="3">
         <v>80</v>
       </c>
-      <c r="W270" s="3" t="s">
-        <v>1426</v>
+      <c r="W270" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X270" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y270" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z270" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y270" s="4"/>
+      <c r="Z270" s="3"/>
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
@@ -29973,12 +28902,8 @@
       <c r="V271" s="3">
         <v>80</v>
       </c>
-      <c r="W271" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X271" s="3">
-        <v>50</v>
-      </c>
+      <c r="W271" s="3"/>
+      <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
@@ -30063,12 +28988,8 @@
       <c r="V272" s="3">
         <v>80</v>
       </c>
-      <c r="W272" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X272" s="3">
-        <v>50</v>
-      </c>
+      <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
       <c r="AA272" s="3"/>
@@ -30153,18 +29074,14 @@
       <c r="V273" s="3">
         <v>80</v>
       </c>
-      <c r="W273" s="3" t="s">
-        <v>1426</v>
+      <c r="W273" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X273" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y273" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z273" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y273" s="4"/>
+      <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
@@ -30247,12 +29164,8 @@
       <c r="V274" s="3">
         <v>85</v>
       </c>
-      <c r="W274" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X274" s="3">
-        <v>50</v>
-      </c>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
       <c r="AA274" s="3"/>
@@ -30337,12 +29250,8 @@
       <c r="V275" s="3">
         <v>85</v>
       </c>
-      <c r="W275" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X275" s="3">
-        <v>50</v>
-      </c>
+      <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
@@ -30427,12 +29336,8 @@
       <c r="V276" s="3">
         <v>85</v>
       </c>
-      <c r="W276" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X276" s="3">
-        <v>50</v>
-      </c>
+      <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
       <c r="AA276" s="3"/>
@@ -30517,12 +29422,8 @@
       <c r="V277" s="3">
         <v>85</v>
       </c>
-      <c r="W277" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X277" s="3">
-        <v>50</v>
-      </c>
+      <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
@@ -30607,18 +29508,14 @@
       <c r="V278" s="3">
         <v>85</v>
       </c>
-      <c r="W278" s="3" t="s">
-        <v>1426</v>
+      <c r="W278" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X278" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y278" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z278" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y278" s="4"/>
+      <c r="Z278" s="3"/>
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
@@ -30701,12 +29598,8 @@
       <c r="V279" s="3">
         <v>90</v>
       </c>
-      <c r="W279" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X279" s="3">
-        <v>50</v>
-      </c>
+      <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
@@ -30791,18 +29684,14 @@
       <c r="V280" s="3">
         <v>90</v>
       </c>
-      <c r="W280" s="3" t="s">
-        <v>1426</v>
+      <c r="W280" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="X280" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y280" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Z280" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y280" s="4"/>
+      <c r="Z280" s="3"/>
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
@@ -30885,12 +29774,8 @@
       <c r="V281" s="3">
         <v>90</v>
       </c>
-      <c r="W281" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X281" s="3">
-        <v>50</v>
-      </c>
+      <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
@@ -30975,18 +29860,14 @@
       <c r="V282" s="3">
         <v>90</v>
       </c>
-      <c r="W282" s="3" t="s">
-        <v>1426</v>
+      <c r="W282" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="X282" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y282" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Z282" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y282" s="4"/>
+      <c r="Z282" s="3"/>
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
@@ -31069,12 +29950,8 @@
       <c r="V283" s="3">
         <v>90</v>
       </c>
-      <c r="W283" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X283" s="3">
-        <v>50</v>
-      </c>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
@@ -31159,12 +30036,8 @@
       <c r="V284" s="3">
         <v>95</v>
       </c>
-      <c r="W284" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X284" s="3">
-        <v>50</v>
-      </c>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
       <c r="AA284" s="3"/>
@@ -31249,18 +30122,14 @@
       <c r="V285" s="3">
         <v>95</v>
       </c>
-      <c r="W285" s="3" t="s">
-        <v>1426</v>
+      <c r="W285" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="X285" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y285" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z285" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y285" s="4"/>
+      <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
@@ -31343,12 +30212,8 @@
       <c r="V286" s="3">
         <v>95</v>
       </c>
-      <c r="W286" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X286" s="3">
-        <v>50</v>
-      </c>
+      <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
       <c r="AA286" s="3"/>
@@ -31433,12 +30298,8 @@
       <c r="V287" s="3">
         <v>95</v>
       </c>
-      <c r="W287" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X287" s="3">
-        <v>50</v>
-      </c>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
@@ -31523,18 +30384,14 @@
       <c r="V288" s="3">
         <v>95</v>
       </c>
-      <c r="W288" s="3" t="s">
-        <v>1426</v>
+      <c r="W288" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="X288" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y288" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Z288" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y288" s="4"/>
+      <c r="Z288" s="3"/>
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
@@ -31617,12 +30474,8 @@
       <c r="V289" s="3">
         <v>100</v>
       </c>
-      <c r="W289" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X289" s="3">
-        <v>50</v>
-      </c>
+      <c r="W289" s="3"/>
+      <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
@@ -31707,12 +30560,8 @@
       <c r="V290" s="3">
         <v>100</v>
       </c>
-      <c r="W290" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X290" s="3">
-        <v>50</v>
-      </c>
+      <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
       <c r="AA290" s="3"/>
@@ -31797,12 +30646,8 @@
       <c r="V291" s="3">
         <v>100</v>
       </c>
-      <c r="W291" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X291" s="3">
-        <v>50</v>
-      </c>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
@@ -31887,12 +30732,8 @@
       <c r="V292" s="3">
         <v>100</v>
       </c>
-      <c r="W292" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X292" s="3">
-        <v>50</v>
-      </c>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
       <c r="AA292" s="3"/>
@@ -31977,18 +30818,14 @@
       <c r="V293" s="3">
         <v>100</v>
       </c>
-      <c r="W293" s="3" t="s">
-        <v>1426</v>
+      <c r="W293" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="X293" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y293" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Z293" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y293" s="4"/>
+      <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
@@ -32071,12 +30908,8 @@
       <c r="V294" s="3">
         <v>105</v>
       </c>
-      <c r="W294" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X294" s="3">
-        <v>50</v>
-      </c>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
       <c r="AA294" s="3"/>
@@ -32161,18 +30994,14 @@
       <c r="V295" s="3">
         <v>105</v>
       </c>
-      <c r="W295" s="3" t="s">
-        <v>1426</v>
+      <c r="W295" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="X295" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y295" s="4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Z295" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y295" s="4"/>
+      <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
@@ -32255,12 +31084,8 @@
       <c r="V296" s="3">
         <v>105</v>
       </c>
-      <c r="W296" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X296" s="3">
-        <v>50</v>
-      </c>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
       <c r="AA296" s="3"/>
@@ -32345,18 +31170,14 @@
       <c r="V297" s="3">
         <v>105</v>
       </c>
-      <c r="W297" s="3" t="s">
-        <v>1426</v>
+      <c r="W297" s="4" t="s">
+        <v>1374</v>
       </c>
       <c r="X297" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y297" s="4" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Z297" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y297" s="4"/>
+      <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
@@ -32439,12 +31260,8 @@
       <c r="V298" s="3">
         <v>105</v>
       </c>
-      <c r="W298" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X298" s="3">
-        <v>50</v>
-      </c>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
       <c r="AA298" s="3"/>
@@ -32529,12 +31346,8 @@
       <c r="V299" s="3">
         <v>110</v>
       </c>
-      <c r="W299" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X299" s="3">
-        <v>50</v>
-      </c>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
       <c r="AA299" s="3"/>
@@ -32619,18 +31432,14 @@
       <c r="V300" s="3">
         <v>110</v>
       </c>
-      <c r="W300" s="3" t="s">
-        <v>1426</v>
+      <c r="W300" s="4" t="s">
+        <v>1378</v>
       </c>
       <c r="X300" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y300" s="4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="Z300" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y300" s="4"/>
+      <c r="Z300" s="3"/>
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
@@ -32713,12 +31522,8 @@
       <c r="V301" s="3">
         <v>110</v>
       </c>
-      <c r="W301" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X301" s="3">
-        <v>50</v>
-      </c>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
@@ -32803,12 +31608,8 @@
       <c r="V302" s="3">
         <v>110</v>
       </c>
-      <c r="W302" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X302" s="3">
-        <v>50</v>
-      </c>
+      <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
       <c r="AA302" s="3"/>
@@ -32893,18 +31694,14 @@
       <c r="V303" s="3">
         <v>110</v>
       </c>
-      <c r="W303" s="3" t="s">
-        <v>1426</v>
+      <c r="W303" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="X303" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y303" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="Z303" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y303" s="4"/>
+      <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
@@ -32987,12 +31784,8 @@
       <c r="V304" s="3">
         <v>20</v>
       </c>
-      <c r="W304" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X304" s="3">
-        <v>50</v>
-      </c>
+      <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
       <c r="AA304" s="3"/>
@@ -33077,18 +31870,14 @@
       <c r="V305" s="3">
         <v>20</v>
       </c>
-      <c r="W305" s="3" t="s">
-        <v>1426</v>
+      <c r="W305" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X305" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y305" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z305" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y305" s="4"/>
+      <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
@@ -33171,12 +31960,8 @@
       <c r="V306" s="3">
         <v>20</v>
       </c>
-      <c r="W306" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X306" s="3">
-        <v>50</v>
-      </c>
+      <c r="W306" s="3"/>
+      <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
       <c r="AA306" s="3"/>
@@ -33261,18 +32046,14 @@
       <c r="V307" s="3">
         <v>20</v>
       </c>
-      <c r="W307" s="3" t="s">
-        <v>1426</v>
+      <c r="W307" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X307" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y307" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z307" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y307" s="4"/>
+      <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
@@ -33355,12 +32136,8 @@
       <c r="V308" s="3">
         <v>20</v>
       </c>
-      <c r="W308" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X308" s="3">
-        <v>50</v>
-      </c>
+      <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
       <c r="AA308" s="3"/>
@@ -33445,12 +32222,8 @@
       <c r="V309" s="3">
         <v>25</v>
       </c>
-      <c r="W309" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X309" s="3">
-        <v>50</v>
-      </c>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
@@ -33535,18 +32308,14 @@
       <c r="V310" s="3">
         <v>25</v>
       </c>
-      <c r="W310" s="3" t="s">
-        <v>1426</v>
+      <c r="W310" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X310" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y310" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z310" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y310" s="4"/>
+      <c r="Z310" s="3"/>
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
@@ -33629,12 +32398,8 @@
       <c r="V311" s="3">
         <v>25</v>
       </c>
-      <c r="W311" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X311" s="3">
-        <v>50</v>
-      </c>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
@@ -33719,12 +32484,8 @@
       <c r="V312" s="3">
         <v>25</v>
       </c>
-      <c r="W312" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X312" s="3">
-        <v>50</v>
-      </c>
+      <c r="W312" s="3"/>
+      <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
       <c r="AA312" s="3"/>
@@ -33809,18 +32570,14 @@
       <c r="V313" s="3">
         <v>25</v>
       </c>
-      <c r="W313" s="3" t="s">
-        <v>1426</v>
+      <c r="W313" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X313" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y313" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z313" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y313" s="4"/>
+      <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
@@ -33903,12 +32660,8 @@
       <c r="V314" s="3">
         <v>30</v>
       </c>
-      <c r="W314" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X314" s="3">
-        <v>50</v>
-      </c>
+      <c r="W314" s="3"/>
+      <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
       <c r="AA314" s="3"/>
@@ -33993,12 +32746,8 @@
       <c r="V315" s="3">
         <v>30</v>
       </c>
-      <c r="W315" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X315" s="3">
-        <v>50</v>
-      </c>
+      <c r="W315" s="3"/>
+      <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
@@ -34083,12 +32832,8 @@
       <c r="V316" s="3">
         <v>30</v>
       </c>
-      <c r="W316" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X316" s="3">
-        <v>50</v>
-      </c>
+      <c r="W316" s="3"/>
+      <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
       <c r="AA316" s="3"/>
@@ -34173,12 +32918,8 @@
       <c r="V317" s="3">
         <v>30</v>
       </c>
-      <c r="W317" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X317" s="3">
-        <v>50</v>
-      </c>
+      <c r="W317" s="3"/>
+      <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
@@ -34263,18 +33004,14 @@
       <c r="V318" s="3">
         <v>30</v>
       </c>
-      <c r="W318" s="3" t="s">
-        <v>1426</v>
+      <c r="W318" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X318" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y318" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z318" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y318" s="4"/>
+      <c r="Z318" s="3"/>
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
@@ -34357,12 +33094,8 @@
       <c r="V319" s="3">
         <v>35</v>
       </c>
-      <c r="W319" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X319" s="3">
-        <v>50</v>
-      </c>
+      <c r="W319" s="3"/>
+      <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
@@ -34447,18 +33180,14 @@
       <c r="V320" s="3">
         <v>35</v>
       </c>
-      <c r="W320" s="3" t="s">
-        <v>1426</v>
+      <c r="W320" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X320" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y320" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z320" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y320" s="4"/>
+      <c r="Z320" s="3"/>
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
@@ -34541,12 +33270,8 @@
       <c r="V321" s="3">
         <v>35</v>
       </c>
-      <c r="W321" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X321" s="3">
-        <v>50</v>
-      </c>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
@@ -34631,18 +33356,14 @@
       <c r="V322" s="3">
         <v>35</v>
       </c>
-      <c r="W322" s="3" t="s">
-        <v>1426</v>
+      <c r="W322" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X322" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y322" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z322" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y322" s="4"/>
+      <c r="Z322" s="3"/>
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
@@ -34725,12 +33446,8 @@
       <c r="V323" s="3">
         <v>35</v>
       </c>
-      <c r="W323" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X323" s="3">
-        <v>50</v>
-      </c>
+      <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
@@ -34815,12 +33532,8 @@
       <c r="V324" s="3">
         <v>40</v>
       </c>
-      <c r="W324" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X324" s="3">
-        <v>50</v>
-      </c>
+      <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
       <c r="AA324" s="3"/>
@@ -34905,18 +33618,14 @@
       <c r="V325" s="3">
         <v>40</v>
       </c>
-      <c r="W325" s="3" t="s">
-        <v>1426</v>
+      <c r="W325" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X325" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y325" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z325" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y325" s="4"/>
+      <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
@@ -34999,12 +33708,8 @@
       <c r="V326" s="3">
         <v>40</v>
       </c>
-      <c r="W326" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X326" s="3">
-        <v>50</v>
-      </c>
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
       <c r="AA326" s="3"/>
@@ -35089,12 +33794,8 @@
       <c r="V327" s="3">
         <v>40</v>
       </c>
-      <c r="W327" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X327" s="3">
-        <v>50</v>
-      </c>
+      <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
       <c r="AA327" s="3"/>
@@ -35179,18 +33880,14 @@
       <c r="V328" s="3">
         <v>40</v>
       </c>
-      <c r="W328" s="3" t="s">
-        <v>1426</v>
+      <c r="W328" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X328" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y328" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z328" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y328" s="4"/>
+      <c r="Z328" s="3"/>
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
@@ -35273,12 +33970,8 @@
       <c r="V329" s="3">
         <v>45</v>
       </c>
-      <c r="W329" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X329" s="3">
-        <v>50</v>
-      </c>
+      <c r="W329" s="3"/>
+      <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
       <c r="AA329" s="3"/>
@@ -35363,12 +34056,8 @@
       <c r="V330" s="3">
         <v>45</v>
       </c>
-      <c r="W330" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X330" s="3">
-        <v>50</v>
-      </c>
+      <c r="W330" s="3"/>
+      <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
       <c r="AA330" s="3"/>
@@ -35453,12 +34142,8 @@
       <c r="V331" s="3">
         <v>45</v>
       </c>
-      <c r="W331" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X331" s="3">
-        <v>50</v>
-      </c>
+      <c r="W331" s="3"/>
+      <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
@@ -35543,12 +34228,8 @@
       <c r="V332" s="3">
         <v>45</v>
       </c>
-      <c r="W332" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X332" s="3">
-        <v>50</v>
-      </c>
+      <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
       <c r="AA332" s="3"/>
@@ -35633,18 +34314,14 @@
       <c r="V333" s="3">
         <v>45</v>
       </c>
-      <c r="W333" s="3" t="s">
-        <v>1426</v>
+      <c r="W333" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X333" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y333" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z333" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y333" s="4"/>
+      <c r="Z333" s="3"/>
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
@@ -35727,12 +34404,8 @@
       <c r="V334" s="3">
         <v>50</v>
       </c>
-      <c r="W334" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X334" s="3">
-        <v>50</v>
-      </c>
+      <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
       <c r="AA334" s="3"/>
@@ -35817,18 +34490,14 @@
       <c r="V335" s="3">
         <v>50</v>
       </c>
-      <c r="W335" s="3" t="s">
-        <v>1426</v>
+      <c r="W335" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X335" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y335" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z335" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y335" s="4"/>
+      <c r="Z335" s="3"/>
       <c r="AA335" s="3"/>
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
@@ -35911,12 +34580,8 @@
       <c r="V336" s="3">
         <v>50</v>
       </c>
-      <c r="W336" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X336" s="3">
-        <v>50</v>
-      </c>
+      <c r="W336" s="3"/>
+      <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
       <c r="AA336" s="3"/>
@@ -36001,18 +34666,14 @@
       <c r="V337" s="3">
         <v>50</v>
       </c>
-      <c r="W337" s="3" t="s">
-        <v>1426</v>
+      <c r="W337" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X337" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y337" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z337" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y337" s="4"/>
+      <c r="Z337" s="3"/>
       <c r="AA337" s="3"/>
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
@@ -36095,12 +34756,8 @@
       <c r="V338" s="3">
         <v>50</v>
       </c>
-      <c r="W338" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X338" s="3">
-        <v>50</v>
-      </c>
+      <c r="W338" s="3"/>
+      <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
       <c r="AA338" s="3"/>
@@ -36185,12 +34842,8 @@
       <c r="V339" s="3">
         <v>55</v>
       </c>
-      <c r="W339" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X339" s="3">
-        <v>50</v>
-      </c>
+      <c r="W339" s="3"/>
+      <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
       <c r="AA339" s="3"/>
@@ -36275,18 +34928,14 @@
       <c r="V340" s="3">
         <v>55</v>
       </c>
-      <c r="W340" s="3" t="s">
-        <v>1426</v>
+      <c r="W340" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X340" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y340" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z340" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y340" s="4"/>
+      <c r="Z340" s="3"/>
       <c r="AA340" s="3"/>
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
@@ -36369,12 +35018,8 @@
       <c r="V341" s="3">
         <v>55</v>
       </c>
-      <c r="W341" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X341" s="3">
-        <v>50</v>
-      </c>
+      <c r="W341" s="3"/>
+      <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
       <c r="AA341" s="3"/>
@@ -36459,12 +35104,8 @@
       <c r="V342" s="3">
         <v>55</v>
       </c>
-      <c r="W342" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X342" s="3">
-        <v>50</v>
-      </c>
+      <c r="W342" s="3"/>
+      <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
       <c r="AA342" s="3"/>
@@ -36549,18 +35190,14 @@
       <c r="V343" s="3">
         <v>55</v>
       </c>
-      <c r="W343" s="3" t="s">
-        <v>1426</v>
+      <c r="W343" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X343" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y343" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z343" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y343" s="4"/>
+      <c r="Z343" s="3"/>
       <c r="AA343" s="3"/>
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
@@ -36643,12 +35280,8 @@
       <c r="V344" s="3">
         <v>60</v>
       </c>
-      <c r="W344" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X344" s="3">
-        <v>50</v>
-      </c>
+      <c r="W344" s="3"/>
+      <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
       <c r="AA344" s="3"/>
@@ -36733,12 +35366,8 @@
       <c r="V345" s="3">
         <v>60</v>
       </c>
-      <c r="W345" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X345" s="3">
-        <v>50</v>
-      </c>
+      <c r="W345" s="3"/>
+      <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
       <c r="AA345" s="3"/>
@@ -36823,12 +35452,8 @@
       <c r="V346" s="3">
         <v>60</v>
       </c>
-      <c r="W346" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X346" s="3">
-        <v>50</v>
-      </c>
+      <c r="W346" s="3"/>
+      <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
       <c r="AA346" s="3"/>
@@ -36913,12 +35538,8 @@
       <c r="V347" s="3">
         <v>60</v>
       </c>
-      <c r="W347" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X347" s="3">
-        <v>50</v>
-      </c>
+      <c r="W347" s="3"/>
+      <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
       <c r="AA347" s="3"/>
@@ -37003,18 +35624,14 @@
       <c r="V348" s="3">
         <v>60</v>
       </c>
-      <c r="W348" s="3" t="s">
-        <v>1426</v>
+      <c r="W348" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X348" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y348" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z348" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y348" s="4"/>
+      <c r="Z348" s="3"/>
       <c r="AA348" s="3"/>
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
@@ -37097,12 +35714,8 @@
       <c r="V349" s="3">
         <v>65</v>
       </c>
-      <c r="W349" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X349" s="3">
-        <v>50</v>
-      </c>
+      <c r="W349" s="3"/>
+      <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
       <c r="AA349" s="3"/>
@@ -37187,18 +35800,14 @@
       <c r="V350" s="3">
         <v>65</v>
       </c>
-      <c r="W350" s="3" t="s">
-        <v>1426</v>
+      <c r="W350" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X350" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y350" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z350" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y350" s="4"/>
+      <c r="Z350" s="3"/>
       <c r="AA350" s="3"/>
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
@@ -37281,12 +35890,8 @@
       <c r="V351" s="3">
         <v>65</v>
       </c>
-      <c r="W351" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X351" s="3">
-        <v>50</v>
-      </c>
+      <c r="W351" s="3"/>
+      <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
@@ -37371,18 +35976,14 @@
       <c r="V352" s="3">
         <v>65</v>
       </c>
-      <c r="W352" s="3" t="s">
-        <v>1426</v>
+      <c r="W352" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X352" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y352" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z352" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y352" s="4"/>
+      <c r="Z352" s="3"/>
       <c r="AA352" s="3"/>
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
@@ -37465,12 +36066,8 @@
       <c r="V353" s="3">
         <v>65</v>
       </c>
-      <c r="W353" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X353" s="3">
-        <v>50</v>
-      </c>
+      <c r="W353" s="3"/>
+      <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
@@ -37555,12 +36152,8 @@
       <c r="V354" s="3">
         <v>70</v>
       </c>
-      <c r="W354" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X354" s="3">
-        <v>50</v>
-      </c>
+      <c r="W354" s="3"/>
+      <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
       <c r="AA354" s="3"/>
@@ -37645,18 +36238,14 @@
       <c r="V355" s="3">
         <v>70</v>
       </c>
-      <c r="W355" s="3" t="s">
-        <v>1426</v>
+      <c r="W355" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X355" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y355" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z355" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y355" s="4"/>
+      <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
@@ -37739,12 +36328,8 @@
       <c r="V356" s="3">
         <v>70</v>
       </c>
-      <c r="W356" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X356" s="3">
-        <v>50</v>
-      </c>
+      <c r="W356" s="3"/>
+      <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
       <c r="AA356" s="3"/>
@@ -37829,12 +36414,8 @@
       <c r="V357" s="3">
         <v>70</v>
       </c>
-      <c r="W357" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X357" s="3">
-        <v>50</v>
-      </c>
+      <c r="W357" s="3"/>
+      <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
       <c r="AA357" s="3"/>
@@ -37919,18 +36500,14 @@
       <c r="V358" s="3">
         <v>70</v>
       </c>
-      <c r="W358" s="3" t="s">
-        <v>1426</v>
+      <c r="W358" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X358" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y358" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z358" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y358" s="4"/>
+      <c r="Z358" s="3"/>
       <c r="AA358" s="3"/>
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
@@ -38013,12 +36590,8 @@
       <c r="V359" s="3">
         <v>75</v>
       </c>
-      <c r="W359" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X359" s="3">
-        <v>50</v>
-      </c>
+      <c r="W359" s="3"/>
+      <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
       <c r="AA359" s="3"/>
@@ -38103,12 +36676,8 @@
       <c r="V360" s="3">
         <v>75</v>
       </c>
-      <c r="W360" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X360" s="3">
-        <v>50</v>
-      </c>
+      <c r="W360" s="3"/>
+      <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
       <c r="AA360" s="3"/>
@@ -38193,12 +36762,8 @@
       <c r="V361" s="3">
         <v>75</v>
       </c>
-      <c r="W361" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X361" s="3">
-        <v>50</v>
-      </c>
+      <c r="W361" s="3"/>
+      <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
       <c r="AA361" s="3"/>
@@ -38283,12 +36848,8 @@
       <c r="V362" s="3">
         <v>75</v>
       </c>
-      <c r="W362" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X362" s="3">
-        <v>50</v>
-      </c>
+      <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
       <c r="AA362" s="3"/>
@@ -38373,18 +36934,14 @@
       <c r="V363" s="3">
         <v>75</v>
       </c>
-      <c r="W363" s="3" t="s">
-        <v>1426</v>
+      <c r="W363" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X363" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y363" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z363" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y363" s="4"/>
+      <c r="Z363" s="3"/>
       <c r="AA363" s="3"/>
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
@@ -38467,12 +37024,8 @@
       <c r="V364" s="3">
         <v>80</v>
       </c>
-      <c r="W364" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X364" s="3">
-        <v>50</v>
-      </c>
+      <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
       <c r="AA364" s="3"/>
@@ -38557,18 +37110,14 @@
       <c r="V365" s="3">
         <v>80</v>
       </c>
-      <c r="W365" s="3" t="s">
-        <v>1426</v>
+      <c r="W365" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X365" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y365" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z365" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y365" s="4"/>
+      <c r="Z365" s="3"/>
       <c r="AA365" s="3"/>
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
@@ -38651,12 +37200,8 @@
       <c r="V366" s="3">
         <v>80</v>
       </c>
-      <c r="W366" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X366" s="3">
-        <v>50</v>
-      </c>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
       <c r="AA366" s="3"/>
@@ -38741,18 +37286,14 @@
       <c r="V367" s="3">
         <v>80</v>
       </c>
-      <c r="W367" s="3" t="s">
-        <v>1426</v>
+      <c r="W367" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X367" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y367" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z367" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y367" s="4"/>
+      <c r="Z367" s="3"/>
       <c r="AA367" s="3"/>
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
@@ -38835,12 +37376,8 @@
       <c r="V368" s="3">
         <v>80</v>
       </c>
-      <c r="W368" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X368" s="3">
-        <v>50</v>
-      </c>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
       <c r="AA368" s="3"/>
@@ -38925,12 +37462,8 @@
       <c r="V369" s="3">
         <v>85</v>
       </c>
-      <c r="W369" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X369" s="3">
-        <v>50</v>
-      </c>
+      <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
       <c r="AA369" s="3"/>
@@ -39015,18 +37548,14 @@
       <c r="V370" s="3">
         <v>85</v>
       </c>
-      <c r="W370" s="3" t="s">
-        <v>1426</v>
+      <c r="W370" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X370" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y370" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z370" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y370" s="4"/>
+      <c r="Z370" s="3"/>
       <c r="AA370" s="3"/>
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
@@ -39109,12 +37638,8 @@
       <c r="V371" s="3">
         <v>85</v>
       </c>
-      <c r="W371" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X371" s="3">
-        <v>50</v>
-      </c>
+      <c r="W371" s="3"/>
+      <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
       <c r="AA371" s="3"/>
@@ -39199,12 +37724,8 @@
       <c r="V372" s="3">
         <v>85</v>
       </c>
-      <c r="W372" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X372" s="3">
-        <v>50</v>
-      </c>
+      <c r="W372" s="3"/>
+      <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
       <c r="AA372" s="3"/>
@@ -39289,18 +37810,14 @@
       <c r="V373" s="3">
         <v>85</v>
       </c>
-      <c r="W373" s="3" t="s">
-        <v>1426</v>
+      <c r="W373" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X373" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y373" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z373" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y373" s="4"/>
+      <c r="Z373" s="3"/>
       <c r="AA373" s="3"/>
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
@@ -39383,12 +37900,8 @@
       <c r="V374" s="3">
         <v>90</v>
       </c>
-      <c r="W374" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X374" s="3">
-        <v>50</v>
-      </c>
+      <c r="W374" s="3"/>
+      <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
       <c r="AA374" s="3"/>
@@ -39473,12 +37986,8 @@
       <c r="V375" s="3">
         <v>90</v>
       </c>
-      <c r="W375" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X375" s="3">
-        <v>50</v>
-      </c>
+      <c r="W375" s="3"/>
+      <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
       <c r="AA375" s="3"/>
@@ -39563,12 +38072,8 @@
       <c r="V376" s="3">
         <v>90</v>
       </c>
-      <c r="W376" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X376" s="3">
-        <v>50</v>
-      </c>
+      <c r="W376" s="3"/>
+      <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
       <c r="AA376" s="3"/>
@@ -39653,12 +38158,8 @@
       <c r="V377" s="3">
         <v>90</v>
       </c>
-      <c r="W377" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X377" s="3">
-        <v>50</v>
-      </c>
+      <c r="W377" s="3"/>
+      <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
       <c r="AA377" s="3"/>
@@ -39743,18 +38244,14 @@
       <c r="V378" s="3">
         <v>90</v>
       </c>
-      <c r="W378" s="3" t="s">
-        <v>1426</v>
+      <c r="W378" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X378" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y378" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z378" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y378" s="4"/>
+      <c r="Z378" s="3"/>
       <c r="AA378" s="3"/>
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
@@ -39837,12 +38334,8 @@
       <c r="V379" s="3">
         <v>95</v>
       </c>
-      <c r="W379" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X379" s="3">
-        <v>50</v>
-      </c>
+      <c r="W379" s="3"/>
+      <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
       <c r="AA379" s="3"/>
@@ -39927,18 +38420,14 @@
       <c r="V380" s="3">
         <v>95</v>
       </c>
-      <c r="W380" s="3" t="s">
-        <v>1426</v>
+      <c r="W380" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="X380" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y380" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Z380" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y380" s="4"/>
+      <c r="Z380" s="3"/>
       <c r="AA380" s="3"/>
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
@@ -40021,12 +38510,8 @@
       <c r="V381" s="3">
         <v>95</v>
       </c>
-      <c r="W381" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X381" s="3">
-        <v>50</v>
-      </c>
+      <c r="W381" s="3"/>
+      <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
       <c r="AA381" s="3"/>
@@ -40111,18 +38596,14 @@
       <c r="V382" s="3">
         <v>95</v>
       </c>
-      <c r="W382" s="3" t="s">
-        <v>1426</v>
+      <c r="W382" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="X382" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y382" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Z382" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y382" s="4"/>
+      <c r="Z382" s="3"/>
       <c r="AA382" s="3"/>
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
@@ -40205,12 +38686,8 @@
       <c r="V383" s="3">
         <v>95</v>
       </c>
-      <c r="W383" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X383" s="3">
-        <v>50</v>
-      </c>
+      <c r="W383" s="3"/>
+      <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
       <c r="AA383" s="3"/>
@@ -40295,12 +38772,8 @@
       <c r="V384" s="3">
         <v>100</v>
       </c>
-      <c r="W384" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X384" s="3">
-        <v>50</v>
-      </c>
+      <c r="W384" s="3"/>
+      <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
       <c r="AA384" s="3"/>
@@ -40385,18 +38858,14 @@
       <c r="V385" s="3">
         <v>100</v>
       </c>
-      <c r="W385" s="3" t="s">
-        <v>1426</v>
+      <c r="W385" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="X385" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y385" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Z385" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y385" s="4"/>
+      <c r="Z385" s="3"/>
       <c r="AA385" s="3"/>
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
@@ -40479,12 +38948,8 @@
       <c r="V386" s="3">
         <v>100</v>
       </c>
-      <c r="W386" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X386" s="3">
-        <v>50</v>
-      </c>
+      <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
       <c r="AA386" s="3"/>
@@ -40569,12 +39034,8 @@
       <c r="V387" s="3">
         <v>100</v>
       </c>
-      <c r="W387" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X387" s="3">
-        <v>50</v>
-      </c>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
       <c r="AA387" s="3"/>
@@ -40659,18 +39120,14 @@
       <c r="V388" s="3">
         <v>100</v>
       </c>
-      <c r="W388" s="3" t="s">
-        <v>1426</v>
+      <c r="W388" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X388" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y388" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z388" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y388" s="4"/>
+      <c r="Z388" s="3"/>
       <c r="AA388" s="3"/>
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
@@ -40753,12 +39210,8 @@
       <c r="V389" s="3">
         <v>105</v>
       </c>
-      <c r="W389" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X389" s="3">
-        <v>50</v>
-      </c>
+      <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
       <c r="AA389" s="3"/>
@@ -40843,12 +39296,8 @@
       <c r="V390" s="3">
         <v>105</v>
       </c>
-      <c r="W390" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X390" s="3">
-        <v>50</v>
-      </c>
+      <c r="W390" s="3"/>
+      <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
       <c r="AA390" s="3"/>
@@ -40933,12 +39382,8 @@
       <c r="V391" s="3">
         <v>105</v>
       </c>
-      <c r="W391" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X391" s="3">
-        <v>50</v>
-      </c>
+      <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
       <c r="AA391" s="3"/>
@@ -41023,12 +39468,8 @@
       <c r="V392" s="3">
         <v>105</v>
       </c>
-      <c r="W392" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X392" s="3">
-        <v>50</v>
-      </c>
+      <c r="W392" s="3"/>
+      <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
       <c r="AA392" s="3"/>
@@ -41113,18 +39554,14 @@
       <c r="V393" s="3">
         <v>105</v>
       </c>
-      <c r="W393" s="3" t="s">
-        <v>1426</v>
+      <c r="W393" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X393" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y393" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z393" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y393" s="4"/>
+      <c r="Z393" s="3"/>
       <c r="AA393" s="3"/>
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
@@ -41207,12 +39644,8 @@
       <c r="V394" s="3">
         <v>110</v>
       </c>
-      <c r="W394" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X394" s="3">
-        <v>50</v>
-      </c>
+      <c r="W394" s="3"/>
+      <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
       <c r="AA394" s="3"/>
@@ -41297,18 +39730,14 @@
       <c r="V395" s="3">
         <v>110</v>
       </c>
-      <c r="W395" s="3" t="s">
-        <v>1426</v>
+      <c r="W395" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="X395" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y395" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="Z395" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y395" s="4"/>
+      <c r="Z395" s="3"/>
       <c r="AA395" s="3"/>
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
@@ -41391,12 +39820,8 @@
       <c r="V396" s="3">
         <v>110</v>
       </c>
-      <c r="W396" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X396" s="3">
-        <v>50</v>
-      </c>
+      <c r="W396" s="3"/>
+      <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
       <c r="AA396" s="3"/>
@@ -41481,18 +39906,14 @@
       <c r="V397" s="3">
         <v>110</v>
       </c>
-      <c r="W397" s="3" t="s">
-        <v>1426</v>
+      <c r="W397" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="X397" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y397" s="4" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Z397" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y397" s="4"/>
+      <c r="Z397" s="3"/>
       <c r="AA397" s="3"/>
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
@@ -41575,12 +39996,8 @@
       <c r="V398" s="3">
         <v>110</v>
       </c>
-      <c r="W398" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X398" s="3">
-        <v>50</v>
-      </c>
+      <c r="W398" s="3"/>
+      <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
       <c r="AA398" s="3"/>
@@ -41665,12 +40082,8 @@
       <c r="V399" s="3">
         <v>115</v>
       </c>
-      <c r="W399" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X399" s="3">
-        <v>50</v>
-      </c>
+      <c r="W399" s="3"/>
+      <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
       <c r="AA399" s="3"/>
@@ -41755,18 +40168,14 @@
       <c r="V400" s="3">
         <v>115</v>
       </c>
-      <c r="W400" s="3" t="s">
-        <v>1426</v>
+      <c r="W400" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="X400" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y400" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z400" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y400" s="4"/>
+      <c r="Z400" s="3"/>
       <c r="AA400" s="3"/>
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
@@ -41849,12 +40258,8 @@
       <c r="V401" s="3">
         <v>115</v>
       </c>
-      <c r="W401" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X401" s="3">
-        <v>50</v>
-      </c>
+      <c r="W401" s="3"/>
+      <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
       <c r="AA401" s="3"/>
@@ -41939,12 +40344,8 @@
       <c r="V402" s="3">
         <v>115</v>
       </c>
-      <c r="W402" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X402" s="3">
-        <v>50</v>
-      </c>
+      <c r="W402" s="3"/>
+      <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
       <c r="AA402" s="3"/>
@@ -42029,18 +40430,14 @@
       <c r="V403" s="3">
         <v>115</v>
       </c>
-      <c r="W403" s="3" t="s">
-        <v>1426</v>
+      <c r="W403" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="X403" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y403" s="4" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Z403" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y403" s="4"/>
+      <c r="Z403" s="3"/>
       <c r="AA403" s="3"/>
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>

--- a/Excel/镇魂街/tower.芦花古楼.xlsx
+++ b/Excel/镇魂街/tower.芦花古楼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="1425">
   <si>
     <t>sheet名</t>
   </si>
@@ -4164,9 +4164,6 @@
   </si>
   <si>
     <t>许褚</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
   </si>
   <si>
     <t>徐晃</t>
@@ -5343,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5403,28 +5400,28 @@
         <v>437</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>1387</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>1388</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>97</v>
@@ -5451,28 +5448,28 @@
         <v>10</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>1411</v>
-      </c>
       <c r="Y1" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>1415</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>18</v>
@@ -5531,28 +5528,28 @@
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I2" t="s">
         <v>1397</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1398</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M2" t="s">
         <v>1399</v>
       </c>
-      <c r="K2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1400</v>
-      </c>
       <c r="N2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O2" t="s">
         <v>136</v>
@@ -5567,40 +5564,40 @@
         <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="T2" t="s">
         <v>55</v>
       </c>
       <c r="U2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="V2" t="s">
         <v>1403</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Y2" t="s">
         <v>1404</v>
       </c>
-      <c r="W2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AA2" t="s">
         <v>1404</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>1405</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AD2" t="s">
         <v>1405</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1406</v>
       </c>
       <c r="AE2" t="s">
         <v>87</v>
@@ -5659,28 +5656,28 @@
         <v>438</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1396</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>133</v>
@@ -5707,28 +5704,28 @@
         <v>28</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>1413</v>
-      </c>
       <c r="Y3" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>1417</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>29</v>
@@ -5903,7 +5900,7 @@
         <v>5</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X5" s="3">
         <v>1</v>
@@ -5991,7 +5988,7 @@
         <v>5</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
@@ -6079,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
@@ -6335,7 +6332,7 @@
         <v>10</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X10" s="3">
         <v>1</v>
@@ -6423,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
@@ -6595,7 +6592,7 @@
         <v>10</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="X13" s="3">
         <v>1</v>
@@ -7019,7 +7016,7 @@
         <v>15</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X18" s="3">
         <v>1</v>
@@ -7443,7 +7440,7 @@
         <v>20</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
@@ -7867,7 +7864,7 @@
         <v>25</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
@@ -8291,7 +8288,7 @@
         <v>30</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X33" s="3">
         <v>1</v>
@@ -8715,7 +8712,7 @@
         <v>35</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X38" s="3">
         <v>1</v>
@@ -9139,7 +9136,7 @@
         <v>40</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X43" s="3">
         <v>1</v>
@@ -9563,7 +9560,7 @@
         <v>45</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X48" s="3">
         <v>1</v>
@@ -9987,7 +9984,7 @@
         <v>50</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X53" s="3">
         <v>1</v>
@@ -10411,7 +10408,7 @@
         <v>55</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X58" s="3">
         <v>1</v>
@@ -10835,7 +10832,7 @@
         <v>60</v>
       </c>
       <c r="W63" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X63" s="3">
         <v>1</v>
@@ -11259,7 +11256,7 @@
         <v>65</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X68" s="3">
         <v>1</v>
@@ -11683,7 +11680,7 @@
         <v>70</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X73" s="3">
         <v>1</v>
@@ -12107,7 +12104,7 @@
         <v>75</v>
       </c>
       <c r="W78" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X78" s="3">
         <v>1</v>
@@ -12531,7 +12528,7 @@
         <v>80</v>
       </c>
       <c r="W83" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X83" s="3">
         <v>1</v>
@@ -12955,7 +12952,7 @@
         <v>85</v>
       </c>
       <c r="W88" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X88" s="3">
         <v>1</v>
@@ -13379,7 +13376,7 @@
         <v>90</v>
       </c>
       <c r="W93" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X93" s="3">
         <v>1</v>
@@ -13803,7 +13800,7 @@
         <v>95</v>
       </c>
       <c r="W98" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="X98" s="3">
         <v>1</v>
@@ -14227,7 +14224,7 @@
         <v>100</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="X103" s="3">
         <v>1</v>
@@ -14403,7 +14400,7 @@
         <v>10</v>
       </c>
       <c r="W105" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="X105" s="3">
         <v>1</v>
@@ -14579,7 +14576,7 @@
         <v>10</v>
       </c>
       <c r="W107" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="X107" s="3">
         <v>1</v>
@@ -14841,7 +14838,7 @@
         <v>15</v>
       </c>
       <c r="W110" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X110" s="3">
         <v>1</v>
@@ -15103,7 +15100,7 @@
         <v>15</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="X113" s="3">
         <v>1</v>
@@ -15537,7 +15534,7 @@
         <v>20</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="X118" s="3">
         <v>1</v>
@@ -15713,7 +15710,7 @@
         <v>25</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="X120" s="3">
         <v>1</v>
@@ -15889,7 +15886,7 @@
         <v>25</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="X122" s="3">
         <v>1</v>
@@ -16151,7 +16148,7 @@
         <v>30</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="X125" s="3">
         <v>1</v>
@@ -16413,7 +16410,7 @@
         <v>30</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X128" s="3">
         <v>1</v>
@@ -16847,7 +16844,7 @@
         <v>35</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="X133" s="3">
         <v>1</v>
@@ -17023,7 +17020,7 @@
         <v>40</v>
       </c>
       <c r="W135" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="X135" s="3">
         <v>1</v>
@@ -17199,7 +17196,7 @@
         <v>40</v>
       </c>
       <c r="W137" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="X137" s="3">
         <v>1</v>
@@ -17461,7 +17458,7 @@
         <v>45</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="X140" s="3">
         <v>1</v>
@@ -17723,7 +17720,7 @@
         <v>45</v>
       </c>
       <c r="W143" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X143" s="3">
         <v>1</v>
@@ -18157,7 +18154,7 @@
         <v>50</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="X148" s="3">
         <v>1</v>
@@ -18333,7 +18330,7 @@
         <v>55</v>
       </c>
       <c r="W150" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="X150" s="3">
         <v>1</v>
@@ -18509,7 +18506,7 @@
         <v>55</v>
       </c>
       <c r="W152" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="X152" s="3">
         <v>1</v>
@@ -18771,7 +18768,7 @@
         <v>60</v>
       </c>
       <c r="W155" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="X155" s="3">
         <v>1</v>
@@ -19033,7 +19030,7 @@
         <v>60</v>
       </c>
       <c r="W158" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X158" s="3">
         <v>1</v>
@@ -19467,7 +19464,7 @@
         <v>65</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="X163" s="3">
         <v>1</v>
@@ -19643,7 +19640,7 @@
         <v>70</v>
       </c>
       <c r="W165" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="X165" s="3">
         <v>1</v>
@@ -19819,7 +19816,7 @@
         <v>70</v>
       </c>
       <c r="W167" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="X167" s="3">
         <v>1</v>
@@ -20081,7 +20078,7 @@
         <v>75</v>
       </c>
       <c r="W170" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="X170" s="3">
         <v>1</v>
@@ -20343,7 +20340,7 @@
         <v>75</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X173" s="3">
         <v>1</v>
@@ -20777,7 +20774,7 @@
         <v>80</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="X178" s="3">
         <v>1</v>
@@ -20953,7 +20950,7 @@
         <v>85</v>
       </c>
       <c r="W180" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="X180" s="3">
         <v>1</v>
@@ -21129,7 +21126,7 @@
         <v>85</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="X182" s="3">
         <v>1</v>
@@ -21391,7 +21388,7 @@
         <v>90</v>
       </c>
       <c r="W185" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="X185" s="3">
         <v>1</v>
@@ -21653,7 +21650,7 @@
         <v>90</v>
       </c>
       <c r="W188" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="X188" s="3">
         <v>1</v>
@@ -22087,7 +22084,7 @@
         <v>95</v>
       </c>
       <c r="W193" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="X193" s="3">
         <v>1</v>
@@ -22521,7 +22518,7 @@
         <v>100</v>
       </c>
       <c r="W198" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="X198" s="3">
         <v>1</v>
@@ -22697,7 +22694,7 @@
         <v>105</v>
       </c>
       <c r="W200" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="X200" s="3">
         <v>1</v>
@@ -22959,7 +22956,7 @@
         <v>105</v>
       </c>
       <c r="W203" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="X203" s="3">
         <v>1</v>
@@ -23135,7 +23132,7 @@
         <v>15</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X205" s="3">
         <v>1</v>
@@ -23311,7 +23308,7 @@
         <v>15</v>
       </c>
       <c r="W207" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X207" s="3">
         <v>1</v>
@@ -23573,7 +23570,7 @@
         <v>20</v>
       </c>
       <c r="W210" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X210" s="3">
         <v>1</v>
@@ -23835,7 +23832,7 @@
         <v>20</v>
       </c>
       <c r="W213" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X213" s="3">
         <v>1</v>
@@ -24269,7 +24266,7 @@
         <v>25</v>
       </c>
       <c r="W218" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X218" s="3">
         <v>1</v>
@@ -24445,7 +24442,7 @@
         <v>30</v>
       </c>
       <c r="W220" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X220" s="3">
         <v>1</v>
@@ -24621,7 +24618,7 @@
         <v>30</v>
       </c>
       <c r="W222" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X222" s="3">
         <v>1</v>
@@ -24883,7 +24880,7 @@
         <v>35</v>
       </c>
       <c r="W225" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X225" s="3">
         <v>1</v>
@@ -25145,7 +25142,7 @@
         <v>35</v>
       </c>
       <c r="W228" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X228" s="3">
         <v>1</v>
@@ -25579,7 +25576,7 @@
         <v>40</v>
       </c>
       <c r="W233" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X233" s="3">
         <v>1</v>
@@ -25755,7 +25752,7 @@
         <v>45</v>
       </c>
       <c r="W235" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X235" s="3">
         <v>1</v>
@@ -25931,7 +25928,7 @@
         <v>45</v>
       </c>
       <c r="W237" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X237" s="3">
         <v>1</v>
@@ -26193,7 +26190,7 @@
         <v>50</v>
       </c>
       <c r="W240" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X240" s="3">
         <v>1</v>
@@ -26455,7 +26452,7 @@
         <v>50</v>
       </c>
       <c r="W243" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X243" s="3">
         <v>1</v>
@@ -26889,7 +26886,7 @@
         <v>55</v>
       </c>
       <c r="W248" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X248" s="3">
         <v>1</v>
@@ -27065,7 +27062,7 @@
         <v>60</v>
       </c>
       <c r="W250" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X250" s="3">
         <v>1</v>
@@ -27241,7 +27238,7 @@
         <v>60</v>
       </c>
       <c r="W252" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X252" s="3">
         <v>1</v>
@@ -27503,7 +27500,7 @@
         <v>65</v>
       </c>
       <c r="W255" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X255" s="3">
         <v>1</v>
@@ -27765,7 +27762,7 @@
         <v>65</v>
       </c>
       <c r="W258" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X258" s="3">
         <v>1</v>
@@ -28199,7 +28196,7 @@
         <v>70</v>
       </c>
       <c r="W263" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X263" s="3">
         <v>1</v>
@@ -28375,7 +28372,7 @@
         <v>75</v>
       </c>
       <c r="W265" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X265" s="3">
         <v>1</v>
@@ -28551,7 +28548,7 @@
         <v>75</v>
       </c>
       <c r="W267" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X267" s="3">
         <v>1</v>
@@ -28813,7 +28810,7 @@
         <v>80</v>
       </c>
       <c r="W270" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X270" s="3">
         <v>1</v>
@@ -29075,7 +29072,7 @@
         <v>80</v>
       </c>
       <c r="W273" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X273" s="3">
         <v>1</v>
@@ -29509,7 +29506,7 @@
         <v>85</v>
       </c>
       <c r="W278" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X278" s="3">
         <v>1</v>
@@ -29685,7 +29682,7 @@
         <v>90</v>
       </c>
       <c r="W280" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="X280" s="3">
         <v>1</v>
@@ -29861,7 +29858,7 @@
         <v>90</v>
       </c>
       <c r="W282" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="X282" s="3">
         <v>1</v>
@@ -30123,7 +30120,7 @@
         <v>95</v>
       </c>
       <c r="W285" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="X285" s="3">
         <v>1</v>
@@ -30385,7 +30382,7 @@
         <v>95</v>
       </c>
       <c r="W288" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X288" s="3">
         <v>1</v>
@@ -30819,7 +30816,7 @@
         <v>100</v>
       </c>
       <c r="W293" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="X293" s="3">
         <v>1</v>
@@ -30995,7 +30992,7 @@
         <v>105</v>
       </c>
       <c r="W295" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="X295" s="3">
         <v>1</v>
@@ -31171,7 +31168,7 @@
         <v>105</v>
       </c>
       <c r="W297" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="X297" s="3">
         <v>1</v>
@@ -31433,7 +31430,7 @@
         <v>110</v>
       </c>
       <c r="W300" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="X300" s="3">
         <v>1</v>
@@ -31695,7 +31692,7 @@
         <v>110</v>
       </c>
       <c r="W303" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="X303" s="3">
         <v>1</v>
@@ -31871,7 +31868,7 @@
         <v>20</v>
       </c>
       <c r="W305" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X305" s="3">
         <v>1</v>
@@ -32047,7 +32044,7 @@
         <v>20</v>
       </c>
       <c r="W307" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X307" s="3">
         <v>1</v>
@@ -32309,7 +32306,7 @@
         <v>25</v>
       </c>
       <c r="W310" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X310" s="3">
         <v>1</v>
@@ -32571,7 +32568,7 @@
         <v>25</v>
       </c>
       <c r="W313" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X313" s="3">
         <v>1</v>
@@ -33005,7 +33002,7 @@
         <v>30</v>
       </c>
       <c r="W318" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X318" s="3">
         <v>1</v>
@@ -33181,7 +33178,7 @@
         <v>35</v>
       </c>
       <c r="W320" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X320" s="3">
         <v>1</v>
@@ -33357,7 +33354,7 @@
         <v>35</v>
       </c>
       <c r="W322" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X322" s="3">
         <v>1</v>
@@ -33619,7 +33616,7 @@
         <v>40</v>
       </c>
       <c r="W325" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X325" s="3">
         <v>1</v>
@@ -33881,7 +33878,7 @@
         <v>40</v>
       </c>
       <c r="W328" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X328" s="3">
         <v>1</v>
@@ -34315,7 +34312,7 @@
         <v>45</v>
       </c>
       <c r="W333" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X333" s="3">
         <v>1</v>
@@ -34491,7 +34488,7 @@
         <v>50</v>
       </c>
       <c r="W335" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X335" s="3">
         <v>1</v>
@@ -34667,7 +34664,7 @@
         <v>50</v>
       </c>
       <c r="W337" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X337" s="3">
         <v>1</v>
@@ -34929,7 +34926,7 @@
         <v>55</v>
       </c>
       <c r="W340" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X340" s="3">
         <v>1</v>
@@ -35191,7 +35188,7 @@
         <v>55</v>
       </c>
       <c r="W343" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X343" s="3">
         <v>1</v>
@@ -35625,7 +35622,7 @@
         <v>60</v>
       </c>
       <c r="W348" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X348" s="3">
         <v>1</v>
@@ -35801,7 +35798,7 @@
         <v>65</v>
       </c>
       <c r="W350" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X350" s="3">
         <v>1</v>
@@ -35977,7 +35974,7 @@
         <v>65</v>
       </c>
       <c r="W352" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X352" s="3">
         <v>1</v>
@@ -36239,7 +36236,7 @@
         <v>70</v>
       </c>
       <c r="W355" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X355" s="3">
         <v>1</v>
@@ -36501,7 +36498,7 @@
         <v>70</v>
       </c>
       <c r="W358" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X358" s="3">
         <v>1</v>
@@ -36935,7 +36932,7 @@
         <v>75</v>
       </c>
       <c r="W363" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X363" s="3">
         <v>1</v>
@@ -37111,7 +37108,7 @@
         <v>80</v>
       </c>
       <c r="W365" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X365" s="3">
         <v>1</v>
@@ -37287,7 +37284,7 @@
         <v>80</v>
       </c>
       <c r="W367" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X367" s="3">
         <v>1</v>
@@ -37549,7 +37546,7 @@
         <v>85</v>
       </c>
       <c r="W370" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X370" s="3">
         <v>1</v>
@@ -37811,7 +37808,7 @@
         <v>85</v>
       </c>
       <c r="W373" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X373" s="3">
         <v>1</v>
@@ -38245,7 +38242,7 @@
         <v>90</v>
       </c>
       <c r="W378" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X378" s="3">
         <v>1</v>
@@ -38421,7 +38418,7 @@
         <v>95</v>
       </c>
       <c r="W380" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="X380" s="3">
         <v>1</v>
@@ -38597,7 +38594,7 @@
         <v>95</v>
       </c>
       <c r="W382" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="X382" s="3">
         <v>1</v>
@@ -38859,7 +38856,7 @@
         <v>100</v>
       </c>
       <c r="W385" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="X385" s="3">
         <v>1</v>
@@ -39121,7 +39118,7 @@
         <v>100</v>
       </c>
       <c r="W388" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X388" s="3">
         <v>1</v>
@@ -39555,7 +39552,7 @@
         <v>105</v>
       </c>
       <c r="W393" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X393" s="3">
         <v>1</v>
@@ -39731,7 +39728,7 @@
         <v>110</v>
       </c>
       <c r="W395" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="X395" s="3">
         <v>1</v>
@@ -39907,7 +39904,7 @@
         <v>110</v>
       </c>
       <c r="W397" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="X397" s="3">
         <v>1</v>
@@ -40169,7 +40166,7 @@
         <v>115</v>
       </c>
       <c r="W400" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="X400" s="3">
         <v>1</v>
@@ -40431,7 +40428,7 @@
         <v>115</v>
       </c>
       <c r="W403" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="X403" s="3">
         <v>1</v>
@@ -40476,10 +40473,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="M149" sqref="M149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40493,7 +40490,7 @@
     <col min="11" max="11" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -40510,7 +40507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -40527,7 +40524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -40544,7 +40541,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -40560,11 +40557,8 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -40580,11 +40574,8 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -40595,16 +40586,13 @@
         <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -40620,11 +40608,8 @@
       <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -40640,11 +40625,8 @@
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -40660,11 +40642,8 @@
       <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -40680,11 +40659,8 @@
       <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -40700,11 +40676,8 @@
       <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -40720,11 +40693,8 @@
       <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -40740,11 +40710,8 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -40760,11 +40727,8 @@
       <c r="E14" s="3">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -40780,11 +40744,8 @@
       <c r="E15" s="3">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -40800,11 +40761,8 @@
       <c r="E16" s="3">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -40820,11 +40778,8 @@
       <c r="E17" s="3">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -40840,11 +40795,8 @@
       <c r="E18" s="3">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -40855,16 +40807,13 @@
         <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E19" s="3">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -40880,11 +40829,8 @@
       <c r="E20" s="3">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -40900,11 +40846,8 @@
       <c r="E21" s="3">
         <v>18</v>
       </c>
-      <c r="H21" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -40920,11 +40863,8 @@
       <c r="E22" s="3">
         <v>19</v>
       </c>
-      <c r="H22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -40940,11 +40880,8 @@
       <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -40960,11 +40897,8 @@
       <c r="E24" s="3">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -40980,11 +40914,8 @@
       <c r="E25" s="3">
         <v>22</v>
       </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -41000,11 +40931,8 @@
       <c r="E26" s="3">
         <v>23</v>
       </c>
-      <c r="H26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -41015,16 +40943,13 @@
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E27" s="3">
         <v>24</v>
       </c>
-      <c r="H27" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -41040,11 +40965,8 @@
       <c r="E28" s="3">
         <v>25</v>
       </c>
-      <c r="H28" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -41060,11 +40982,8 @@
       <c r="E29" s="3">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -41080,11 +40999,8 @@
       <c r="E30" s="3">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -41100,11 +41016,8 @@
       <c r="E31" s="3">
         <v>28</v>
       </c>
-      <c r="H31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -41120,11 +41033,8 @@
       <c r="E32" s="3">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -41135,16 +41045,13 @@
         <v>66</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E33" s="3">
         <v>30</v>
       </c>
-      <c r="H33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -41160,11 +41067,8 @@
       <c r="E34" s="3">
         <v>31</v>
       </c>
-      <c r="H34" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -41180,11 +41084,8 @@
       <c r="E35" s="3">
         <v>32</v>
       </c>
-      <c r="H35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -41200,11 +41101,8 @@
       <c r="E36" s="3">
         <v>33</v>
       </c>
-      <c r="H36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -41220,11 +41118,8 @@
       <c r="E37" s="3">
         <v>34</v>
       </c>
-      <c r="H37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -41240,11 +41135,8 @@
       <c r="E38" s="3">
         <v>35</v>
       </c>
-      <c r="H38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -41260,11 +41152,8 @@
       <c r="E39" s="3">
         <v>36</v>
       </c>
-      <c r="H39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -41275,16 +41164,13 @@
         <v>66</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E40" s="3">
         <v>37</v>
       </c>
-      <c r="H40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -41300,11 +41186,8 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -41321,7 +41204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -41332,13 +41215,13 @@
         <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -41355,7 +41238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -41372,7 +41255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -41389,7 +41272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -41406,7 +41289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -41553,7 +41436,7 @@
         <v>66</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E56" s="3">
         <v>16</v>
@@ -41689,7 +41572,7 @@
         <v>66</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E64" s="3">
         <v>24</v>
@@ -41791,7 +41674,7 @@
         <v>66</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E70" s="3">
         <v>30</v>
@@ -41910,7 +41793,7 @@
         <v>66</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E77" s="3">
         <v>37</v>
@@ -41961,7 +41844,7 @@
         <v>66</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E80" s="3">
         <v>3</v>
@@ -42182,7 +42065,7 @@
         <v>66</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E93" s="3">
         <v>16</v>
@@ -42318,7 +42201,7 @@
         <v>66</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E101" s="3">
         <v>24</v>
@@ -42420,7 +42303,7 @@
         <v>66</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E107" s="3">
         <v>30</v>
@@ -42539,7 +42422,7 @@
         <v>66</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E114" s="3">
         <v>37</v>
@@ -42590,7 +42473,7 @@
         <v>66</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E117" s="3">
         <v>3</v>
@@ -42811,7 +42694,7 @@
         <v>66</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E130" s="3">
         <v>16</v>
@@ -42947,7 +42830,7 @@
         <v>66</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E138" s="3">
         <v>24</v>
@@ -43049,7 +42932,7 @@
         <v>66</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E144" s="3">
         <v>30</v>
@@ -43168,7 +43051,7 @@
         <v>66</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E151" s="3">
         <v>37</v>
